--- a/dataDemographics.xlsx
+++ b/dataDemographics.xlsx
@@ -497,17 +497,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11/25/2022 01:19 PM</t>
+          <t>2022-11-25T13:19:17.422785+0000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/16/2022 08:37 AM</t>
+          <t>2022-12-16T08:37:43.092980+0000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>63701d24f03239c72c00018e</t>
+          <t>ObjectId:("63701d24f03239c72c00018e")</t>
         </is>
       </c>
     </row>
@@ -533,17 +533,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10/19/2018 08:49 PM</t>
+          <t>2018-10-19T19:49:46.124267+0000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11/17/2022 08:08 PM</t>
+          <t>2022-11-17T20:08:11.264629+0000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>63701d24f03239c72c00018f</t>
+          <t>ObjectId:("63701d24f03239c72c00018f")</t>
         </is>
       </c>
     </row>
@@ -569,17 +569,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>02/16/2022 11:45 PM</t>
+          <t>2022-02-16T23:45:28.785495+0000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12/29/2022 08:01 PM</t>
+          <t>2022-12-29T20:01:45.385145+0000</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>63701d24f03239c72c000190</t>
+          <t>ObjectId:("63701d24f03239c72c000190")</t>
         </is>
       </c>
     </row>
@@ -605,17 +605,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>07/25/2022 03:00 PM</t>
+          <t>2022-07-25T14:00:02.544542+0000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09/04/2022 02:16 PM</t>
+          <t>2022-09-04T13:16:31.373299+0000</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>63701d24f03239c72c000191</t>
+          <t>ObjectId:("63701d24f03239c72c000191")</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>11/03/2020 03:55 PM</t>
+          <t>2020-11-03T15:55:55.814393+0000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>05/22/2022 11:46 PM</t>
+          <t>2022-05-22T22:47:01.818338+0000</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>63701d24f03239867500012a</t>
+          <t>ObjectId:("63701d24f03239867500012a")</t>
         </is>
       </c>
     </row>
@@ -677,17 +677,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>09/05/2019 08:24 AM</t>
+          <t>2019-09-05T07:24:00.452444+0000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12/11/2020 02:47 PM</t>
+          <t>2020-12-11T14:47:12.641955+0000</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>63701d24f03239867500012b</t>
+          <t>ObjectId:("63701d24f03239867500012b")</t>
         </is>
       </c>
     </row>
@@ -713,17 +713,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>04/19/2020 01:46 PM</t>
+          <t>2020-04-19T12:46:44.951657+0000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09/06/2020 07:36 PM</t>
+          <t>2020-09-06T18:37:28.986914+0000</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>e0e773c56f9f20529250c443</t>
+          <t>ObjectId:("e0e773c56f9f20529250c443a01c6aa9472cc")</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>05/01/2018 12:55 PM</t>
+          <t>2018-05-01T11:55:19.280386+0000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09/05/2020 03:38 AM</t>
+          <t>2020-09-05T02:38:14.552199+0000</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>a01c6aa9472cc9e4bd2b0ee9</t>
+          <t>ObjectId:("9e4bd2b0ee932454f0cfb06ee4491f0f9d8d0")</t>
         </is>
       </c>
     </row>
@@ -785,17 +785,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>08/30/2022 05:41 AM</t>
+          <t>2022-08-30T04:41:31.366340+0000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09/11/2022 06:47 PM</t>
+          <t>2022-09-11T17:48:03.193645+0000</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>32454f0cfb06ee4491f0f9d8</t>
+          <t>ObjectId:("b2cb5778e41cb8fae420d7ba0958d5bfecccf")</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>01/28/2020 09:33 AM</t>
+          <t>2020-01-28T09:33:04.666318+0000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/03/2020 04:01 AM</t>
+          <t>2020-10-03T03:01:57.021317+0000</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>d0b2cb5778e41cb8fae420d7</t>
+          <t>ObjectId:("a9a0e9584c0f410ffada0ad65474fa8e2cc39")</t>
         </is>
       </c>
     </row>
@@ -857,17 +857,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>04/02/2020 03:41 PM</t>
+          <t>2020-04-02T14:41:20.929483+0000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>09/07/2020 08:07 PM</t>
+          <t>2020-09-07T19:07:19.954866+0000</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ba0958d5bfecccfa9a0e9584</t>
+          <t>ObjectId:("4028ee5295f9711fe568843f26114e3cab2cb")</t>
         </is>
       </c>
     </row>
@@ -893,17 +893,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>12/25/2019 12:13 AM</t>
+          <t>2019-12-25T00:13:06.390590+0000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>05/22/2020 02:37 AM</t>
+          <t>2020-05-22T01:37:18.381601+0000</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>c0f410ffada0ad65474fa8e2</t>
+          <t>ObjectId:("3e9d7581494eed88315a0349203b7d00c241d")</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>02/11/2020 01:40 PM</t>
+          <t>2020-02-11T13:40:12.360537+0000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>04/25/2021 12:54 AM</t>
+          <t>2021-04-24T23:55:01.616400+0000</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cc394028ee5295f9711fe568</t>
+          <t>ObjectId:("41871b083038af6acc2b4d6779fcbd8797a83")</t>
         </is>
       </c>
     </row>
@@ -965,17 +965,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>03/13/2021 06:43 PM</t>
+          <t>2021-03-13T18:43:11.397688+0000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12/05/2022 01:33 PM</t>
+          <t>2022-12-05T13:33:05.622770+0000</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>843f26114e3cab2cb3e9d758</t>
+          <t>ObjectId:("7711d7bb720a3871608479812718ee8bafa72")</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1001,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10/11/2019 11:48 PM</t>
+          <t>2019-10-11T22:48:08.629670+0000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>03/18/2021 09:54 AM</t>
+          <t>2021-03-18T08:54:29.491680+0000</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1494eed88315a0349203b7d0</t>
+          <t>ObjectId:("2a978c42a051281307cd528253a6d225c86e8")</t>
         </is>
       </c>
     </row>
@@ -1037,17 +1037,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>03/05/2019 03:14 PM</t>
+          <t>2019-03-05T15:14:48.637472+0000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/05/2021 12:27 AM</t>
+          <t>2021-10-04T23:27:29.267627+0000</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0c241d41871b083038af6acc</t>
+          <t>ObjectId:("f6ede29f260d6dc8ac2b142d7e38266d288f9")</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>06/15/2019 04:13 PM</t>
+          <t>2019-06-15T15:13:31.130285+0000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/14/2020 07:08 PM</t>
+          <t>2020-10-14T18:09:13.687557+0000</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2b4d6779fcbd8797a837711d</t>
+          <t>ObjectId:("7a5bd0e45aa5c0d4019ee8e5493be4647e7eb")</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1109,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10/29/2021 03:33 AM</t>
+          <t>2021-10-29T02:33:29.730446+0000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11/05/2021 11:43 PM</t>
+          <t>2021-11-05T22:43:43.026385+0000</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>7bb720a3871608479812718e</t>
+          <t>ObjectId:("f50e19c5084e42ce8dca5eec688d77a0c77d0")</t>
         </is>
       </c>
     </row>
@@ -1145,17 +1145,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>06/06/2022 10:47 PM</t>
+          <t>2022-06-06T21:47:01.032977+0000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10/14/2022 01:43 AM</t>
+          <t>2022-10-14T00:43:09.190681+0000</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>e8bafa722a978c42a0512813</t>
+          <t>ObjectId:("bf20b1d455229234ace0e1aac0d1efdbff3d4")</t>
         </is>
       </c>
     </row>
@@ -1181,17 +1181,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>01/23/2019 02:48 AM</t>
+          <t>2019-01-23T02:48:47.522604+0000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/05/2021 03:11 PM</t>
+          <t>2021-06-05T14:11:34.356525+0000</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>07cd528253a6d225c86e8f6e</t>
+          <t>ObjectId:("81fafe2f04affcdac8ed9b6f87ef7bfbc6faf")</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1217,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>01/31/2019 10:24 PM</t>
+          <t>2019-01-31T22:24:46.356160+0000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>07/08/2021 12:24 AM</t>
+          <t>2021-07-07T23:24:30.780182+0000</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>de29f260d6dc8ac2b142d7e3</t>
+          <t>ObjectId:("e995813ebc31965d88569e470e8d6895d274f")</t>
         </is>
       </c>
     </row>
@@ -1253,17 +1253,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>03/13/2022 10:34 AM</t>
+          <t>2022-03-13T09:34:41.762496+0000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11/25/2022 07:50 PM</t>
+          <t>2022-11-25T19:50:15.037564+0000</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>8266d288f97a5bd0e45aa5c0</t>
+          <t>ObjectId:("c342c134fcc13813caa3cb79f3f59e980f0b1")</t>
         </is>
       </c>
     </row>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>06/22/2019 03:34 AM</t>
+          <t>2019-06-22T02:34:48.543698+0000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11/06/2022 02:31 AM</t>
+          <t>2022-11-06T02:31:04.508345+0000</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>d4019ee8e5493be4647e7ebf</t>
+          <t>ObjectId:("bdd16465c12a368ecf49d904a26d745a3028f")</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1325,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>05/18/2020 07:38 AM</t>
+          <t>2020-05-18T06:38:59.928529+0000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11/21/2021 09:29 PM</t>
+          <t>2021-11-21T21:30:21.522197+0000</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>50e19c5084e42ce8dca5eec6</t>
+          <t>ObjectId:("2e88a957b9984c6be6f4324c2e8ca9b7dd500")</t>
         </is>
       </c>
     </row>
@@ -1361,17 +1361,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10/14/2022 07:25 AM</t>
+          <t>2022-10-14T06:25:21.289624+0000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12/29/2022 02:50 AM</t>
+          <t>2022-12-29T02:50:21.827118+0000</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>88d77a0c77d0bf20b1d45522</t>
+          <t>ObjectId:("71ea7a05138a9246181306fe4384a46d84a72")</t>
         </is>
       </c>
     </row>
@@ -1397,17 +1397,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>05/08/2018 02:22 AM</t>
+          <t>2018-05-08T01:22:30.383645+0000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>03/13/2020 04:39 PM</t>
+          <t>2020-03-13T15:39:18.600669+0000</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>9234ace0e1aac0d1efdbff3d</t>
+          <t>ObjectId:("59d87c605fc4d73094e75cea128257bece748")</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1433,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>07/01/2022 05:45 PM</t>
+          <t>2022-07-01T16:45:29.689965+0000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>11/16/2022 04:19 AM</t>
+          <t>2022-11-16T04:19:32.851839+0000</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>481fafe2f04affcdac8ed9b6</t>
+          <t>ObjectId:("27cc3e282234df9cfd9aa826494e7dd1aac3d")</t>
         </is>
       </c>
     </row>
@@ -1469,17 +1469,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>03/11/2020 01:33 AM</t>
+          <t>2020-03-11T00:33:33.766344+0000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>07/30/2022 05:31 AM</t>
+          <t>2022-07-30T04:31:55.327261+0000</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>f87ef7bfbc6fafe995813ebc</t>
+          <t>ObjectId:("ee03d1d35a119435b0bdec34376ead66b3437")</t>
         </is>
       </c>
     </row>
@@ -1505,17 +1505,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>06/16/2021 07:48 PM</t>
+          <t>2021-06-16T18:48:22.358132+0000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10/29/2022 03:21 AM</t>
+          <t>2022-10-29T02:21:12.393555+0000</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>31965d88569e470e8d6895d2</t>
+          <t>ObjectId:("25238fdc5c891698756f03ce3428998fb5e03")</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1541,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>06/25/2019 12:29 AM</t>
+          <t>2019-06-24T23:29:54.260175+0000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>04/16/2022 01:57 AM</t>
+          <t>2022-04-16T00:57:57.737295+0000</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>74fc342c134fcc13813caa3c</t>
+          <t>ObjectId:("72f8acb35a7c516cacc981d5751627987220b")</t>
         </is>
       </c>
     </row>
@@ -1577,17 +1577,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>07/07/2020 11:46 AM</t>
+          <t>2020-07-07T10:46:37.501430+0000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10/09/2021 04:25 PM</t>
+          <t>2021-10-09T15:25:29.946169+0000</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>b79f3f59e980f0b1bdd16465</t>
+          <t>ObjectId:("81bfc4504b483e8d9a0890c0aeadf9577f967")</t>
         </is>
       </c>
     </row>
@@ -1613,17 +1613,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>04/28/2019 02:07 PM</t>
+          <t>2019-04-28T13:07:12.788717+0000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10/16/2020 03:30 PM</t>
+          <t>2020-10-16T14:30:24.574765+0000</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>c12a368ecf49d904a26d745a</t>
+          <t>ObjectId:("495a48a0143230e103737d2f0be87fee29be0")</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1649,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>02/14/2018 07:16 PM</t>
+          <t>2018-02-14T19:16:39.554293+0000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12/26/2020 02:12 PM</t>
+          <t>2020-12-26T14:13:13.559549+0000</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3028f2e88a957b9984c6be6f</t>
+          <t>ObjectId:("242f1f40344fa8e8b41bb482ed741876980f3")</t>
         </is>
       </c>
     </row>
@@ -1685,17 +1685,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10/25/2018 05:03 AM</t>
+          <t>2018-10-25T04:03:15.013430+0000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>04/08/2022 02:04 AM</t>
+          <t>2022-04-08T01:04:34.045841+0000</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>4324c2e8ca9b7dd50071ea7a</t>
+          <t>ObjectId:("112da4932cb4d9abb462e7a69b9652df1fce4")</t>
         </is>
       </c>
     </row>
@@ -1721,17 +1721,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>05/07/2021 09:32 AM</t>
+          <t>2021-05-07T08:32:43.542927+0000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12/30/2021 07:25 AM</t>
+          <t>2021-12-30T07:25:43.911066+0000</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>05138a9246181306fe4384a4</t>
+          <t>ObjectId:("aea448abe78761e00dbfb04c6448c04578001")</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>08/26/2019 11:19 AM</t>
+          <t>2019-08-26T10:19:57.882496+0000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06/24/2021 10:51 PM</t>
+          <t>2021-06-24T21:52:03.770438+0000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>6d84a7259d87c605fc4d7309</t>
+          <t>ObjectId:("5e4393e7c411877b54e8afd788718a3e30534")</t>
         </is>
       </c>
     </row>
@@ -1793,17 +1793,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>08/31/2022 02:13 PM</t>
+          <t>2022-08-31T13:13:28.938121+0000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10/29/2022 01:49 AM</t>
+          <t>2022-10-29T00:49:41.329013+0000</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>4e75cea128257bece74827cc</t>
+          <t>ObjectId:("20913831443ece1e3a9e594b4ca91a46769e8")</t>
         </is>
       </c>
     </row>
@@ -1829,17 +1829,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>04/18/2020 06:07 AM</t>
+          <t>2020-04-18T05:07:05.727340+0000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09/12/2021 05:19 PM</t>
+          <t>2021-09-12T16:19:52.104070+0000</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>3e282234df9cfd9aa826494e</t>
+          <t>ObjectId:("8cc661f53162c778ba2071e264f2443407d6b")</t>
         </is>
       </c>
     </row>
@@ -1865,17 +1865,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>04/13/2021 09:56 PM</t>
+          <t>2021-04-13T20:56:31.789781+0000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>07/16/2021 01:38 PM</t>
+          <t>2021-07-16T12:39:24.875004+0000</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>7dd1aac3dee03d1d35a11943</t>
+          <t>ObjectId:("c2ca0c0ecc860ba0eb7efb0a1a33efc43f7ed")</t>
         </is>
       </c>
     </row>
@@ -1901,17 +1901,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>03/06/2021 09:52 PM</t>
+          <t>2021-03-06T21:52:38.421867+0000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/28/2021 11:18 PM</t>
+          <t>2021-06-28T22:19:18.433173+0000</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>5b0bdec34376ead66b343725</t>
+          <t>ObjectId:("cd62842925c90bbcbd0a0f156c1584f0d2444")</t>
         </is>
       </c>
     </row>
@@ -1937,17 +1937,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>04/21/2018 04:16 PM</t>
+          <t>2018-04-21T15:16:10.514882+0000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>11/10/2018 05:34 PM</t>
+          <t>2018-11-10T17:34:48.883539+0000</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>238fdc5c891698756f03ce34</t>
+          <t>ObjectId:("8970e9fe6ac3431e06bf891f675d27d66848a")</t>
         </is>
       </c>
     </row>
@@ -1973,17 +1973,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>12/22/2022 01:09 AM</t>
+          <t>2022-12-22T01:09:56.733830+0000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12/23/2022 09:05 PM</t>
+          <t>2022-12-23T21:06:06.842241+0000</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>28998fb5e0372f8acb35a7c5</t>
+          <t>ObjectId:("359722e6500577fa4d0e566c1e04f7d10f8fc")</t>
         </is>
       </c>
     </row>
@@ -2009,17 +2009,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>10/02/2020 03:02 AM</t>
+          <t>2020-10-02T02:02:33.991794+0000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>03/14/2021 08:20 PM</t>
+          <t>2021-03-14T19:20:30.608475+0000</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>16cacc981d5751627987220b</t>
+          <t>ObjectId:("80b74fd491821e0078d21c6cd77cc9ee5a33c")</t>
         </is>
       </c>
     </row>
@@ -2045,17 +2045,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>09/05/2019 10:17 PM</t>
+          <t>2019-09-05T21:17:49.809549+0000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>11/29/2020 02:54 PM</t>
+          <t>2020-11-29T14:54:52.788124+0000</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>81bfc4504b483e8d9a0890c0</t>
+          <t>ObjectId:("d9683d23e27d240058d996dda55bfca14db27")</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2081,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>12/06/2020 07:18 PM</t>
+          <t>2020-12-06T19:18:35.087948+0000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>04/25/2022 09:26 PM</t>
+          <t>2022-04-25T20:26:29.865856+0000</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>aeadf9577f967495a48a0143</t>
+          <t>ObjectId:("97cd40939d933584d55a456b44e0f98634e2a")</t>
         </is>
       </c>
     </row>
@@ -2117,17 +2117,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>11/04/2019 08:27 AM</t>
+          <t>2019-11-04T08:27:50.093822+0000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06/11/2022 05:30 AM</t>
+          <t>2022-06-11T04:30:18.894853+0000</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>230e103737d2f0be87fee29b</t>
+          <t>ObjectId:("fdb4fb2473910e1b881cd37e54679ac3f61e0")</t>
         </is>
       </c>
     </row>
@@ -2153,17 +2153,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>01/05/2022 06:37 PM</t>
+          <t>2022-01-05T18:37:11.659121+0000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12/25/2022 09:12 AM</t>
+          <t>2022-12-25T09:12:25.224054+0000</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>e0242f1f40344fa8e8b41bb4</t>
+          <t>ObjectId:("77100d604b7db138345f09d4eacb5c82bedd2")</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2189,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>03/28/2019 07:06 PM</t>
+          <t>2019-03-28T18:06:07.568630+0000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08/28/2021 01:50 AM</t>
+          <t>2021-08-28T00:50:26.508845+0000</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>82ed741876980f3112da4932</t>
+          <t>ObjectId:("45742a650d2947e72185c9708a99182951260")</t>
         </is>
       </c>
     </row>
@@ -2225,17 +2225,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>05/10/2018 10:41 AM</t>
+          <t>2018-05-10T09:41:45.120525+0000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>05/11/2022 01:58 AM</t>
+          <t>2022-05-11T00:58:12.637145+0000</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cb4d9abb462e7a69b9652df1</t>
+          <t>ObjectId:("0109e8c6f3a0c69cbade29b5e159754872174")</t>
         </is>
       </c>
     </row>
@@ -2261,17 +2261,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>05/11/2018 11:42 AM</t>
+          <t>2018-05-11T10:42:33.282964+0000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/21/2022 02:26 PM</t>
+          <t>2022-08-21T13:26:35.886901+0000</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>fce4aea448abe78761e00dbf</t>
+          <t>ObjectId:("c247acf73671ac836eed333a49494e1af1798")</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2297,17 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>04/01/2020 01:42 PM</t>
+          <t>2020-04-01T12:42:17.988713+0000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>03/23/2022 03:18 AM</t>
+          <t>2022-03-23T02:18:23.668359+0000</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>b04c6448c045780015e4393e</t>
+          <t>ObjectId:("01948f4b80b87208f35385d89d17dfc4349b7")</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>05/11/2019 09:24 AM</t>
+          <t>2019-05-11T08:24:41.190998+0000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>02/24/2021 11:02 AM</t>
+          <t>2021-02-24T11:02:24.434356+0000</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>7c411877b54e8afd788718a3</t>
+          <t>ObjectId:("458da59859898a56dde48ce5b1814992e37b6")</t>
         </is>
       </c>
     </row>
@@ -2369,17 +2369,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>03/22/2020 12:23 AM</t>
+          <t>2020-03-21T23:23:00.356389+0000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>02/22/2022 03:50 PM</t>
+          <t>2022-02-22T15:50:51.811351+0000</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>e3053420913831443ece1e3a</t>
+          <t>ObjectId:("a3ca29e06b5f435867a27ac6efaac1a6ecbf9")</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2405,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>02/05/2018 09:55 AM</t>
+          <t>2018-02-05T09:55:55.656113+0000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>06/25/2019 04:51 AM</t>
+          <t>2019-06-25T03:52:39.889476+0000</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>9e594b4ca91a46769e88cc66</t>
+          <t>ObjectId:("1f51e853102d5d9977fae7efcdc2e735743e0")</t>
         </is>
       </c>
     </row>
@@ -2441,17 +2441,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>07/25/2021 07:27 AM</t>
+          <t>2021-07-25T06:27:41.564946+0000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>11/27/2022 07:17 PM</t>
+          <t>2022-11-27T19:17:30.763423+0000</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1f53162c778ba2071e264f24</t>
+          <t>ObjectId:("b7f053568b4742736b045870bc976f5134dab")</t>
         </is>
       </c>
     </row>
@@ -2477,17 +2477,17 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>07/04/2018 05:58 AM</t>
+          <t>2018-07-04T04:58:56.307700+0000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10/30/2019 03:53 AM</t>
+          <t>2019-10-30T02:54:23.403907+0000</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>43407d6bc2ca0c0ecc860ba0</t>
+          <t>ObjectId:("0538a1b70c4581beb8818a840d7857cea8c2a")</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2513,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>11/02/2020 05:20 PM</t>
+          <t>2020-11-02T17:20:51.154549+0000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>03/12/2021 07:43 AM</t>
+          <t>2021-03-12T07:43:54.876512+0000</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>eb7efb0a1a33efc43f7edcd6</t>
+          <t>ObjectId:("44b8f1cc12d0dbc31fa1ac457ef528cfd0787")</t>
         </is>
       </c>
     </row>
@@ -2549,17 +2549,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>04/07/2020 04:14 AM</t>
+          <t>2020-04-07T03:14:53.780343+0000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12/24/2022 05:26 PM</t>
+          <t>2022-12-24T17:26:08.190423+0000</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2842925c90bbcbd0a0f156c1</t>
+          <t>ObjectId:("fcc2ba8a99f9034796cc813302fc7691e3a3e")</t>
         </is>
       </c>
     </row>
@@ -2585,17 +2585,17 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>09/30/2022 11:30 PM</t>
+          <t>2022-09-30T22:30:02.841358+0000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12/15/2022 07:04 PM</t>
+          <t>2022-12-15T19:04:57.222023+0000</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>584f0d24448970e9fe6ac343</t>
+          <t>ObjectId:("f9dfb6aef8be6f4851f79982bfee13e87dafd")</t>
         </is>
       </c>
     </row>
@@ -2621,17 +2621,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>08/26/2019 02:07 PM</t>
+          <t>2019-08-26T13:07:20.426689+0000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>01/08/2020 10:35 AM</t>
+          <t>2020-01-08T10:35:18.545888+0000</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1e06bf891f675d27d66848a3</t>
+          <t>ObjectId:("cf35a19864848042b68d8be10aead81e0a44a")</t>
         </is>
       </c>
     </row>
@@ -2657,17 +2657,17 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>06/06/2022 02:08 AM</t>
+          <t>2022-06-06T01:08:41.132360+0000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08/11/2022 01:51 AM</t>
+          <t>2022-08-11T00:52:27.035118+0000</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>59722e6500577fa4d0e566c1</t>
+          <t>ObjectId:("02dd8077dafbbd4ed11655743c2aca717d21f")</t>
         </is>
       </c>
     </row>
@@ -2693,17 +2693,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>09/01/2021 01:57 AM</t>
+          <t>2021-09-01T00:57:04.266827+0000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>07/03/2022 12:30 PM</t>
+          <t>2022-07-03T11:30:04.818841+0000</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>e04f7d10f8fc80b74fd49182</t>
+          <t>ObjectId:("4e5035f1ee47a4374fd06915c61532d4e71c5")</t>
         </is>
       </c>
     </row>
@@ -2729,17 +2729,17 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>09/27/2021 05:06 AM</t>
+          <t>2021-09-27T04:06:12.807476+0000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11/26/2022 09:55 AM</t>
+          <t>2022-11-26T09:55:53.438487+0000</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1e0078d21c6cd77cc9ee5a33</t>
+          <t>ObjectId:("8ee7e81fa49f61e67d2854cde1a1fb72b2a8d")</t>
         </is>
       </c>
     </row>
@@ -2765,17 +2765,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>02/23/2018 09:27 PM</t>
+          <t>2018-02-23T21:27:37.031468+0000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>03/06/2021 09:36 PM</t>
+          <t>2021-03-06T21:36:59.423428+0000</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>cd9683d23e27d240058d996d</t>
+          <t>ObjectId:("beb090d102575520a3a0dd0c0f65e1652cc23")</t>
         </is>
       </c>
     </row>
@@ -2801,17 +2801,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>11/30/2020 07:19 PM</t>
+          <t>2020-11-30T19:19:02.674834+0000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>07/30/2022 02:28 PM</t>
+          <t>2022-07-30T13:28:51.882688+0000</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>da55bfca14db2797cd40939d</t>
+          <t>ObjectId:("056cce19cd3a0186064a90b0e7ea4ba2e3028")</t>
         </is>
       </c>
     </row>
@@ -2837,17 +2837,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>10/30/2021 07:37 AM</t>
+          <t>2021-10-30T06:37:36.909836+0000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>07/06/2022 03:12 PM</t>
+          <t>2022-07-06T14:13:06.104761+0000</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>933584d55a456b44e0f98634</t>
+          <t>ObjectId:("4bb963567f193ad6e84bcff86b387e464b2e5")</t>
         </is>
       </c>
     </row>
@@ -2873,17 +2873,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>04/15/2021 04:19 PM</t>
+          <t>2021-04-15T15:19:54.665679+0000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>07/01/2021 02:20 PM</t>
+          <t>2021-07-01T13:21:30.709741+0000</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>e2afdb4fb2473910e1b881cd</t>
+          <t>ObjectId:("35f1694f55b8018e0f4ca892e3be0bdf4536a")</t>
         </is>
       </c>
     </row>
@@ -2909,17 +2909,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>08/02/2019 06:50 AM</t>
+          <t>2019-08-02T05:50:07.267616+0000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>02/10/2020 09:19 AM</t>
+          <t>2020-02-10T09:19:43.329564+0000</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>37e54679ac3f61e077100d60</t>
+          <t>ObjectId:("7d0fa79eb7f1a094a05f9aba13ad018be95a8")</t>
         </is>
       </c>
     </row>
@@ -2945,17 +2945,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>02/03/2022 05:40 PM</t>
+          <t>2022-02-03T17:40:00.975026+0000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>12/28/2022 05:25 AM</t>
+          <t>2022-12-28T05:25:48.537536+0000</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>4b7db138345f09d4eacb5c82</t>
+          <t>ObjectId:("78d43c6c4030db76b52dd4b3e8d495c594f80")</t>
         </is>
       </c>
     </row>
@@ -2981,17 +2981,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>10/09/2018 02:17 AM</t>
+          <t>2018-10-09T01:17:00.091751+0000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>11/05/2019 11:48 AM</t>
+          <t>2019-11-05T11:48:34.936291+0000</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>bedd245742a650d2947e7218</t>
+          <t>ObjectId:("864891594072c73655ddf55764708b11d21ab")</t>
         </is>
       </c>
     </row>
@@ -3017,17 +3017,17 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>10/29/2020 02:12 PM</t>
+          <t>2020-10-29T13:12:30.937747+0000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>01/05/2022 07:31 AM</t>
+          <t>2022-01-05T07:31:47.076356+0000</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>5c9708a991829512600109e8</t>
+          <t>ObjectId:("6cc28dccd327c4069d3fa6d6bb613505f9202")</t>
         </is>
       </c>
     </row>
@@ -3053,17 +3053,17 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>05/21/2022 11:36 PM</t>
+          <t>2022-05-21T22:36:38.880525+0000</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>11/19/2022 11:21 AM</t>
+          <t>2022-11-19T11:21:53.573738+0000</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>c6f3a0c69cbade29b5e15975</t>
+          <t>ObjectId:("69390bbe1a5c8857b1cf47aeae2e2d76fd220")</t>
         </is>
       </c>
     </row>
@@ -3089,17 +3089,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>06/02/2019 03:56 PM</t>
+          <t>2019-06-02T14:56:38.414521+0000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10/02/2020 06:17 AM</t>
+          <t>2020-10-02T05:17:26.199601+0000</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>4872174c247acf73671ac836</t>
+          <t>ObjectId:("63f38b21c612dee27573b1d53a3a1b02bb61e")</t>
         </is>
       </c>
     </row>
@@ -3125,17 +3125,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>11/16/2020 08:26 PM</t>
+          <t>2020-11-16T20:26:52.541642+0000</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>06/15/2022 08:01 PM</t>
+          <t>2022-06-15T19:01:44.803371+0000</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>eed333a49494e1af17980194</t>
+          <t>ObjectId:("09ecdf002dbd1872cc75fd8b805b5647c0750")</t>
         </is>
       </c>
     </row>
@@ -3161,17 +3161,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>12/24/2021 04:46 PM</t>
+          <t>2021-12-24T16:46:05.384884+0000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08/11/2022 02:48 AM</t>
+          <t>2022-08-11T01:49:00.546860+0000</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>8f4b80b87208f35385d89d17</t>
+          <t>ObjectId:("793bb33fdedf399b31a1d0625815b20d46f4b")</t>
         </is>
       </c>
     </row>
@@ -3197,17 +3197,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>05/15/2019 03:27 AM</t>
+          <t>2019-05-15T02:27:42.790390+0000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>12/13/2022 10:32 PM</t>
+          <t>2022-12-13T22:32:58.978212+0000</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>dfc4349b7458da59859898a5</t>
+          <t>ObjectId:("d730d7528b2bac2af673813f66b897e2773f8")</t>
         </is>
       </c>
     </row>
@@ -3233,17 +3233,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>01/01/2021 09:50 PM</t>
+          <t>2021-01-01T21:50:27.007615+0000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>06/17/2022 08:53 AM</t>
+          <t>2022-06-17T07:53:58.329105+0000</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>6dde48ce5b1814992e37b6a3</t>
+          <t>ObjectId:("10075249ea8fe86fa6455585e4f0f038e9fc6")</t>
         </is>
       </c>
     </row>
@@ -3269,17 +3269,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>06/13/2018 09:13 PM</t>
+          <t>2018-06-13T20:13:52.812516+0000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>09/10/2019 04:36 AM</t>
+          <t>2019-09-10T03:37:15.079270+0000</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>ca29e06b5f435867a27ac6ef</t>
+          <t>ObjectId:("1eee808277182849890c6d26e245e5c2f72d8")</t>
         </is>
       </c>
     </row>
@@ -3305,17 +3305,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>10/08/2018 10:54 PM</t>
+          <t>2018-10-08T21:54:40.499548+0000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>12/28/2022 01:01 PM</t>
+          <t>2022-12-28T13:01:47.222087+0000</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>aac1a6ecbf91f51e853102d5</t>
+          <t>ObjectId:("186f7fce6e1682cec0f17e40b3ef069bb4124")</t>
         </is>
       </c>
     </row>
@@ -3341,17 +3341,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>08/20/2020 09:39 AM</t>
+          <t>2020-08-20T08:39:17.073422+0000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>06/02/2021 02:55 AM</t>
+          <t>2021-06-02T01:56:05.005271+0000</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>d9977fae7efcdc2e735743e0</t>
+          <t>ObjectId:("808bf746f8def1bdb5cd0984ae69968fc0cd7")</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3377,17 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>04/11/2018 07:59 PM</t>
+          <t>2018-04-11T18:59:33.755943+0000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>04/26/2021 05:31 PM</t>
+          <t>2021-04-26T16:31:54.428884+0000</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>b7f053568b4742736b045870</t>
+          <t>ObjectId:("341c3caa9685bae4422bd72c9eca1c12f0487")</t>
         </is>
       </c>
     </row>
@@ -3413,17 +3413,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>12/19/2018 03:39 PM</t>
+          <t>2018-12-19T15:39:46.967407+0000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>08/18/2020 03:57 PM</t>
+          <t>2020-08-18T14:57:58.115503+0000</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>bc976f5134dab0538a1b70c4</t>
+          <t>ObjectId:("c60772a03e571b01299f707330399dfb25789")</t>
         </is>
       </c>
     </row>
@@ -3449,17 +3449,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>05/03/2021 01:54 AM</t>
+          <t>2021-05-03T00:54:12.192672+0000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>05/09/2022 10:31 PM</t>
+          <t>2022-05-09T21:32:01.142339+0000</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>581beb8818a840d7857cea8c</t>
+          <t>ObjectId:("dc428662245c590f7559b10b49740380565e2")</t>
         </is>
       </c>
     </row>
@@ -3485,17 +3485,17 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>08/23/2018 02:04 PM</t>
+          <t>2018-08-23T13:04:44.517077+0000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>10/29/2022 05:34 PM</t>
+          <t>2022-10-29T16:34:22.081358+0000</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2a44b8f1cc12d0dbc31fa1ac</t>
+          <t>ObjectId:("b43b04c068d9def80377bce84438b40e80ad8")</t>
         </is>
       </c>
     </row>
@@ -3521,17 +3521,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>07/28/2020 09:02 PM</t>
+          <t>2020-07-28T20:02:38.776468+0000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>04/24/2021 12:40 AM</t>
+          <t>2021-04-23T23:40:51.233607+0000</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>457ef528cfd0787fcc2ba8a9</t>
+          <t>ObjectId:("a989bbe57c3e589fbe0781e4fafa8b3c8a4ce")</t>
         </is>
       </c>
     </row>
@@ -3557,17 +3557,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>10/05/2019 07:35 AM</t>
+          <t>2019-10-05T06:35:09.475043+0000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>01/07/2022 12:16 PM</t>
+          <t>2022-01-07T12:16:24.948355+0000</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>9f9034796cc813302fc7691e</t>
+          <t>ObjectId:("ca0202a2438ab679f65cc35d9a19422e86b24")</t>
         </is>
       </c>
     </row>
@@ -3593,17 +3593,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>02/05/2018 03:08 PM</t>
+          <t>2018-02-05T15:08:50.396221+0000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>09/20/2021 07:38 PM</t>
+          <t>2021-09-20T18:38:18.508907+0000</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>3a3ef9dfb6aef8be6f4851f7</t>
+          <t>ObjectId:("0b9cf9f5ae95c39e302eb2fb40a0c81aa2ba5")</t>
         </is>
       </c>
     </row>
@@ -3629,17 +3629,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>09/26/2021 04:07 PM</t>
+          <t>2021-09-26T15:07:36.410609+0000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>02/02/2022 04:12 AM</t>
+          <t>2022-02-02T04:13:22.200564+0000</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>9982bfee13e87dafdcf35a19</t>
+          <t>ObjectId:("a7cfb7ee7887aea54b276b9f053313b686ac2")</t>
         </is>
       </c>
     </row>
@@ -3665,17 +3665,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>09/03/2020 01:30 PM</t>
+          <t>2020-09-03T12:30:13.403695+0000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>05/20/2021 05:15 PM</t>
+          <t>2021-05-20T16:15:58.292453+0000</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>864848042b68d8be10aead81</t>
+          <t>ObjectId:("9bef266eda985b31bf90ff6798dd6d4987917")</t>
         </is>
       </c>
     </row>
@@ -3701,17 +3701,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>08/30/2020 02:27 AM</t>
+          <t>2020-08-30T01:27:50.611641+0000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>02/22/2021 05:29 PM</t>
+          <t>2021-02-22T17:30:21.731278+0000</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>e0a44a02dd8077dafbbd4ed1</t>
+          <t>ObjectId:("7867a97f88ee76da94c173aa41a75edb353b2")</t>
         </is>
       </c>
     </row>
@@ -3737,17 +3737,17 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>02/16/2019 10:22 PM</t>
+          <t>2019-02-16T22:22:27.723248+0000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>06/22/2019 05:39 PM</t>
+          <t>2019-06-22T16:39:58.774197+0000</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>1655743c2aca717d21f4e503</t>
+          <t>ObjectId:("a5986fd8df6652af8e93e27a43f61c5342349")</t>
         </is>
       </c>
     </row>
@@ -3773,17 +3773,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>09/17/2019 03:23 PM</t>
+          <t>2019-09-17T14:23:26.961520+0000</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>03/06/2022 07:10 PM</t>
+          <t>2022-03-06T19:11:02.655296+0000</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>5f1ee47a4374fd06915c6153</t>
+          <t>ObjectId:("3e6a283e2722f66d976e3219b4ff7e6499fdd")</t>
         </is>
       </c>
     </row>
@@ -3809,17 +3809,17 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>01/19/2019 06:27 AM</t>
+          <t>2019-01-19T06:27:21.968635+0000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>04/21/2019 10:19 AM</t>
+          <t>2019-04-21T09:20:20.147678+0000</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2d4e71c58ee7e81fa49f61e6</t>
+          <t>ObjectId:("14745d0d75947682db128741979713d9b2318")</t>
         </is>
       </c>
     </row>
@@ -3845,17 +3845,17 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>08/01/2022 10:51 AM</t>
+          <t>2022-08-01T09:51:15.456483+0000</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>09/18/2022 10:35 PM</t>
+          <t>2022-09-18T21:35:36.913781+0000</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>7d2854cde1a1fb72b2a8dbeb</t>
+          <t>ObjectId:("bd6e95861bf8ee544d675031465f854e43c9d")</t>
         </is>
       </c>
     </row>
@@ -3881,17 +3881,17 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>06/20/2019 12:30 PM</t>
+          <t>2019-06-20T11:30:14.901546+0000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>08/18/2022 02:42 PM</t>
+          <t>2022-08-18T13:42:55.354129+0000</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>090d102575520a3a0dd0c0f6</t>
+          <t>ObjectId:("0f69471ec8ca1b98cda74cff43514aca0d38c")</t>
         </is>
       </c>
     </row>
@@ -3917,17 +3917,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>02/23/2018 01:59 AM</t>
+          <t>2018-02-23T01:59:38.441837+0000</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>02/21/2019 02:27 AM</t>
+          <t>2019-02-21T02:28:28.468845+0000</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>5e1652cc23056cce19cd3a01</t>
+          <t>ObjectId:("7898968e38827bf7a2e9b81cb12d26f4c95dd")</t>
         </is>
       </c>
     </row>
@@ -3953,17 +3953,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>04/17/2022 04:55 AM</t>
+          <t>2022-04-17T03:55:45.615202+0000</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>05/14/2022 02:18 AM</t>
+          <t>2022-05-14T01:19:31.978089+0000</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>86064a90b0e7ea4ba2e30284</t>
+          <t>ObjectId:("f70f0501ed99e124f5c1565c1a7b1e69f5e4d")</t>
         </is>
       </c>
     </row>
@@ -3989,17 +3989,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>11/15/2021 07:27 AM</t>
+          <t>2021-11-15T07:27:09.128610+0000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>04/18/2022 01:55 AM</t>
+          <t>2022-04-18T00:55:43.618753+0000</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>bb963567f193ad6e84bcff86</t>
+          <t>ObjectId:("a74e1f0991346a1ab40c2e2410903bc40dc71")</t>
         </is>
       </c>
     </row>
@@ -4025,17 +4025,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>05/05/2018 12:34 AM</t>
+          <t>2018-05-04T23:34:05.224687+0000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>12/06/2020 10:09 AM</t>
+          <t>2020-12-06T10:09:27.790924+0000</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>b387e464b2e535f1694f55b8</t>
+          <t>ObjectId:("39cb7160e15d4142a3899df9685c7e870aa8d")</t>
         </is>
       </c>
     </row>
@@ -4061,17 +4061,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>05/18/2021 07:59 PM</t>
+          <t>2021-05-18T18:59:58.153975+0000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>07/28/2021 12:44 AM</t>
+          <t>2021-07-27T23:45:44.263262+0000</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>018e0f4ca892e3be0bdf4536</t>
+          <t>ObjectId:("927ee63a23015933fe2db7cb976db049f81d3")</t>
         </is>
       </c>
     </row>
@@ -4097,17 +4097,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>04/03/2018 07:27 AM</t>
+          <t>2018-04-03T06:27:35.162196+0000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>07/07/2020 12:00 PM</t>
+          <t>2020-07-07T11:00:43.042525+0000</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>a7d0fa79eb7f1a094a05f9ab</t>
+          <t>ObjectId:("21ff764895713c9a50990e20c77d4eb64e683")</t>
         </is>
       </c>
     </row>
@@ -4133,17 +4133,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>06/11/2022 07:43 PM</t>
+          <t>2022-06-11T18:43:48.253094+0000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>08/09/2022 03:44 AM</t>
+          <t>2022-08-09T02:45:28.382156+0000</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>a13ad018be95a878d43c6c40</t>
+          <t>ObjectId:("4767cad5e1fe7fa245719b9a3f8fdcaaed400")</t>
         </is>
       </c>
     </row>
@@ -4169,17 +4169,17 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>03/11/2020 05:36 PM</t>
+          <t>2020-03-11T16:36:06.573914+0000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>07/13/2022 03:24 AM</t>
+          <t>2022-07-13T02:24:58.114463+0000</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>30db76b52dd4b3e8d495c594</t>
+          <t>ObjectId:("54cbc99f16c109e036fb4dd63daade5933394")</t>
         </is>
       </c>
     </row>
@@ -4205,17 +4205,17 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>01/15/2020 12:19 AM</t>
+          <t>2020-01-15T00:19:21.868841+0000</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>04/11/2022 06:03 PM</t>
+          <t>2022-04-11T17:03:23.835413+0000</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>f80864891594072c73655ddf</t>
+          <t>ObjectId:("fd9f65f084885b69ed28e40e2818a4cc909a4")</t>
         </is>
       </c>
     </row>
@@ -4241,17 +4241,17 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>01/30/2018 04:25 PM</t>
+          <t>2018-01-30T16:25:58.305070+0000</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>09/25/2019 11:20 PM</t>
+          <t>2019-09-25T22:21:12.957555+0000</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>55764708b11d21ab6cc28dcc</t>
+          <t>ObjectId:("fb1def3bf7fc4dc127493bbcf9a4d388e91f8")</t>
         </is>
       </c>
     </row>
@@ -4277,17 +4277,17 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>05/10/2021 10:32 AM</t>
+          <t>2021-05-10T09:32:14.325907+0000</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>07/13/2022 06:07 PM</t>
+          <t>2022-07-13T17:07:59.039546+0000</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>d327c4069d3fa6d6bb613505</t>
+          <t>ObjectId:("b340ec7c1c9a1f69db5c62f19c69c13e401b6")</t>
         </is>
       </c>
     </row>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>10/02/2018 09:57 AM</t>
+          <t>2018-10-02T08:57:20.730762+0000</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>09/16/2022 07:39 AM</t>
+          <t>2022-09-16T06:39:02.898880+0000</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>f920269390bbe1a5c8857b1c</t>
+          <t>ObjectId:("22859d80dd11f979f42a144a1efd07e885b53")</t>
         </is>
       </c>
     </row>
@@ -4349,17 +4349,17 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>02/15/2022 10:53 AM</t>
+          <t>2022-02-15T10:53:03.040856+0000</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>06/28/2022 10:10 PM</t>
+          <t>2022-06-28T21:10:03.955063+0000</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>f47aeae2e2d76fd22063f38b</t>
+          <t>ObjectId:("284aa3d053a1c293958d31521ed0ff298f4dd")</t>
         </is>
       </c>
     </row>
@@ -4385,17 +4385,17 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>02/03/2018 10:13 AM</t>
+          <t>2018-02-03T10:13:43.992361+0000</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>02/21/2020 01:32 PM</t>
+          <t>2020-02-21T13:32:46.974059+0000</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>21c612dee27573b1d53a3a1b</t>
+          <t>ObjectId:("c8f8290b9ca3f7dbe427c5dc99f36cbb4e81a")</t>
         </is>
       </c>
     </row>
@@ -4421,17 +4421,17 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>04/24/2019 01:28 PM</t>
+          <t>2019-04-24T12:28:54.363593+0000</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>05/16/2020 10:38 AM</t>
+          <t>2020-05-16T09:38:55.893104+0000</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>02bb61e09ecdf002dbd1872c</t>
+          <t>ObjectId:("8cedc25151b723f10cb90f78bc2b2aa65a110")</t>
         </is>
       </c>
     </row>
@@ -4457,17 +4457,17 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>05/29/2020 10:38 PM</t>
+          <t>2020-05-29T21:38:36.832425+0000</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>02/03/2021 02:54 PM</t>
+          <t>2021-02-03T14:55:04.657352+0000</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>c75fd8b805b5647c0750793b</t>
+          <t>ObjectId:("0f315f9acec0e206188cdbfd601e88a1d62e6")</t>
         </is>
       </c>
     </row>
@@ -4493,17 +4493,17 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>12/20/2022 02:19 AM</t>
+          <t>2022-12-20T02:19:16.513809+0000</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>12/20/2022 01:51 PM</t>
+          <t>2022-12-20T13:51:40.550981+0000</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>b33fdedf399b31a1d0625815</t>
+          <t>ObjectId:("fd83bb8a2cdf1849bb07840ce06b8ad817ae0")</t>
         </is>
       </c>
     </row>
@@ -4529,17 +4529,17 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>03/07/2018 04:00 AM</t>
+          <t>2018-03-07T04:00:37.977534+0000</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>09/02/2018 04:24 PM</t>
+          <t>2018-09-02T15:25:12.083910+0000</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>b20d46f4bd730d7528b2bac2</t>
+          <t>ObjectId:("70cd829b97feeada507991c96bedd360c11da")</t>
         </is>
       </c>
     </row>
@@ -4565,17 +4565,17 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>10/09/2022 09:48 PM</t>
+          <t>2022-10-09T20:48:11.998136+0000</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>11/04/2022 07:44 AM</t>
+          <t>2022-11-04T06:45:01.697789+0000</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>af673813f66b897e2773f810</t>
+          <t>ObjectId:("3fa1ed465cb5c98452b9cdc7bbe6cec3f93c2")</t>
         </is>
       </c>
     </row>
@@ -4601,17 +4601,17 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>05/28/2022 05:40 AM</t>
+          <t>2022-05-28T04:40:06.177495+0000</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>09/27/2022 06:37 AM</t>
+          <t>2022-09-27T05:37:57.125083+0000</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>075249ea8fe86fa6455585e4</t>
+          <t>ObjectId:("bc34700d59ecf6dbeb1ad4f3c921ab3e89116")</t>
         </is>
       </c>
     </row>
@@ -4637,17 +4637,17 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>12/10/2021 11:45 AM</t>
+          <t>2021-12-10T11:45:36.725520+0000</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>05/26/2022 01:30 AM</t>
+          <t>2022-05-26T00:31:18.694124+0000</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>f0f038e9fc61eee808277182</t>
+          <t>ObjectId:("9238fdd745da00c8efadeed126344651b7c77")</t>
         </is>
       </c>
     </row>
@@ -4673,17 +4673,17 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>11/27/2020 07:56 AM</t>
+          <t>2020-11-27T07:56:58.462940+0000</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>05/23/2021 07:43 PM</t>
+          <t>2021-05-23T18:43:49.672845+0000</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>849890c6d26e245e5c2f72d8</t>
+          <t>ObjectId:("ddba0159a8da5f0b45fef00401d32c0a80b18")</t>
         </is>
       </c>
     </row>
@@ -4709,17 +4709,17 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>11/20/2018 11:11 PM</t>
+          <t>2018-11-20T23:11:08.760451+0000</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>02/18/2021 03:06 AM</t>
+          <t>2021-02-18T03:06:29.838346+0000</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>186f7fce6e1682cec0f17e40</t>
+          <t>ObjectId:("717810b8693d7edd7c50325c53e9f053dbb7c")</t>
         </is>
       </c>
     </row>
@@ -4745,17 +4745,17 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>11/02/2019 07:57 AM</t>
+          <t>2019-11-02T06:57:11.079592+0000</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>09/04/2022 09:06 PM</t>
+          <t>2022-09-04T20:06:45.664103+0000</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>b3ef069bb4124808bf746f8d</t>
+          <t>ObjectId:("bd08f97a56b87d7a4ca40621b88805c502a05")</t>
         </is>
       </c>
     </row>
@@ -4781,17 +4781,17 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>05/11/2019 12:14 PM</t>
+          <t>2019-05-11T11:14:12.893820+0000</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>06/24/2022 03:01 AM</t>
+          <t>2022-06-24T02:01:21.759750+0000</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>ef1bdb5cd0984ae69968fc0c</t>
+          <t>ObjectId:("59682e55fae8c4f434280211dd222bd7b9123")</t>
         </is>
       </c>
     </row>
@@ -4817,17 +4817,17 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>03/05/2021 06:52 PM</t>
+          <t>2021-03-05T18:52:08.853769+0000</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>12/25/2021 02:31 AM</t>
+          <t>2021-12-25T02:31:48.909995+0000</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>d7341c3caa9685bae4422bd7</t>
+          <t>ObjectId:("5ac3bd506f3ac3a61b3af41d3b8a9eab57294")</t>
         </is>
       </c>
     </row>
@@ -4853,17 +4853,17 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>03/14/2021 03:49 PM</t>
+          <t>2021-03-14T14:49:55.720694+0000</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>01/24/2022 06:14 PM</t>
+          <t>2022-01-24T18:15:10.599413+0000</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2c9eca1c12f0487c60772a03</t>
+          <t>ObjectId:("f346b74c63e6b25a5d0e77fb27580c305084d")</t>
         </is>
       </c>
     </row>
@@ -4889,17 +4889,17 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>02/03/2018 04:37 PM</t>
+          <t>2018-02-03T16:37:32.042680+0000</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>07/19/2021 09:11 AM</t>
+          <t>2021-07-19T08:11:47.631327+0000</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>e571b01299f707330399dfb2</t>
+          <t>ObjectId:("fe2f0bb50b6ee8f93add6516f9fc515b8507f")</t>
         </is>
       </c>
     </row>
@@ -4925,17 +4925,17 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>03/19/2022 09:46 PM</t>
+          <t>2022-03-19T20:46:17.107225+0000</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>11/24/2022 07:14 AM</t>
+          <t>2022-11-24T07:15:00.187745+0000</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>5789dc428662245c590f7559</t>
+          <t>ObjectId:("bb31f40633bea66c86eef14cc7bbe225ef0d6")</t>
         </is>
       </c>
     </row>
@@ -4961,17 +4961,17 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>03/16/2019 11:32 PM</t>
+          <t>2019-03-16T22:32:56.467846+0000</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>07/23/2022 09:01 AM</t>
+          <t>2022-07-23T08:01:38.777105+0000</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>b10b49740380565e2b43b04c</t>
+          <t>ObjectId:("f6c42657858c2f246f2bcdc19a27568063fb3")</t>
         </is>
       </c>
     </row>
@@ -4997,17 +4997,17 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>07/20/2018 02:42 AM</t>
+          <t>2018-07-20T01:42:06.693599+0000</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>08/06/2021 09:16 PM</t>
+          <t>2021-08-06T20:16:28.290268+0000</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>068d9def80377bce84438b40</t>
+          <t>ObjectId:("fca6012b11e207f6f0dcdc28b922c7deb98c8")</t>
         </is>
       </c>
     </row>
@@ -5033,17 +5033,17 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>06/26/2018 01:31 PM</t>
+          <t>2018-06-26T12:31:22.013722+0000</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>07/08/2020 02:58 PM</t>
+          <t>2020-07-08T13:58:24.479474+0000</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>e80ad8a989bbe57c3e589fbe</t>
+          <t>ObjectId:("01801a32876aaa65074b5c2f21ce71dd8021d")</t>
         </is>
       </c>
     </row>
@@ -5069,17 +5069,17 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>09/30/2019 02:34 AM</t>
+          <t>2019-09-30T01:34:14.965191+0000</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>12/16/2022 12:00 AM</t>
+          <t>2022-12-16T00:00:33.694020+0000</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>0781e4fafa8b3c8a4ceca020</t>
+          <t>ObjectId:("c962289660c2d61a7e8fe5cff0bd26e0d4af3")</t>
         </is>
       </c>
     </row>
@@ -5105,17 +5105,17 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>02/09/2021 08:42 PM</t>
+          <t>2021-02-09T20:42:25.007369+0000</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>11/13/2022 12:28 AM</t>
+          <t>2022-11-13T00:28:29.107573+0000</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2a2438ab679f65cc35d9a194</t>
+          <t>ObjectId:("cb8ab859408703bc728d45cebdaee6585a3a3")</t>
         </is>
       </c>
     </row>
@@ -5141,17 +5141,17 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>10/03/2022 11:38 PM</t>
+          <t>2022-10-03T22:38:20.956935+0000</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>10/20/2022 10:31 PM</t>
+          <t>2022-10-20T21:31:17.328635+0000</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>22e86b240b9cf9f5ae95c39e</t>
+          <t>ObjectId:("ab49f069b67f18a006ebea520aeba78903763")</t>
         </is>
       </c>
     </row>
@@ -5177,17 +5177,17 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>06/10/2021 08:01 PM</t>
+          <t>2021-06-10T19:01:12.261350+0000</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>08/17/2021 02:30 PM</t>
+          <t>2021-08-17T13:30:53.538685+0000</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>302eb2fb40a0c81aa2ba5a7c</t>
+          <t>ObjectId:("cd38a69905637bd02e11216cb4a160230af26")</t>
         </is>
       </c>
     </row>
@@ -5213,17 +5213,17 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>02/20/2018 12:06 PM</t>
+          <t>2018-02-20T12:06:34.138709+0000</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>05/18/2020 11:11 AM</t>
+          <t>2020-05-18T10:11:38.979638+0000</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>fb7ee7887aea54b276b9f053</t>
+          <t>ObjectId:("e4ee26a118a476fd7fb86f640ed9c4ae588c1")</t>
         </is>
       </c>
     </row>
@@ -5249,17 +5249,17 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>03/10/2022 09:18 PM</t>
+          <t>2022-03-10T21:18:59.190306+0000</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>10/29/2022 10:28 PM</t>
+          <t>2022-10-29T21:28:17.319565+0000</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>313b686ac29bef266eda985b</t>
+          <t>ObjectId:("db023f3c1f4253f535905b66312f6ede79d67")</t>
         </is>
       </c>
     </row>
@@ -5285,17 +5285,17 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>03/22/2019 03:05 AM</t>
+          <t>2019-03-22T02:05:51.029896+0000</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>10/05/2021 11:03 PM</t>
+          <t>2021-10-05T22:03:18.210809+0000</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>31bf90ff6798dd6d49879177</t>
+          <t>ObjectId:("b4cdea7cf4121dfb6c30e6f83c85d1a3496ac")</t>
         </is>
       </c>
     </row>
@@ -5321,17 +5321,17 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>10/31/2021 01:37 AM</t>
+          <t>2021-10-31T00:37:18.768675+0000</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>05/12/2022 05:07 PM</t>
+          <t>2022-05-12T16:07:38.700528+0000</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>867a97f88ee76da94c173aa4</t>
+          <t>ObjectId:("e3d19a8eb85e1db8ea4afaf4a6eb75e61d386")</t>
         </is>
       </c>
     </row>
@@ -5357,17 +5357,17 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>05/24/2020 09:46 AM</t>
+          <t>2020-05-24T08:46:41.963839+0000</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>06/08/2022 06:23 PM</t>
+          <t>2022-06-08T17:23:11.994531+0000</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>1a75edb353b2a5986fd8df66</t>
+          <t>ObjectId:("2fda746f59dce52ee646c2f594ef209bbaee7")</t>
         </is>
       </c>
     </row>
@@ -5393,17 +5393,17 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>07/20/2020 11:50 AM</t>
+          <t>2020-07-20T10:50:51.568069+0000</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>11/25/2022 01:05 PM</t>
+          <t>2022-11-25T13:05:53.094555+0000</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>52af8e93e27a43f61c534234</t>
+          <t>ObjectId:("8faf6d893158d018ff67a3d8d46263a2284f1")</t>
         </is>
       </c>
     </row>
@@ -5429,17 +5429,17 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>01/22/2020 09:07 PM</t>
+          <t>2020-01-22T21:07:43.556682+0000</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>07/23/2022 10:51 PM</t>
+          <t>2022-07-23T21:52:05.329599+0000</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>93e6a283e2722f66d976e321</t>
+          <t>ObjectId:("e5f33bb2551f75614546b0175962a3618bb75")</t>
         </is>
       </c>
     </row>
@@ -5465,17 +5465,17 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>05/26/2022 02:28 AM</t>
+          <t>2022-05-26T01:28:26.194025+0000</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>09/16/2022 01:37 PM</t>
+          <t>2022-09-16T12:37:15.796100+0000</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>9b4ff7e6499fdd14745d0d75</t>
+          <t>ObjectId:("6643d0fe1755566dcb9ca561a1fa05f7f089b")</t>
         </is>
       </c>
     </row>
@@ -5501,17 +5501,17 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>03/24/2018 07:55 AM</t>
+          <t>2018-03-24T06:55:43.864655+0000</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>04/29/2019 06:56 AM</t>
+          <t>2019-04-29T05:57:28.266505+0000</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>947682db128741979713d9b2</t>
+          <t>ObjectId:("78482562f962e793e38a47a32eafac337d3a4")</t>
         </is>
       </c>
     </row>
@@ -5537,17 +5537,17 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>03/29/2020 02:41 AM</t>
+          <t>2020-03-29T01:41:52.968870+0000</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>07/26/2021 12:49 AM</t>
+          <t>2021-07-25T23:49:51.236671+0000</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>318bd6e95861bf8ee544d675</t>
+          <t>ObjectId:("bc452d771c34a0a08c7bc6e59d357b2f4ca4a")</t>
         </is>
       </c>
     </row>
@@ -5573,17 +5573,17 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>05/19/2018 09:29 AM</t>
+          <t>2018-05-19T08:29:59.949683+0000</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>01/31/2022 01:51 AM</t>
+          <t>2022-01-31T01:52:05.215266+0000</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>031465f854e43c9d0f69471e</t>
+          <t>ObjectId:("44677426d8b7eca60db428d9ff0b80e5600cc")</t>
         </is>
       </c>
     </row>
@@ -5609,17 +5609,17 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>08/02/2021 08:03 AM</t>
+          <t>2021-08-02T07:03:15.277976+0000</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>08/23/2022 08:30 PM</t>
+          <t>2022-08-23T19:30:55.208850+0000</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>c8ca1b98cda74cff43514aca</t>
+          <t>ObjectId:("0420f4ebe2a230cf12580b5665a917ec5dae4")</t>
         </is>
       </c>
     </row>
@@ -5645,17 +5645,17 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>01/21/2019 04:38 PM</t>
+          <t>2019-01-21T16:38:25.582021+0000</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>09/14/2021 12:56 PM</t>
+          <t>2021-09-14T11:56:20.727279+0000</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>0d38c7898968e38827bf7a2e</t>
+          <t>ObjectId:("4590796de69c0088b402f49bc5068bfa039b5")</t>
         </is>
       </c>
     </row>
@@ -5681,17 +5681,17 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>10/09/2020 05:13 PM</t>
+          <t>2020-10-09T16:13:15.610156+0000</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>07/25/2022 11:39 PM</t>
+          <t>2022-07-25T22:39:14.547920+0000</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>9b81cb12d26f4c95ddf70f05</t>
+          <t>ObjectId:("923346d64635355a3dd636a750adba7842817")</t>
         </is>
       </c>
     </row>
@@ -5717,17 +5717,17 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>06/30/2021 11:09 AM</t>
+          <t>2021-06-30T10:09:16.212549+0000</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>11/22/2022 10:54 AM</t>
+          <t>2022-11-22T10:54:40.563385+0000</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>01ed99e124f5c1565c1a7b1e</t>
+          <t>ObjectId:("3841fad3f906455e2b3dfbca0bbb9a868010c")</t>
         </is>
       </c>
     </row>
@@ -5753,17 +5753,17 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>05/04/2020 11:59 AM</t>
+          <t>2020-05-04T10:59:39.756156+0000</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>08/08/2020 05:18 PM</t>
+          <t>2020-08-08T16:18:44.095837+0000</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>69f5e4da74e1f0991346a1ab</t>
+          <t>ObjectId:("a202c52d748aa961dc054eed2f348ea312698")</t>
         </is>
       </c>
     </row>
@@ -5789,17 +5789,17 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>08/19/2022 08:52 PM</t>
+          <t>2022-08-19T19:52:13.327953+0000</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>12/22/2022 04:17 PM</t>
+          <t>2022-12-22T16:17:35.168301+0000</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>40c2e2410903bc40dc7139cb</t>
+          <t>ObjectId:("cdc7848e08aef6121d75f8d01ad16cb703aa5")</t>
         </is>
       </c>
     </row>
@@ -5825,17 +5825,17 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>04/19/2019 11:04 PM</t>
+          <t>2019-04-19T22:04:04.369632+0000</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>09/04/2020 02:37 AM</t>
+          <t>2020-09-04T01:37:53.915538+0000</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>7160e15d4142a3899df9685c</t>
+          <t>ObjectId:("89985c2ae7f45cb2706a7baba652f01b6aa58")</t>
         </is>
       </c>
     </row>
@@ -5861,17 +5861,17 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>03/27/2019 10:49 PM</t>
+          <t>2019-03-27T21:49:52.031041+0000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>09/18/2021 10:05 AM</t>
+          <t>2021-09-18T09:05:27.699803+0000</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>7e870aa8d927ee63a2301593</t>
+          <t>ObjectId:("3c17e177b96877ffd55bf67174748654fd3f6")</t>
         </is>
       </c>
     </row>
@@ -5897,17 +5897,17 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>08/30/2020 10:33 AM</t>
+          <t>2020-08-30T09:33:18.189770+0000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>01/08/2021 06:57 PM</t>
+          <t>2021-01-08T18:57:58.555183+0000</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>3fe2db7cb976db049f81d321</t>
+          <t>ObjectId:("ec17c3bab526cab0c7e6336fe32d4221dd207")</t>
         </is>
       </c>
     </row>
@@ -5933,17 +5933,17 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>05/17/2022 04:39 AM</t>
+          <t>2022-05-17T03:39:06.925073+0000</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>06/01/2022 04:18 AM</t>
+          <t>2022-06-01T03:18:46.384439+0000</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>ff764895713c9a50990e20c7</t>
+          <t>ObjectId:("49eb985c007b7f0c8804cf5a3d43ecc0bdca8")</t>
         </is>
       </c>
     </row>
@@ -5969,17 +5969,17 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>01/27/2022 09:12 PM</t>
+          <t>2022-01-27T21:12:51.804357+0000</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>07/31/2022 05:54 PM</t>
+          <t>2022-07-31T16:54:28.347943+0000</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>7d4eb64e6834767cad5e1fe7</t>
+          <t>ObjectId:("5586c98bb8ebe95cb12c343e7e81ddb868c41")</t>
         </is>
       </c>
     </row>
@@ -6005,17 +6005,17 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>06/14/2021 09:11 AM</t>
+          <t>2021-06-14T08:11:10.564339+0000</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>04/03/2022 08:46 AM</t>
+          <t>2022-04-03T07:46:27.591774+0000</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>fa245719b9a3f8fdcaaed400</t>
+          <t>ObjectId:("7c9a3d9a73966c2a7cf25eb17855a7e2eca06")</t>
         </is>
       </c>
     </row>
@@ -6041,17 +6041,17 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>08/12/2020 03:59 AM</t>
+          <t>2020-08-12T02:59:26.830396+0000</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>03/12/2021 01:52 AM</t>
+          <t>2021-03-12T01:52:32.300728+0000</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>54cbc99f16c109e036fb4dd6</t>
+          <t>ObjectId:("d7445de680ab9954333dd0079745e0bd44075")</t>
         </is>
       </c>
     </row>
@@ -6077,17 +6077,17 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>12/17/2019 12:21 AM</t>
+          <t>2019-12-17T00:21:04.711996+0000</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>01/17/2021 04:49 AM</t>
+          <t>2021-01-17T04:49:32.591429+0000</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>3daade5933394fd9f65f0848</t>
+          <t>ObjectId:("20418747712e249c0b497501930e2e4607a44")</t>
         </is>
       </c>
     </row>
@@ -6113,17 +6113,17 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>01/07/2022 01:41 PM</t>
+          <t>2022-01-07T13:41:26.693666+0000</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>06/13/2022 11:21 PM</t>
+          <t>2022-06-13T22:21:56.878043+0000</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>85b69ed28e40e2818a4cc909</t>
+          <t>ObjectId:("e0f587329f13bfd27549e75815495a1d9acc3")</t>
         </is>
       </c>
     </row>
@@ -6149,17 +6149,17 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>05/22/2021 08:11 AM</t>
+          <t>2021-05-22T07:11:21.336234+0000</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>10/21/2022 06:20 AM</t>
+          <t>2022-10-21T05:20:47.166061+0000</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>a4fb1def3bf7fc4dc127493b</t>
+          <t>ObjectId:("2da0749cb1acfbc6f8f62b66bdbe1701b7771")</t>
         </is>
       </c>
     </row>
@@ -6185,17 +6185,17 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>08/26/2022 05:38 AM</t>
+          <t>2022-08-26T04:38:28.985049+0000</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>12/04/2022 02:03 PM</t>
+          <t>2022-12-04T14:03:26.093089+0000</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>bcf9a4d388e91f8b340ec7c1</t>
+          <t>ObjectId:("3c56ae7d276faf8a78de2d48e2b91e2f98331")</t>
         </is>
       </c>
     </row>
@@ -6221,17 +6221,17 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>11/14/2018 01:09 AM</t>
+          <t>2018-11-14T01:09:20.881375+0000</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>05/21/2020 11:15 AM</t>
+          <t>2020-05-21T10:15:14.931688+0000</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>c9a1f69db5c62f19c69c13e4</t>
+          <t>ObjectId:("6ad04dcf163b7de648467923ce0fb9187d36f")</t>
         </is>
       </c>
     </row>
@@ -6257,17 +6257,17 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>10/21/2019 04:24 PM</t>
+          <t>2019-10-21T15:24:08.159699+0000</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>09/22/2022 12:42 AM</t>
+          <t>2022-09-21T23:42:08.406873+0000</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>01b622859d80dd11f979f42a</t>
+          <t>ObjectId:("bf89ecc457d4725aafbf48ac3422e059d3ef6")</t>
         </is>
       </c>
     </row>
@@ -6293,17 +6293,17 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>07/26/2022 11:50 AM</t>
+          <t>2022-07-26T10:50:21.908049+0000</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>12/16/2022 10:55 AM</t>
+          <t>2022-12-16T10:55:30.541054+0000</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>144a1efd07e885b53284aa3d</t>
+          <t>ObjectId:("699eac3c0ce4105bc61101335bd8667edc8b1")</t>
         </is>
       </c>
     </row>
@@ -6329,17 +6329,17 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>04/04/2019 07:49 PM</t>
+          <t>2019-04-04T18:49:55.779141+0000</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>01/11/2022 04:04 PM</t>
+          <t>2022-01-11T16:04:15.982259+0000</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>053a1c293958d31521ed0ff2</t>
+          <t>ObjectId:("1685cdc5178b5d5435586f9499c5b1351ef07")</t>
         </is>
       </c>
     </row>
@@ -6365,17 +6365,17 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>11/13/2022 01:50 AM</t>
+          <t>2022-11-13T01:50:15.218727+0000</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>12/10/2022 04:45 AM</t>
+          <t>2022-12-10T04:45:35.175275+0000</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>98f4ddc8f8290b9ca3f7dbe4</t>
+          <t>ObjectId:("f587e96a2ec9c2b738bc8d9b95d9d2af6ec3e")</t>
         </is>
       </c>
     </row>
@@ -6401,17 +6401,17 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>06/24/2020 06:29 AM</t>
+          <t>2020-06-24T05:29:56.436638+0000</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>12/13/2020 07:03 AM</t>
+          <t>2020-12-13T07:04:02.252009+0000</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>27c5dc99f36cbb4e81a8cedc</t>
+          <t>ObjectId:("7cdee83aa4500950937d0b91ee6c1c5dfa74d")</t>
         </is>
       </c>
     </row>
@@ -6437,17 +6437,17 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>06/25/2020 04:39 AM</t>
+          <t>2020-06-25T03:39:21.414927+0000</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>03/08/2021 07:41 PM</t>
+          <t>2021-03-08T19:41:17.926204+0000</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>25151b723f10cb90f78bc2b2</t>
+          <t>ObjectId:("b924e96a7a7d45cd58178a5cb1fa9d581cf82")</t>
         </is>
       </c>
     </row>
@@ -6473,17 +6473,17 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>03/22/2019 07:13 AM</t>
+          <t>2019-03-22T06:13:44.002613+0000</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>06/09/2020 08:36 AM</t>
+          <t>2020-06-09T07:37:09.718364+0000</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>aa65a1100f315f9acec0e206</t>
+          <t>ObjectId:("ef02d52830a8074c1432bf1c944dae34ad1c4")</t>
         </is>
       </c>
     </row>
@@ -6509,17 +6509,17 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>01/19/2018 06:27 PM</t>
+          <t>2018-01-19T18:27:12.633190+0000</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>06/19/2022 06:34 PM</t>
+          <t>2022-06-19T17:34:22.017260+0000</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>188cdbfd601e88a1d62e6fd8</t>
+          <t>ObjectId:("06ae540ec709698430cb0ccbdc34b87d9bfc7")</t>
         </is>
       </c>
     </row>
@@ -6545,17 +6545,17 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>07/13/2021 05:54 AM</t>
+          <t>2021-07-13T04:54:09.354759+0000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>12/15/2022 11:14 AM</t>
+          <t>2022-12-15T11:14:27.036903+0000</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>3bb8a2cdf1849bb07840ce06</t>
+          <t>ObjectId:("8eb12ebea1b6e846e98e86172a42cd05b9855")</t>
         </is>
       </c>
     </row>
@@ -6581,17 +6581,17 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>03/04/2021 09:54 AM</t>
+          <t>2021-03-04T09:54:18.370851+0000</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>10/29/2022 01:05 PM</t>
+          <t>2022-10-29T12:06:01.285946+0000</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>b8ad817ae070cd829b97feea</t>
+          <t>ObjectId:("8956e7dc0cf2e0b5499907b2b0bb01b47693e")</t>
         </is>
       </c>
     </row>
@@ -6617,17 +6617,17 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>04/23/2019 04:48 PM</t>
+          <t>2019-04-23T15:48:38.970968+0000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>10/28/2019 04:18 PM</t>
+          <t>2019-10-28T15:19:20.154645+0000</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>da507991c96bedd360c11da3</t>
+          <t>ObjectId:("98725dadaa74893a19583308bc32915a80515")</t>
         </is>
       </c>
     </row>
@@ -6653,17 +6653,17 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>08/22/2021 08:40 PM</t>
+          <t>2021-08-22T19:40:02.587864+0000</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>10/22/2022 02:37 AM</t>
+          <t>2022-10-22T01:37:12.347476+0000</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>fa1ed465cb5c98452b9cdc7b</t>
+          <t>ObjectId:("b6d7b2b80f95ac42c4331e35b815e32f8fda7")</t>
         </is>
       </c>
     </row>
@@ -6689,17 +6689,17 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>12/10/2021 09:13 AM</t>
+          <t>2021-12-10T09:13:51.242565+0000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>11/24/2022 07:23 PM</t>
+          <t>2022-11-24T19:23:36.994852+0000</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>be6cec3f93c2bc34700d59ec</t>
+          <t>ObjectId:("00c9f493b230538808d6c2d00d4352dd968e4")</t>
         </is>
       </c>
     </row>
@@ -6725,17 +6725,17 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>02/19/2022 09:29 PM</t>
+          <t>2022-02-19T21:29:49.074989+0000</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>05/02/2022 08:47 PM</t>
+          <t>2022-05-02T19:47:55.246474+0000</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>f6dbeb1ad4f3c921ab3e8911</t>
+          <t>ObjectId:("d000742130344eac7f9ad9d9bd979945fcc1f")</t>
         </is>
       </c>
     </row>
@@ -6761,17 +6761,17 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>12/17/2020 02:20 PM</t>
+          <t>2020-12-17T14:20:27.567763+0000</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>10/17/2021 11:20 AM</t>
+          <t>2021-10-17T10:20:20.937041+0000</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>69238fdd745da00c8efadeed</t>
+          <t>ObjectId:("9fd535def54be264b52c4df8317e60ae3a92f")</t>
         </is>
       </c>
     </row>
@@ -6797,17 +6797,17 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>01/16/2018 09:09 PM</t>
+          <t>2018-01-16T21:09:18.028759+0000</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>01/14/2020 04:42 PM</t>
+          <t>2020-01-14T16:42:18.474988+0000</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>126344651b7c77ddba0159a8</t>
+          <t>ObjectId:("522fa1e8c68d301e1411cc56de710681d69f0")</t>
         </is>
       </c>
     </row>
@@ -6833,17 +6833,17 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>09/12/2019 02:04 AM</t>
+          <t>2019-09-12T01:04:07.560592+0000</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>11/26/2019 07:54 PM</t>
+          <t>2019-11-26T19:54:50.788446+0000</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>da5f0b45fef00401d32c0a80</t>
+          <t>ObjectId:("5573720a59c3dcc63c9b6f0f839570aac483a")</t>
         </is>
       </c>
     </row>
@@ -6869,17 +6869,17 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>12/07/2021 06:56 PM</t>
+          <t>2021-12-07T18:56:09.789098+0000</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>01/02/2022 05:51 PM</t>
+          <t>2022-01-02T17:51:55.599653+0000</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>b18717810b8693d7edd7c503</t>
+          <t>ObjectId:("0b56e77ab17ebde81bf509e928c2c40ac063e")</t>
         </is>
       </c>
     </row>
@@ -6905,17 +6905,17 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>04/30/2021 01:37 PM</t>
+          <t>2021-04-30T12:37:46.570903+0000</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>05/29/2022 07:49 PM</t>
+          <t>2022-05-29T18:49:23.655149+0000</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>25c53e9f053dbb7cbd08f97a</t>
+          <t>ObjectId:("e92e7a4169ebec0734f2a1e4674755495d852")</t>
         </is>
       </c>
     </row>
@@ -6941,17 +6941,17 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>08/29/2021 03:09 PM</t>
+          <t>2021-08-29T14:09:28.794776+0000</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>02/20/2022 09:07 AM</t>
+          <t>2022-02-20T09:08:00.573949+0000</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>56b87d7a4ca40621b88805c5</t>
+          <t>ObjectId:("0a2602ebf9d4774fc78100003f1d62abcb9c8")</t>
         </is>
       </c>
     </row>
@@ -6977,17 +6977,17 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>01/11/2018 01:09 PM</t>
+          <t>2018-01-11T13:09:52.658155+0000</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>01/20/2018 11:34 PM</t>
+          <t>2018-01-20T23:35:26.491832+0000</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>02a0559682e55fae8c4f4342</t>
+          <t>ObjectId:("5ab012516875d9ce7f979301191cf43e86c63")</t>
         </is>
       </c>
     </row>
@@ -7013,17 +7013,17 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>09/09/2018 10:24 AM</t>
+          <t>2018-09-09T09:24:05.798313+0000</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>12/20/2022 03:38 AM</t>
+          <t>2022-12-20T03:38:05.638900+0000</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>80211dd222bd7b91235ac3bd</t>
+          <t>ObjectId:("998a3a57bcff9d28326e8c030cda5c133188c")</t>
         </is>
       </c>
     </row>
@@ -7049,17 +7049,17 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>04/29/2019 05:22 AM</t>
+          <t>2019-04-29T04:22:37.515606+0000</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>08/31/2020 11:24 PM</t>
+          <t>2020-08-31T22:25:16.060103+0000</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>506f3ac3a61b3af41d3b8a9e</t>
+          <t>ObjectId:("44d6248dd1298951423b641e304e7aa2a5aa4")</t>
         </is>
       </c>
     </row>
@@ -7085,17 +7085,17 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>06/25/2020 03:13 AM</t>
+          <t>2020-06-25T02:13:38.843085+0000</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>02/12/2022 11:08 PM</t>
+          <t>2022-02-12T23:08:45.126528+0000</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>ab57294f346b74c63e6b25a5</t>
+          <t>ObjectId:("56b0708f39bdc41598bf2efc0fcb123563d8d")</t>
         </is>
       </c>
     </row>
@@ -7121,17 +7121,17 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>05/16/2021 02:39 AM</t>
+          <t>2021-05-16T01:39:46.288683+0000</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>06/11/2021 02:40 AM</t>
+          <t>2021-06-11T01:40:50.783016+0000</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>d0e77fb27580c305084dfe2f</t>
+          <t>ObjectId:("3aca9f1be29df189cafe8a3e979b2375e8e24")</t>
         </is>
       </c>
     </row>
@@ -7157,17 +7157,17 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>02/20/2019 10:55 AM</t>
+          <t>2019-02-20T10:55:18.183646+0000</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>11/21/2020 05:07 AM</t>
+          <t>2020-11-21T05:07:38.018484+0000</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>0bb50b6ee8f93add6516f9fc</t>
+          <t>ObjectId:("e0e24914478164e31246c52e4824bdc171503")</t>
         </is>
       </c>
     </row>
@@ -7193,17 +7193,17 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>12/09/2019 03:50 AM</t>
+          <t>2019-12-09T03:50:01.905580+0000</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>05/23/2021 01:20 PM</t>
+          <t>2021-05-23T12:20:22.335051+0000</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>515b8507fbb31f40633bea66</t>
+          <t>ObjectId:("ab9bb228bc0a32aa9e07c074d8209cf851ebc")</t>
         </is>
       </c>
     </row>
@@ -7229,17 +7229,17 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>04/27/2021 04:44 AM</t>
+          <t>2021-04-27T03:44:21.346494+0000</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>10/13/2021 05:31 AM</t>
+          <t>2021-10-13T04:31:33.317172+0000</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>c86eef14cc7bbe225ef0d6f6</t>
+          <t>ObjectId:("9dd0da50bbc8e64631822e9b6447bcd2f212e")</t>
         </is>
       </c>
     </row>
@@ -7265,17 +7265,17 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>09/17/2021 04:21 PM</t>
+          <t>2021-09-17T15:21:45.378783+0000</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>12/11/2022 11:54 AM</t>
+          <t>2022-12-11T11:54:53.281071+0000</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>c42657858c2f246f2bcdc19a</t>
+          <t>ObjectId:("1f86efccb77011ee3958561fe16a1b82a96b5")</t>
         </is>
       </c>
     </row>
@@ -7301,17 +7301,17 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>07/21/2022 01:07 PM</t>
+          <t>2022-07-21T12:07:22.519927+0000</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>08/18/2022 07:58 PM</t>
+          <t>2022-08-18T18:58:20.162548+0000</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>27568063fb3fca6012b11e20</t>
+          <t>ObjectId:("517ab997d74984d63277f2d4b0e4d81ceee59")</t>
         </is>
       </c>
     </row>
@@ -7337,17 +7337,17 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>01/05/2018 04:20 PM</t>
+          <t>2018-01-05T16:20:51.380991+0000</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>12/05/2020 11:35 AM</t>
+          <t>2020-12-05T11:36:10.864970+0000</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>7f6f0dcdc28b922c7deb98c8</t>
+          <t>ObjectId:("23aeac036fc20cbd6c63f46e945439fd79c55")</t>
         </is>
       </c>
     </row>
@@ -7373,17 +7373,17 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>11/19/2021 04:40 PM</t>
+          <t>2021-11-19T16:40:59.163978+0000</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>04/30/2022 04:40 PM</t>
+          <t>2022-04-30T15:41:26.330915+0000</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>01801a32876aaa65074b5c2f</t>
+          <t>ObjectId:("df714662a91c67c6e4cf0f13ca2a7c0a6f9d7")</t>
         </is>
       </c>
     </row>
@@ -7409,17 +7409,17 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>01/24/2018 11:55 PM</t>
+          <t>2018-01-24T23:55:26.694435+0000</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>03/13/2019 04:48 AM</t>
+          <t>2019-03-13T03:49:17.412353+0000</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>21ce71dd8021dc962289660c</t>
+          <t>ObjectId:("55ebf9bda3ba9c1edbdbbdf6a3a1c6c5e4651")</t>
         </is>
       </c>
     </row>
@@ -7445,17 +7445,17 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>10/04/2021 08:18 PM</t>
+          <t>2021-10-04T19:18:50.234455+0000</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>03/05/2022 11:23 AM</t>
+          <t>2022-03-05T11:23:52.665306+0000</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>2d61a7e8fe5cff0bd26e0d4a</t>
+          <t>ObjectId:("4b9e304ee2ac6c21ba8d3d3fc74c9c0422b33")</t>
         </is>
       </c>
     </row>
@@ -7481,17 +7481,17 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>09/30/2018 09:53 AM</t>
+          <t>2018-09-30T08:53:43.064323+0000</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>04/17/2019 04:10 AM</t>
+          <t>2019-04-17T03:10:56.443500+0000</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>f3cb8ab859408703bc728d45</t>
+          <t>ObjectId:("bc5526d5a5f500997cc635b0094a43205f2a9")</t>
         </is>
       </c>
     </row>
@@ -7517,17 +7517,17 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>08/06/2019 08:46 PM</t>
+          <t>2019-08-06T19:46:34.356092+0000</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>11/27/2022 11:59 AM</t>
+          <t>2022-11-27T11:59:17.611643+0000</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>cebdaee6585a3a3ab49f069b</t>
+          <t>ObjectId:("658d74c943da7b53adcf6e0b7c2e675f1dc47")</t>
         </is>
       </c>
     </row>
@@ -7553,17 +7553,17 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>08/08/2021 10:08 PM</t>
+          <t>2021-08-08T21:08:08.232174+0000</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>09/11/2022 08:13 AM</t>
+          <t>2022-09-11T07:13:45.493747+0000</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>67f18a006ebea520aeba7890</t>
+          <t>ObjectId:("2542025fb97f09d41d21bba9a6d82e3950134")</t>
         </is>
       </c>
     </row>
@@ -7589,17 +7589,17 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>03/16/2022 07:09 PM</t>
+          <t>2022-03-16T18:09:25.106757+0000</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>04/22/2022 05:46 AM</t>
+          <t>2022-04-22T04:46:30.303987+0000</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>3763cd38a69905637bd02e11</t>
+          <t>ObjectId:("c20bba67a2390405c7f7422832791397c948c")</t>
         </is>
       </c>
     </row>
@@ -7625,17 +7625,17 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>05/25/2018 10:46 PM</t>
+          <t>2018-05-25T21:46:37.770213+0000</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>06/21/2021 03:48 PM</t>
+          <t>2021-06-21T14:48:20.286964+0000</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>216cb4a160230af26e4ee26a</t>
+          <t>ObjectId:("ea7cf1ebd7bf4165c8b4abd077a34e39ff8e1")</t>
         </is>
       </c>
     </row>
@@ -7661,17 +7661,17 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>03/04/2018 02:31 AM</t>
+          <t>2018-03-04T02:31:45.027913+0000</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>10/04/2020 10:54 PM</t>
+          <t>2020-10-04T21:54:50.308741+0000</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>118a476fd7fb86f640ed9c4a</t>
+          <t>ObjectId:("f0e336dc1ed66868ec3a2ef4d8b5e1662bb04")</t>
         </is>
       </c>
     </row>
@@ -7697,17 +7697,17 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>11/09/2022 12:57 PM</t>
+          <t>2022-11-09T12:57:13.959641+0000</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>12/28/2022 06:09 PM</t>
+          <t>2022-12-28T18:09:06.466458+0000</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>e588c1db023f3c1f4253f535</t>
+          <t>ObjectId:("86d1e55be7c52197bfa03679adb59ea208026")</t>
         </is>
       </c>
     </row>
@@ -7733,17 +7733,17 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>01/03/2018 04:36 PM</t>
+          <t>2018-01-03T16:36:39.780932+0000</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>02/02/2022 01:56 PM</t>
+          <t>2022-02-02T13:56:15.700494+0000</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>905b66312f6ede79d67b4cde</t>
+          <t>ObjectId:("79f0eeebb912fdb933743ce8e8ed1cf5b80bf")</t>
         </is>
       </c>
     </row>
@@ -7769,17 +7769,17 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>03/01/2021 12:42 AM</t>
+          <t>2021-03-01T00:42:23.079949+0000</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>12/11/2022 05:58 PM</t>
+          <t>2022-12-11T17:58:14.092421+0000</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>a7cf4121dfb6c30e6f83c85d</t>
+          <t>ObjectId:("cfa7de9a6c7e37004f246a40b2f4a84b0e474")</t>
         </is>
       </c>
     </row>
@@ -7805,17 +7805,17 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>06/13/2020 12:25 AM</t>
+          <t>2020-06-12T23:25:25.509028+0000</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>08/26/2022 05:52 AM</t>
+          <t>2022-08-26T04:52:57.267777+0000</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>1a3496ace3d19a8eb85e1db8</t>
+          <t>ObjectId:("311620701e7e33507d01e5f3f4b240635ffa9")</t>
         </is>
       </c>
     </row>
@@ -7841,17 +7841,17 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>09/15/2022 03:44 AM</t>
+          <t>2022-09-15T02:44:32.038973+0000</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>11/20/2022 01:12 PM</t>
+          <t>2022-11-20T13:12:18.079048+0000</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>ea4afaf4a6eb75e61d3862fd</t>
+          <t>ObjectId:("dd779d3d911948ed7430f4e2693b948f3edec")</t>
         </is>
       </c>
     </row>
@@ -7877,17 +7877,17 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>09/08/2021 10:56 AM</t>
+          <t>2021-09-08T09:56:54.990743+0000</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>05/06/2022 07:31 PM</t>
+          <t>2022-05-06T18:31:45.850420+0000</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>a746f59dce52ee646c2f594e</t>
+          <t>ObjectId:("c82dda052e592af19b62f7ec7ea421703f179")</t>
         </is>
       </c>
     </row>
@@ -7913,17 +7913,17 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>02/10/2021 03:55 AM</t>
+          <t>2021-02-10T03:55:17.724182+0000</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>03/03/2021 11:53 AM</t>
+          <t>2021-03-03T11:53:26.498910+0000</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>f209bbaee78faf6d893158d0</t>
+          <t>ObjectId:("3d79e7d27a35447ebcaf33b34fa837569b856")</t>
         </is>
       </c>
     </row>
@@ -7949,17 +7949,17 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>11/05/2021 07:10 PM</t>
+          <t>2021-11-05T18:10:26.058101+0000</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>02/21/2022 03:30 AM</t>
+          <t>2022-02-21T03:30:38.715184+0000</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>18ff67a3d8d46263a2284f1e</t>
+          <t>ObjectId:("61ecaef49f43a37089a84afb2e83967a2ba12")</t>
         </is>
       </c>
     </row>
@@ -7985,17 +7985,17 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>09/30/2018 01:50 AM</t>
+          <t>2018-09-30T00:50:07.531394+0000</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>03/22/2022 09:28 PM</t>
+          <t>2022-03-22T20:28:25.055904+0000</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>5f33bb2551f75614546b0175</t>
+          <t>ObjectId:("90b4a3ad455e3e050198dd5221b26c24bb33c")</t>
         </is>
       </c>
     </row>
@@ -8021,17 +8021,17 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>01/15/2021 11:10 PM</t>
+          <t>2021-01-15T23:10:06.352414+0000</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>02/25/2022 10:57 AM</t>
+          <t>2022-02-25T10:57:24.763981+0000</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>962a3618bb756643d0fe1755</t>
+          <t>ObjectId:("8055d9cd29767f340316a9308337d9ce33776")</t>
         </is>
       </c>
     </row>
@@ -8057,17 +8057,17 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>09/06/2020 08:29 PM</t>
+          <t>2020-09-06T19:29:59.865067+0000</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>08/16/2022 05:12 PM</t>
+          <t>2022-08-16T16:12:57.006943+0000</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>566dcb9ca561a1fa05f7f089</t>
+          <t>ObjectId:("fe52d8a5df3dae2fa372cf6484a7c0e7a29e6")</t>
         </is>
       </c>
     </row>
@@ -8093,17 +8093,17 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>09/17/2020 04:50 PM</t>
+          <t>2020-09-17T15:50:17.054394+0000</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>11/25/2021 06:53 PM</t>
+          <t>2021-11-25T18:53:36.104806+0000</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>b78482562f962e793e38a47a</t>
+          <t>ObjectId:("707e302c1b9ade6acc692a1171cad6f7e6aca")</t>
         </is>
       </c>
     </row>
@@ -8129,17 +8129,17 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>03/31/2019 01:49 PM</t>
+          <t>2019-03-31T12:49:28.682182+0000</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>04/14/2021 11:06 PM</t>
+          <t>2021-04-14T22:07:01.557765+0000</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>32eafac337d3a4bc452d771c</t>
+          <t>ObjectId:("8f2c98b4a97215721de293a1c036727a11af7")</t>
         </is>
       </c>
     </row>
@@ -8165,17 +8165,17 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>11/30/2022 06:26 AM</t>
+          <t>2022-11-30T06:26:58.908870+0000</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>12/31/2022 11:24 AM</t>
+          <t>2022-12-31T11:24:39.266411+0000</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>34a0a08c7bc6e59d357b2f4c</t>
+          <t>ObjectId:("89fa07817c12b0b3a7d815cab427e6f83441d")</t>
         </is>
       </c>
     </row>
@@ -8201,17 +8201,17 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>06/01/2019 11:04 AM</t>
+          <t>2019-06-01T10:04:28.390598+0000</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>10/17/2020 04:21 AM</t>
+          <t>2020-10-17T03:22:14.963335+0000</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>a4a44677426d8b7eca60db42</t>
+          <t>ObjectId:("364b339b2cbe45f98baa0bc546b578fa0d1fd")</t>
         </is>
       </c>
     </row>
@@ -8237,17 +8237,17 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>05/04/2020 05:04 AM</t>
+          <t>2020-05-04T04:04:35.871288+0000</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>10/09/2020 11:57 AM</t>
+          <t>2020-10-09T10:58:21.203422+0000</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>8d9ff0b80e5600cc0420f4eb</t>
+          <t>ObjectId:("b08701d1b92473c1cc82c19e30020fe455902")</t>
         </is>
       </c>
     </row>
@@ -8273,17 +8273,17 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>05/07/2021 09:03 AM</t>
+          <t>2021-05-07T08:03:28.448000+0000</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>12/26/2022 12:17 AM</t>
+          <t>2022-12-26T00:17:41.525251+0000</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>e2a230cf12580b5665a917ec</t>
+          <t>ObjectId:("d21575f616c8752b92cdc80fd6c9784763b72")</t>
         </is>
       </c>
     </row>
@@ -8309,17 +8309,17 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>04/14/2022 03:54 AM</t>
+          <t>2022-04-14T02:54:00.100755+0000</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>09/11/2022 08:35 PM</t>
+          <t>2022-09-11T19:35:20.347096+0000</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>5dae44590796de69c0088b40</t>
+          <t>ObjectId:("3582eaa55c4984411ff32fd18883deea8c292")</t>
         </is>
       </c>
     </row>
@@ -8345,17 +8345,17 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>02/05/2019 01:18 AM</t>
+          <t>2019-02-05T01:18:47.508531+0000</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>11/15/2022 07:16 AM</t>
+          <t>2022-11-15T07:16:29.543351+0000</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>2f49bc5068bfa039b5923346</t>
+          <t>ObjectId:("daf9fa1160ed4cada6b154d6d704d282f219a")</t>
         </is>
       </c>
     </row>
@@ -8381,17 +8381,17 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>06/09/2019 06:06 AM</t>
+          <t>2019-06-09T05:06:12.845965+0000</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>04/02/2022 08:37 PM</t>
+          <t>2022-04-02T19:37:07.844249+0000</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>d64635355a3dd636a750adba</t>
+          <t>ObjectId:("76b210331fca83e436e88d5cf297d3bbc8bb0")</t>
         </is>
       </c>
     </row>
@@ -8417,17 +8417,17 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>02/14/2019 09:08 AM</t>
+          <t>2019-02-14T09:08:25.443231+0000</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>10/07/2020 06:18 PM</t>
+          <t>2020-10-07T17:19:05.154694+0000</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>78428173841fad3f906455e2</t>
+          <t>ObjectId:("9a1f9f92c8462167db4bf82da51f89b01443d")</t>
         </is>
       </c>
     </row>
@@ -8453,17 +8453,17 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>11/24/2018 09:53 AM</t>
+          <t>2018-11-24T09:53:47.642945+0000</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>02/17/2020 11:08 PM</t>
+          <t>2020-02-17T23:08:37.982591+0000</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>b3dfbca0bbb9a868010ca202</t>
+          <t>ObjectId:("44c51492ee607dc0aefbf048cd8837c94ca98")</t>
         </is>
       </c>
     </row>
@@ -8489,17 +8489,17 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>12/17/2018 01:25 PM</t>
+          <t>2018-12-17T13:25:07.006721+0000</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>02/23/2022 04:54 AM</t>
+          <t>2022-02-23T04:54:42.219213+0000</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>c52d748aa961dc054eed2f34</t>
+          <t>ObjectId:("f2d5116dda2b4bac0d414b3443736453a56cc")</t>
         </is>
       </c>
     </row>
@@ -8525,17 +8525,17 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>01/22/2020 03:48 PM</t>
+          <t>2020-01-22T15:48:07.259553+0000</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>03/08/2022 12:20 AM</t>
+          <t>2022-03-08T00:20:20.450317+0000</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>8ea312698cdc7848e08aef61</t>
+          <t>ObjectId:("72f257d8fa70c481b73e355b6ed07123d0eff")</t>
         </is>
       </c>
     </row>
@@ -8561,17 +8561,17 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>06/10/2019 11:32 PM</t>
+          <t>2019-06-10T22:32:32.763552+0000</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>09/27/2021 04:38 PM</t>
+          <t>2021-09-27T15:39:01.888389+0000</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>21d75f8d01ad16cb703aa589</t>
+          <t>ObjectId:("a30d309527566d13c2f845553cbbcd797bc98")</t>
         </is>
       </c>
     </row>
@@ -8597,17 +8597,17 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>04/18/2019 02:47 PM</t>
+          <t>2019-04-18T13:47:01.773005+0000</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>06/22/2021 01:51 AM</t>
+          <t>2021-06-22T00:51:44.406629+0000</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>985c2ae7f45cb2706a7baba6</t>
+          <t>ObjectId:("45f35d5ae72e86ebe8d09dc528dca3dbda742")</t>
         </is>
       </c>
     </row>
@@ -8633,17 +8633,17 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>05/11/2021 04:05 PM</t>
+          <t>2021-05-11T15:05:28.369621+0000</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>12/22/2021 07:50 AM</t>
+          <t>2021-12-22T07:50:25.350243+0000</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>52f01b6aa583c17e177b9687</t>
+          <t>ObjectId:("0fdda1140e9efa6812fa06e7dacc81214af03")</t>
         </is>
       </c>
     </row>
@@ -8669,17 +8669,17 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>02/07/2020 08:25 AM</t>
+          <t>2020-02-07T08:25:06.378928+0000</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>09/29/2021 10:38 AM</t>
+          <t>2021-09-29T09:38:26.121756+0000</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>7ffd55bf67174748654fd3f6</t>
+          <t>ObjectId:("09adedd45069153b97e49d3ade5decf528e90")</t>
         </is>
       </c>
     </row>
@@ -8705,17 +8705,17 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>09/06/2018 05:27 AM</t>
+          <t>2018-09-06T04:27:39.393575+0000</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>07/29/2019 06:44 PM</t>
+          <t>2019-07-29T17:44:49.962025+0000</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>ec17c3bab526cab0c7e6336f</t>
+          <t>ObjectId:("d560ac348b6fe1bada0dc9b34de01a9509446")</t>
         </is>
       </c>
     </row>
@@ -8741,17 +8741,17 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>01/13/2020 01:22 AM</t>
+          <t>2020-01-13T01:22:32.923538+0000</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>07/28/2022 05:50 PM</t>
+          <t>2022-07-28T16:50:10.982435+0000</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>e32d4221dd20749eb985c007</t>
+          <t>ObjectId:("bcddad0bba59627f4c76e8817853006334283")</t>
         </is>
       </c>
     </row>
@@ -8777,17 +8777,17 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>06/12/2019 10:22 PM</t>
+          <t>2019-06-12T21:22:08.023756+0000</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>03/15/2021 05:35 PM</t>
+          <t>2021-03-15T16:36:01.207491+0000</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>b7f0c8804cf5a3d43ecc0bdc</t>
+          <t>ObjectId:("1e0bd3ea658284e27538167d127404f1f10ec")</t>
         </is>
       </c>
     </row>
@@ -8813,17 +8813,17 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>07/06/2021 01:05 AM</t>
+          <t>2021-07-06T00:05:38.432854+0000</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>03/17/2022 05:57 PM</t>
+          <t>2022-03-17T16:57:56.319007+0000</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>a85586c98bb8ebe95cb12c34</t>
+          <t>ObjectId:("7b885e61a3c52877afdf1d2551a8728616049")</t>
         </is>
       </c>
     </row>
@@ -8849,17 +8849,17 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>09/09/2020 04:28 AM</t>
+          <t>2020-09-09T03:28:38.483154+0000</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>06/03/2022 03:51 AM</t>
+          <t>2022-06-03T02:51:50.500511+0000</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>3e7e81ddb868c417c9a3d9a7</t>
+          <t>ObjectId:("2c606ba50a8c1657644ee47738024efe5a579")</t>
         </is>
       </c>
     </row>
@@ -8885,17 +8885,17 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>01/20/2021 04:20 PM</t>
+          <t>2021-01-20T16:20:30.163401+0000</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>11/14/2021 08:28 AM</t>
+          <t>2021-11-14T08:29:05.358558+0000</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>3966c2a7cf25eb17855a7e2e</t>
+          <t>ObjectId:("d465c994f1d074922cd64634db4705f7b2cb0")</t>
         </is>
       </c>
     </row>
@@ -8921,17 +8921,17 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>07/27/2019 02:47 AM</t>
+          <t>2019-07-27T01:47:20.310517+0000</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>12/24/2019 09:16 PM</t>
+          <t>2019-12-24T21:16:20.734305+0000</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>ca06d7445de680ab9954333d</t>
+          <t>ObjectId:("b50a3ca0ad9be39e88f3f4b6caa43dd901076")</t>
         </is>
       </c>
     </row>
@@ -8957,17 +8957,17 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>08/09/2022 07:08 AM</t>
+          <t>2022-08-09T06:08:34.392190+0000</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>08/20/2022 05:40 AM</t>
+          <t>2022-08-20T04:41:23.125011+0000</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>d0079745e0bd440752041874</t>
+          <t>ObjectId:("ceabdd35edc15267aaef9e309c46f6369c6bf")</t>
         </is>
       </c>
     </row>
@@ -8993,17 +8993,17 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>06/24/2021 07:22 PM</t>
+          <t>2021-06-24T18:22:51.659452+0000</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>02/05/2022 03:22 AM</t>
+          <t>2022-02-05T03:22:37.050945+0000</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>7712e249c0b497501930e2e4</t>
+          <t>ObjectId:("9ee09130eb77224ff2b1f9a5c5073615f3d88")</t>
         </is>
       </c>
     </row>
@@ -9029,17 +9029,17 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>08/11/2022 11:24 PM</t>
+          <t>2022-08-11T22:24:41.914215+0000</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>10/21/2022 07:32 PM</t>
+          <t>2022-10-21T18:32:26.439157+0000</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>607a44e0f587329f13bfd275</t>
+          <t>ObjectId:("20a8895723dee5980df5c3c68c1af96da4e75")</t>
         </is>
       </c>
     </row>
@@ -9065,17 +9065,17 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>11/27/2019 01:24 PM</t>
+          <t>2019-11-27T13:24:59.279237+0000</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>05/31/2021 07:18 AM</t>
+          <t>2021-05-31T06:18:46.470964+0000</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>49e75815495a1d9acc32da07</t>
+          <t>ObjectId:("f577036dbac20f5c80d93b3ba7932d4aa89a5")</t>
         </is>
       </c>
     </row>
@@ -9101,17 +9101,17 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>04/26/2018 06:04 PM</t>
+          <t>2018-04-26T17:04:08.793303+0000</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>03/17/2021 07:01 AM</t>
+          <t>2021-03-17T06:01:39.076700+0000</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>49cb1acfbc6f8f62b66bdbe1</t>
+          <t>ObjectId:("8247a78ba473127c867a293e1c1a5b126aaba")</t>
         </is>
       </c>
     </row>
@@ -9137,17 +9137,17 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>04/09/2022 08:08 AM</t>
+          <t>2022-04-09T07:08:02.263032+0000</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>07/22/2022 05:11 PM</t>
+          <t>2022-07-22T16:11:09.533578+0000</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>701b77713c56ae7d276faf8a</t>
+          <t>ObjectId:("ed7226c43a8486e1d07019b99c78ccd63ca4b")</t>
         </is>
       </c>
     </row>
@@ -9173,17 +9173,17 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>12/26/2020 05:08 PM</t>
+          <t>2020-12-26T17:08:52.518211+0000</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>06/03/2022 05:25 AM</t>
+          <t>2022-06-03T04:25:26.143778+0000</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>78de2d48e2b91e2f983316ad</t>
+          <t>ObjectId:("cc3db0ba2a03ac9ee57a2bfae23d791477d70")</t>
         </is>
       </c>
     </row>
@@ -9209,17 +9209,17 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>12/12/2022 09:35 PM</t>
+          <t>2022-12-12T21:35:42.377886+0000</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>12/31/2022 04:49 AM</t>
+          <t>2022-12-31T04:49:58.173830+0000</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>04dcf163b7de648467923ce0</t>
+          <t>ObjectId:("72c0c37c47ca94f55d9fc4b5a764de9f38b37")</t>
         </is>
       </c>
     </row>
@@ -9245,17 +9245,17 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>11/12/2021 06:39 AM</t>
+          <t>2021-11-12T06:39:17.736874+0000</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>05/15/2022 10:48 AM</t>
+          <t>2022-05-15T09:48:25.659244+0000</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>fb9187d36fbf89ecc457d472</t>
+          <t>ObjectId:("8e0ed010e5ded0f226d73ff07f338a20e15be")</t>
         </is>
       </c>
     </row>
@@ -9281,17 +9281,17 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>06/08/2019 09:33 PM</t>
+          <t>2019-06-08T20:33:09.616173+0000</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>10/19/2021 03:06 PM</t>
+          <t>2021-10-19T14:06:18.788257+0000</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>5aafbf48ac3422e059d3ef66</t>
+          <t>ObjectId:("528e1873628e35727a9ab2460829c0bf7c37a")</t>
         </is>
       </c>
     </row>
@@ -9317,17 +9317,17 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>10/08/2018 05:24 AM</t>
+          <t>2018-10-08T04:24:20.389928+0000</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>06/22/2020 06:26 PM</t>
+          <t>2020-06-22T17:26:57.456035+0000</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>99eac3c0ce4105bc61101335</t>
+          <t>ObjectId:("b77d6356843c10f258b2db96d4f0e35cf1b66")</t>
         </is>
       </c>
     </row>
@@ -9353,17 +9353,17 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>11/06/2019 03:34 AM</t>
+          <t>2019-11-06T03:34:29.486847+0000</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>08/09/2022 05:19 PM</t>
+          <t>2022-08-09T16:20:00.979283+0000</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>bd8667edc8b11685cdc5178b</t>
+          <t>ObjectId:("f0233e45db8bcf5692b936e7d01cd177e4b72")</t>
         </is>
       </c>
     </row>
@@ -9389,17 +9389,17 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>01/05/2019 08:26 PM</t>
+          <t>2019-01-05T20:26:16.077914+0000</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>12/17/2020 04:17 AM</t>
+          <t>2020-12-17T04:17:22.670902+0000</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>5d5435586f9499c5b1351ef0</t>
+          <t>ObjectId:("94fe6820f6a69dfc046faf072d09f82f9db3a")</t>
         </is>
       </c>
     </row>
@@ -9425,17 +9425,17 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>05/11/2018 11:18 AM</t>
+          <t>2018-05-11T10:18:44.658330+0000</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>07/06/2020 03:33 AM</t>
+          <t>2020-07-06T02:33:46.614735+0000</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>7f587e96a2ec9c2b738bc8d9</t>
+          <t>ObjectId:("71e07b398e1169b6aa72ff94738f277eb27f4")</t>
         </is>
       </c>
     </row>
@@ -9461,17 +9461,17 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>11/17/2018 12:51 PM</t>
+          <t>2018-11-17T12:51:02.820243+0000</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>04/11/2019 04:45 AM</t>
+          <t>2019-04-11T03:45:20.596184+0000</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>b95d9d2af6ec3e7cdee83aa4</t>
+          <t>ObjectId:("0d162c6fbc24761c8e2356c18b8733de9d44d")</t>
         </is>
       </c>
     </row>
@@ -9497,17 +9497,17 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>11/14/2020 04:48 AM</t>
+          <t>2020-11-14T04:48:13.769875+0000</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>12/03/2022 11:14 AM</t>
+          <t>2022-12-03T11:14:51.320774+0000</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>500950937d0b91ee6c1c5dfa</t>
+          <t>ObjectId:("62275d8d0b63cc3d7c12c6d380e982e640325")</t>
         </is>
       </c>
     </row>
@@ -9533,17 +9533,17 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>01/23/2020 05:57 PM</t>
+          <t>2020-01-23T17:57:05.388133+0000</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>03/06/2022 01:04 PM</t>
+          <t>2022-03-06T13:04:54.601074+0000</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>74db924e96a7a7d45cd58178</t>
+          <t>ObjectId:("1b38bcf51cfc6e5e7c188a66adf59cf0385b0")</t>
         </is>
       </c>
     </row>
@@ -9569,17 +9569,17 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>06/15/2020 07:03 PM</t>
+          <t>2020-06-15T18:03:22.868210+0000</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>03/19/2021 10:12 AM</t>
+          <t>2021-03-19T09:13:14.874120+0000</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>a5cb1fa9d581cf82ef02d528</t>
+          <t>ObjectId:("7e22148e859141566553206fed8df2c7d3159")</t>
         </is>
       </c>
     </row>
@@ -9605,17 +9605,17 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>05/20/2019 11:44 AM</t>
+          <t>2019-05-20T10:44:25.250982+0000</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>11/23/2022 10:22 AM</t>
+          <t>2022-11-23T10:22:07.297125+0000</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>30a8074c1432bf1c944dae34</t>
+          <t>ObjectId:("2eb5ece7d469d9be072ef77054fb3bf980f3e")</t>
         </is>
       </c>
     </row>
@@ -9641,17 +9641,17 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>11/12/2019 07:57 PM</t>
+          <t>2019-11-12T19:57:06.916395+0000</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>02/25/2022 10:50 PM</t>
+          <t>2022-02-25T22:50:44.281383+0000</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>ad1c406ae540ec709698430c</t>
+          <t>ObjectId:("d08f6b4662fd3be4e1a71c5e5027ed69640ea")</t>
         </is>
       </c>
     </row>
@@ -9677,17 +9677,17 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>10/01/2019 01:45 AM</t>
+          <t>2019-10-01T00:45:53.741015+0000</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>08/10/2022 03:48 PM</t>
+          <t>2022-08-10T14:48:21.909763+0000</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>b0ccbdc34b87d9bfc78eb12e</t>
+          <t>ObjectId:("a9902e6b893f91555ef6a3abbaf37b5bc23a7")</t>
         </is>
       </c>
     </row>
@@ -9713,17 +9713,17 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>02/01/2022 02:09 AM</t>
+          <t>2022-02-01T02:09:57.680200+0000</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>11/17/2022 11:25 PM</t>
+          <t>2022-11-17T23:25:19.095728+0000</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>bea1b6e846e98e86172a42cd</t>
+          <t>ObjectId:("1cb86f374e9ee05abc15697ea834a6d7f745b")</t>
         </is>
       </c>
     </row>
@@ -9749,17 +9749,17 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>03/25/2020 02:29 PM</t>
+          <t>2020-03-25T13:29:06.055182+0000</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>07/01/2020 07:42 AM</t>
+          <t>2020-07-01T06:42:06.473280+0000</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>05b98558956e7dc0cf2e0b54</t>
+          <t>ObjectId:("c37e7f0cf6c9a49605518e0e490f8c071eb41")</t>
         </is>
       </c>
     </row>
@@ -9785,17 +9785,17 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>04/24/2019 01:29 PM</t>
+          <t>2019-04-24T12:29:28.112722+0000</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>06/08/2021 03:53 PM</t>
+          <t>2021-06-08T14:53:39.629312+0000</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>99907b2b0bb01b47693e9872</t>
+          <t>ObjectId:("8d5c8714c83247b0283169182f104fa2c17c6")</t>
         </is>
       </c>
     </row>
@@ -9821,17 +9821,17 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>10/15/2019 03:55 PM</t>
+          <t>2019-10-15T14:55:52.212795+0000</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>05/08/2021 09:36 PM</t>
+          <t>2021-05-08T20:36:58.138703+0000</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>5dadaa74893a19583308bc32</t>
+          <t>ObjectId:("b1db21e0398654a642ceec7790a9900dcb785")</t>
         </is>
       </c>
     </row>
@@ -9857,17 +9857,17 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>06/02/2021 10:03 PM</t>
+          <t>2021-06-02T21:03:52.695024+0000</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>09/06/2021 10:36 PM</t>
+          <t>2021-09-06T21:36:51.825317+0000</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>915a80515b6d7b2b80f95ac4</t>
+          <t>ObjectId:("9c7eb5f1594619886b5c038821dbbf2c08e2f")</t>
         </is>
       </c>
     </row>
@@ -9893,17 +9893,17 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>08/24/2020 11:53 AM</t>
+          <t>2020-08-24T10:53:06.497412+0000</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>06/22/2021 10:02 PM</t>
+          <t>2021-06-22T21:02:35.430458+0000</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2c4331e35b815e32f8fda700</t>
+          <t>ObjectId:("06ca6b5e9c80bd4d132f5eaad3546d8278db6")</t>
         </is>
       </c>
     </row>
@@ -9929,17 +9929,17 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>09/27/2019 11:41 PM</t>
+          <t>2019-09-27T22:41:42.387281+0000</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>11/27/2020 04:17 AM</t>
+          <t>2020-11-27T04:17:30.505419+0000</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>c9f493b230538808d6c2d00d</t>
+          <t>ObjectId:("521ab0207b46efe871e1313438800ccf4f34b")</t>
         </is>
       </c>
     </row>
@@ -9965,17 +9965,17 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>10/24/2021 07:12 PM</t>
+          <t>2021-10-24T18:12:44.127724+0000</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>11/24/2021 10:10 AM</t>
+          <t>2021-11-24T10:11:22.994873+0000</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>4352dd968e4d000742130344</t>
+          <t>ObjectId:("2ee52ff64b227eff7088645552d2cd88c9637")</t>
         </is>
       </c>
     </row>
@@ -10001,17 +10001,17 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>12/31/2021 07:23 PM</t>
+          <t>2021-12-31T19:23:35.196743+0000</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>11/21/2022 02:56 PM</t>
+          <t>2022-11-21T14:56:07.717851+0000</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>eac7f9ad9d9bd979945fcc1f</t>
+          <t>ObjectId:("6c6e2575225855cc12d31d2b97ca9439dde14")</t>
         </is>
       </c>
     </row>
@@ -10037,17 +10037,17 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>11/27/2018 09:22 PM</t>
+          <t>2018-11-27T21:22:18.454159+0000</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>12/29/2018 12:26 AM</t>
+          <t>2018-12-29T00:26:53.388600+0000</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>9fd535def54be264b52c4df8</t>
+          <t>ObjectId:("3a170b6ddcedc457150e47c5f61b9f0926103")</t>
         </is>
       </c>
     </row>
@@ -10073,17 +10073,17 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>12/24/2018 08:30 PM</t>
+          <t>2018-12-24T20:30:00.439946+0000</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>05/03/2022 09:11 PM</t>
+          <t>2022-05-03T20:11:19.216970+0000</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>317e60ae3a92f522fa1e8c68</t>
+          <t>ObjectId:("aa7a1cad3b4756073d48b435be80b263676ec")</t>
         </is>
       </c>
     </row>
@@ -10109,17 +10109,17 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>07/24/2022 04:03 AM</t>
+          <t>2022-07-24T03:03:52.789979+0000</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>10/13/2022 02:06 PM</t>
+          <t>2022-10-13T13:06:35.724038+0000</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>d301e1411cc56de710681d69</t>
+          <t>ObjectId:("7e41e45d03baa198d26e17a4c9da5a4a3586a")</t>
         </is>
       </c>
     </row>
@@ -10145,17 +10145,17 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>04/30/2022 04:00 PM</t>
+          <t>2022-04-30T15:00:37.350644+0000</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>08/22/2022 10:24 AM</t>
+          <t>2022-08-22T09:25:12.154157+0000</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>f05573720a59c3dcc63c9b6f</t>
+          <t>ObjectId:("ef4b48a6a9cb332609751dcef016a6d595bc8")</t>
         </is>
       </c>
     </row>
@@ -10181,17 +10181,17 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>10/26/2019 08:38 AM</t>
+          <t>2019-10-26T07:38:45.995087+0000</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>01/15/2021 10:54 AM</t>
+          <t>2021-01-15T10:55:18.660993+0000</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>0f839570aac483a0b56e77ab</t>
+          <t>ObjectId:("6fa9cfa3de5255d29fbece33ebf6ee30818d0")</t>
         </is>
       </c>
     </row>
@@ -10217,17 +10217,17 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>01/22/2019 02:25 AM</t>
+          <t>2019-01-22T02:25:04.691236+0000</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>09/06/2020 07:32 AM</t>
+          <t>2020-09-06T06:32:06.188766+0000</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>17ebde81bf509e928c2c40ac</t>
+          <t>ObjectId:("60f4335228408bb751cf50d345a4b92446836")</t>
         </is>
       </c>
     </row>
@@ -10253,17 +10253,17 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>11/18/2018 11:47 PM</t>
+          <t>2018-11-18T23:47:51.480374+0000</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>08/17/2019 02:50 PM</t>
+          <t>2019-08-17T13:51:04.927991+0000</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>063ee92e7a4169ebec0734f2</t>
+          <t>ObjectId:("7032c04bb5c93787f738dec686511bfb239e1")</t>
         </is>
       </c>
     </row>
@@ -10289,17 +10289,17 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>09/08/2020 07:04 PM</t>
+          <t>2020-09-08T18:04:37.449346+0000</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>06/14/2021 04:28 PM</t>
+          <t>2021-06-14T15:28:55.058385+0000</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>a1e4674755495d8520a2602e</t>
+          <t>ObjectId:("6fac975f8366536ac76b49e3d025f7f7d70ac")</t>
         </is>
       </c>
     </row>
@@ -10325,17 +10325,17 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>07/04/2018 12:51 PM</t>
+          <t>2018-07-04T11:51:12.801940+0000</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>07/02/2022 07:23 PM</t>
+          <t>2022-07-02T18:24:00.933457+0000</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>bf9d4774fc78100003f1d62a</t>
+          <t>ObjectId:("ec1a8dda42baa9e5986195c9d1dab6b7dd754")</t>
         </is>
       </c>
     </row>
@@ -10361,17 +10361,17 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>03/18/2020 07:44 PM</t>
+          <t>2020-03-18T18:44:01.362363+0000</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>10/01/2020 02:20 PM</t>
+          <t>2020-10-01T13:20:03.961124+0000</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>bcb9c85ab012516875d9ce7f</t>
+          <t>ObjectId:("740e1ea5036d267ee611bbede158bc76e0a6c")</t>
         </is>
       </c>
     </row>
@@ -10397,17 +10397,17 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>03/20/2022 10:07 AM</t>
+          <t>2022-03-20T09:07:21.541261+0000</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>03/22/2022 10:10 PM</t>
+          <t>2022-03-22T21:10:50.950967+0000</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>979301191cf43e86c63998a3</t>
+          <t>ObjectId:("28894be17745b6c7cc4beb33cb6ffcfe8aae0")</t>
         </is>
       </c>
     </row>
@@ -10433,17 +10433,17 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>12/20/2020 10:05 PM</t>
+          <t>2020-12-20T22:05:57.057048+0000</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>01/21/2022 08:31 AM</t>
+          <t>2022-01-21T08:32:08.939124+0000</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>a57bcff9d28326e8c030cda5</t>
+          <t>ObjectId:("b5d3f84a22234d5737b087f4f089a0930bb9d")</t>
         </is>
       </c>
     </row>
@@ -10469,17 +10469,17 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>04/08/2020 05:54 PM</t>
+          <t>2020-04-08T16:54:18.823599+0000</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>07/21/2020 12:34 AM</t>
+          <t>2020-07-20T23:34:47.058275+0000</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>c133188c44d6248dd1298951</t>
+          <t>ObjectId:("0a984614b68620f2ef2f73f9072f77b112bb6")</t>
         </is>
       </c>
     </row>
@@ -10505,17 +10505,17 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>07/09/2018 10:04 AM</t>
+          <t>2018-07-09T09:04:03.025391+0000</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>11/08/2020 05:28 AM</t>
+          <t>2020-11-08T05:28:28.315608+0000</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>423b641e304e7aa2a5aa456b</t>
+          <t>ObjectId:("c638fbd2f1efe46ffc39891b5a9370932f752")</t>
         </is>
       </c>
     </row>
@@ -10541,17 +10541,17 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>10/05/2020 06:19 PM</t>
+          <t>2020-10-05T17:19:08.372491+0000</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>08/17/2021 09:14 AM</t>
+          <t>2021-08-17T08:14:38.457185+0000</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>0708f39bdc41598bf2efc0fc</t>
+          <t>ObjectId:("25181abdc38722d30b4c9cf5b7ce3afb599cb")</t>
         </is>
       </c>
     </row>
@@ -10577,17 +10577,17 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>11/10/2020 05:36 AM</t>
+          <t>2020-11-10T05:36:41.918401+0000</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>04/04/2022 06:55 AM</t>
+          <t>2022-04-04T05:55:47.085709+0000</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>b123563d8d3aca9f1be29df1</t>
+          <t>ObjectId:("2eed4f4721ac77321b31bd74c4e62da9d9478")</t>
         </is>
       </c>
     </row>
@@ -10613,17 +10613,17 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>07/12/2019 08:06 PM</t>
+          <t>2019-07-12T19:06:47.292273+0000</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>11/23/2022 11:14 AM</t>
+          <t>2022-11-23T11:14:34.922261+0000</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>89cafe8a3e979b2375e8e24e</t>
+          <t>ObjectId:("5b02ff8d8fa06643be83a4149fbb9432fc298")</t>
         </is>
       </c>
     </row>
@@ -10649,17 +10649,17 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>08/21/2022 02:50 PM</t>
+          <t>2022-08-21T13:50:43.522088+0000</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>08/24/2022 04:59 PM</t>
+          <t>2022-08-24T15:59:47.615576+0000</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>0e24914478164e31246c52e4</t>
+          <t>ObjectId:("d264177de4e2f1e3774c74cf68530150c245a")</t>
         </is>
       </c>
     </row>
@@ -10685,17 +10685,17 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>01/08/2019 03:41 AM</t>
+          <t>2019-01-08T03:41:30.980901+0000</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>01/20/2020 06:17 PM</t>
+          <t>2020-01-20T18:17:43.124668+0000</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>824bdc171503ab9bb228bc0a</t>
+          <t>ObjectId:("dfbffbec44cad8386e8ecf3d70c1ff58a9dfe")</t>
         </is>
       </c>
     </row>
@@ -10721,17 +10721,17 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>05/31/2020 08:15 PM</t>
+          <t>2020-05-31T19:15:04.842025+0000</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>11/14/2022 04:06 AM</t>
+          <t>2022-11-14T04:06:48.769094+0000</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>32aa9e07c074d8209cf851eb</t>
+          <t>ObjectId:("e199cf9e20ebcb0735c2fbb11168826df6e78")</t>
         </is>
       </c>
     </row>
@@ -10757,17 +10757,17 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>06/06/2019 08:57 PM</t>
+          <t>2019-06-06T19:57:43.967851+0000</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>05/29/2020 06:48 PM</t>
+          <t>2020-05-29T17:48:55.946348+0000</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>c9dd0da50bbc8e64631822e9</t>
+          <t>ObjectId:("f0bfa165cccfc42c64bed7a8442058fb514c1")</t>
         </is>
       </c>
     </row>
@@ -10793,17 +10793,17 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>07/07/2019 02:50 PM</t>
+          <t>2019-07-07T13:50:26.890580+0000</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>10/06/2020 09:28 AM</t>
+          <t>2020-10-06T08:29:15.312493+0000</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>b6447bcd2f212e1f86efccb7</t>
+          <t>ObjectId:("8f0c8840c02bf55ee6bad7f970f0286460077")</t>
         </is>
       </c>
     </row>
@@ -10829,17 +10829,17 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>11/12/2022 12:44 PM</t>
+          <t>2022-11-12T12:44:12.806881+0000</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>12/09/2022 01:45 PM</t>
+          <t>2022-12-09T13:45:13.031272+0000</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>7011ee3958561fe16a1b82a9</t>
+          <t>ObjectId:("99bfcfe87b897fc3766b36938512b56ddbefc")</t>
         </is>
       </c>
     </row>
@@ -10865,17 +10865,17 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>02/26/2021 09:02 AM</t>
+          <t>2021-02-26T09:02:58.760259+0000</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>09/23/2022 10:08 AM</t>
+          <t>2022-09-23T09:08:38.136206+0000</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>6b5517ab997d74984d63277f</t>
+          <t>ObjectId:("0b073475f2ad56d969b5500c947d7b379c81b")</t>
         </is>
       </c>
     </row>
@@ -10901,17 +10901,17 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>03/10/2018 12:51 PM</t>
+          <t>2018-03-10T12:51:43.178435+0000</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>12/14/2020 10:51 AM</t>
+          <t>2020-12-14T10:51:51.904038+0000</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>2d4b0e4d81ceee5923aeac03</t>
+          <t>ObjectId:("db3c3e70c1d08cc9a3956ac2970e87a7e5b73")</t>
         </is>
       </c>
     </row>
@@ -10937,17 +10937,17 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>04/02/2022 10:58 PM</t>
+          <t>2022-04-02T21:58:01.609980+0000</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>08/12/2022 09:12 AM</t>
+          <t>2022-08-12T08:12:34.309103+0000</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>6fc20cbd6c63f46e945439fd</t>
+          <t>ObjectId:("89da545ccbf268058c1d6ac9aea385e6444f7")</t>
         </is>
       </c>
     </row>
@@ -10973,17 +10973,17 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>05/01/2021 05:21 AM</t>
+          <t>2021-05-01T04:21:01.929748+0000</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>11/23/2021 04:09 PM</t>
+          <t>2021-11-23T16:09:26.559408+0000</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>79c55df714662a91c67c6e4c</t>
+          <t>ObjectId:("075b4df84a08ec551cf914675fb79568241a1")</t>
         </is>
       </c>
     </row>
@@ -11009,17 +11009,17 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>05/12/2020 12:06 PM</t>
+          <t>2020-05-12T11:06:50.227509+0000</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>04/19/2022 08:03 PM</t>
+          <t>2022-04-19T19:03:55.544382+0000</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>f0f13ca2a7c0a6f9d755ebf9</t>
+          <t>ObjectId:("75fd778eaed4c5d0be1b3cf1984abd9792de9")</t>
         </is>
       </c>
     </row>
@@ -11045,17 +11045,17 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>03/05/2019 10:51 AM</t>
+          <t>2019-03-05T10:51:58.214148+0000</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>10/02/2022 11:52 AM</t>
+          <t>2022-10-02T10:52:54.596228+0000</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>bda3ba9c1edbdbbdf6a3a1c6</t>
+          <t>ObjectId:("29fbdf63206faee155acfcdc31b2bb9274d72")</t>
         </is>
       </c>
     </row>
@@ -11081,17 +11081,17 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>12/13/2021 11:28 PM</t>
+          <t>2021-12-13T23:28:26.089796+0000</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>10/21/2022 05:50 PM</t>
+          <t>2022-10-21T16:50:09.625079+0000</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>c5e46514b9e304ee2ac6c21b</t>
+          <t>ObjectId:("8f2c8e0e4be3303b9657734b610d5708972e8")</t>
         </is>
       </c>
     </row>
@@ -11117,17 +11117,17 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>10/26/2022 06:17 AM</t>
+          <t>2022-10-26T05:17:04.428098+0000</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>11/13/2022 04:07 PM</t>
+          <t>2022-11-13T16:07:18.987929+0000</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>a8d3d3fc74c9c0422b33bc55</t>
+          <t>ObjectId:("1b11a8cd5a035016630396e6d9e339ca31139")</t>
         </is>
       </c>
     </row>
@@ -11153,17 +11153,17 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>06/28/2018 01:30 PM</t>
+          <t>2018-06-28T12:30:35.314534+0000</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>11/23/2020 12:28 AM</t>
+          <t>2020-11-23T00:29:03.598020+0000</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>26d5a5f500997cc635b0094a</t>
+          <t>ObjectId:("2f6c942276feccad877d36b71feb5c9a9cbc1")</t>
         </is>
       </c>
     </row>
@@ -11189,17 +11189,17 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>07/02/2019 11:57 AM</t>
+          <t>2019-07-02T10:57:33.932937+0000</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>02/15/2022 11:51 PM</t>
+          <t>2022-02-15T23:51:25.720899+0000</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>43205f2a9658d74c943da7b5</t>
+          <t>ObjectId:("0fb459fea4834428eaac8b76d1c0d5b3884fe")</t>
         </is>
       </c>
     </row>
@@ -11225,17 +11225,17 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>06/03/2022 09:27 AM</t>
+          <t>2022-06-03T08:27:55.371557+0000</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>12/08/2022 06:43 PM</t>
+          <t>2022-12-08T18:43:48.350322+0000</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>3adcf6e0b7c2e675f1dc4725</t>
+          <t>ObjectId:("4d5be795b77f8c371692fb7e13e78e705c3b7")</t>
         </is>
       </c>
     </row>
@@ -11261,17 +11261,17 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>08/21/2020 08:22 PM</t>
+          <t>2020-08-21T19:22:03.930730+0000</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>01/11/2022 06:51 AM</t>
+          <t>2022-01-11T06:51:12.295574+0000</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>42025fb97f09d41d21bba9a6</t>
+          <t>ObjectId:("378646515416f691b7170b6208d3275764816")</t>
         </is>
       </c>
     </row>

--- a/dataDemographics.xlsx
+++ b/dataDemographics.xlsx
@@ -476,8 +476,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>49</v>
@@ -487,8 +489,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -507,13 +511,15 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ObjectId:("63701d24f03239c72c00018e")</t>
+          <t>ObjectId:('63701d24f03239c72c00018e')</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>53</v>
@@ -523,8 +529,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -543,13 +551,15 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ObjectId:("63701d24f03239c72c00018f")</t>
+          <t>ObjectId:('63701d24f03239c72c00018f')</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>82</v>
@@ -559,8 +569,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -579,13 +591,15 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ObjectId:("63701d24f03239c72c000190")</t>
+          <t>ObjectId:('63701d24f03239c72c000190')</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>74</v>
@@ -595,8 +609,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -615,13 +631,15 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ObjectId:("63701d24f03239c72c000191")</t>
+          <t>ObjectId:('63701d24f03239c72c000191')</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>57</v>
@@ -631,8 +649,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -651,13 +671,15 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ObjectId:("63701d24f03239867500012a")</t>
+          <t>ObjectId:('63701d24f03239867500012a')</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>27</v>
@@ -667,8 +689,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -687,13 +711,15 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ObjectId:("63701d24f03239867500012b")</t>
+          <t>ObjectId:('63701d24f03239867500012b')</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>47</v>
@@ -703,8 +729,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -723,13 +751,15 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ObjectId:("e0e773c56f9f20529250c443a01c6aa9472cc")</t>
+          <t>ObjectId:('e0e773c56f9f20529250c443a01c6aa9472cc')</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>85</v>
@@ -739,8 +769,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -759,13 +791,15 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ObjectId:("9e4bd2b0ee932454f0cfb06ee4491f0f9d8d0")</t>
+          <t>ObjectId:('9e4bd2b0ee932454f0cfb06ee4491f0f9d8d0')</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>41</v>
@@ -775,8 +809,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -795,13 +831,15 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ObjectId:("b2cb5778e41cb8fae420d7ba0958d5bfecccf")</t>
+          <t>ObjectId:('b2cb5778e41cb8fae420d7ba0958d5bfecccf')</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>43</v>
@@ -811,8 +849,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -831,13 +871,15 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ObjectId:("a9a0e9584c0f410ffada0ad65474fa8e2cc39")</t>
+          <t>ObjectId:('a9a0e9584c0f410ffada0ad65474fa8e2cc39')</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>92</v>
@@ -847,8 +889,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>1</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -867,13 +911,15 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ObjectId:("4028ee5295f9711fe568843f26114e3cab2cb")</t>
+          <t>ObjectId:('4028ee5295f9711fe568843f26114e3cab2cb')</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>32</v>
@@ -883,8 +929,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -903,13 +951,15 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ObjectId:("3e9d7581494eed88315a0349203b7d00c241d")</t>
+          <t>ObjectId:('3e9d7581494eed88315a0349203b7d00c241d')</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>52</v>
@@ -919,8 +969,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -939,13 +991,15 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ObjectId:("41871b083038af6acc2b4d6779fcbd8797a83")</t>
+          <t>ObjectId:('41871b083038af6acc2b4d6779fcbd8797a83')</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>27</v>
@@ -955,8 +1009,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -975,13 +1031,15 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ObjectId:("7711d7bb720a3871608479812718ee8bafa72")</t>
+          <t>ObjectId:('7711d7bb720a3871608479812718ee8bafa72')</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>61</v>
@@ -991,8 +1049,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1011,13 +1071,15 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ObjectId:("2a978c42a051281307cd528253a6d225c86e8")</t>
+          <t>ObjectId:('2a978c42a051281307cd528253a6d225c86e8')</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>85</v>
@@ -1027,8 +1089,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1047,13 +1111,15 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ObjectId:("f6ede29f260d6dc8ac2b142d7e38266d288f9")</t>
+          <t>ObjectId:('f6ede29f260d6dc8ac2b142d7e38266d288f9')</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>73</v>
@@ -1063,8 +1129,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>1</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1083,13 +1151,15 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ObjectId:("7a5bd0e45aa5c0d4019ee8e5493be4647e7eb")</t>
+          <t>ObjectId:('7a5bd0e45aa5c0d4019ee8e5493be4647e7eb')</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>38</v>
@@ -1099,8 +1169,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1119,13 +1191,15 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ObjectId:("f50e19c5084e42ce8dca5eec688d77a0c77d0")</t>
+          <t>ObjectId:('f50e19c5084e42ce8dca5eec688d77a0c77d0')</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>91</v>
@@ -1135,8 +1209,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>1</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1155,13 +1231,15 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ObjectId:("bf20b1d455229234ace0e1aac0d1efdbff3d4")</t>
+          <t>ObjectId:('bf20b1d455229234ace0e1aac0d1efdbff3d4')</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>61</v>
@@ -1171,8 +1249,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1191,13 +1271,15 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ObjectId:("81fafe2f04affcdac8ed9b6f87ef7bfbc6faf")</t>
+          <t>ObjectId:('81fafe2f04affcdac8ed9b6f87ef7bfbc6faf')</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>92</v>
@@ -1207,8 +1289,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>1</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1227,13 +1311,15 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ObjectId:("e995813ebc31965d88569e470e8d6895d274f")</t>
+          <t>ObjectId:('e995813ebc31965d88569e470e8d6895d274f')</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>99</v>
@@ -1243,8 +1329,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>1</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1263,13 +1351,15 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ObjectId:("c342c134fcc13813caa3cb79f3f59e980f0b1")</t>
+          <t>ObjectId:('c342c134fcc13813caa3cb79f3f59e980f0b1')</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>19</v>
@@ -1279,8 +1369,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1299,13 +1391,15 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ObjectId:("bdd16465c12a368ecf49d904a26d745a3028f")</t>
+          <t>ObjectId:('bdd16465c12a368ecf49d904a26d745a3028f')</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>35</v>
@@ -1315,8 +1409,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>1</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1335,13 +1431,15 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ObjectId:("2e88a957b9984c6be6f4324c2e8ca9b7dd500")</t>
+          <t>ObjectId:('2e88a957b9984c6be6f4324c2e8ca9b7dd500')</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>71</v>
@@ -1351,8 +1449,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1371,13 +1471,15 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ObjectId:("71ea7a05138a9246181306fe4384a46d84a72")</t>
+          <t>ObjectId:('71ea7a05138a9246181306fe4384a46d84a72')</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>71</v>
@@ -1387,8 +1489,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1407,13 +1511,15 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>ObjectId:("59d87c605fc4d73094e75cea128257bece748")</t>
+          <t>ObjectId:('59d87c605fc4d73094e75cea128257bece748')</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>30</v>
@@ -1423,8 +1529,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>1</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1443,13 +1551,15 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ObjectId:("27cc3e282234df9cfd9aa826494e7dd1aac3d")</t>
+          <t>ObjectId:('27cc3e282234df9cfd9aa826494e7dd1aac3d')</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>61</v>
@@ -1459,8 +1569,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>1</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1479,13 +1591,15 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>ObjectId:("ee03d1d35a119435b0bdec34376ead66b3437")</t>
+          <t>ObjectId:('ee03d1d35a119435b0bdec34376ead66b3437')</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>67</v>
@@ -1495,8 +1609,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1515,13 +1631,15 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ObjectId:("25238fdc5c891698756f03ce3428998fb5e03")</t>
+          <t>ObjectId:('25238fdc5c891698756f03ce3428998fb5e03')</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>99</v>
@@ -1531,8 +1649,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>1</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1551,13 +1671,15 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ObjectId:("72f8acb35a7c516cacc981d5751627987220b")</t>
+          <t>ObjectId:('72f8acb35a7c516cacc981d5751627987220b')</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>32</v>
@@ -1567,8 +1689,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>1</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1587,13 +1711,15 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ObjectId:("81bfc4504b483e8d9a0890c0aeadf9577f967")</t>
+          <t>ObjectId:('81bfc4504b483e8d9a0890c0aeadf9577f967')</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>77</v>
@@ -1603,8 +1729,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>1</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1623,13 +1751,15 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>ObjectId:("495a48a0143230e103737d2f0be87fee29be0")</t>
+          <t>ObjectId:('495a48a0143230e103737d2f0be87fee29be0')</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>57</v>
@@ -1639,8 +1769,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>1</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1659,13 +1791,15 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>ObjectId:("242f1f40344fa8e8b41bb482ed741876980f3")</t>
+          <t>ObjectId:('242f1f40344fa8e8b41bb482ed741876980f3')</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>75</v>
@@ -1675,8 +1809,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1695,13 +1831,15 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ObjectId:("112da4932cb4d9abb462e7a69b9652df1fce4")</t>
+          <t>ObjectId:('112da4932cb4d9abb462e7a69b9652df1fce4')</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>55</v>
@@ -1711,8 +1849,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1731,13 +1871,15 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ObjectId:("aea448abe78761e00dbfb04c6448c04578001")</t>
+          <t>ObjectId:('aea448abe78761e00dbfb04c6448c04578001')</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>62</v>
@@ -1747,8 +1889,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>0</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1767,13 +1911,15 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ObjectId:("5e4393e7c411877b54e8afd788718a3e30534")</t>
+          <t>ObjectId:('5e4393e7c411877b54e8afd788718a3e30534')</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>19</v>
@@ -1783,8 +1929,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1803,13 +1951,15 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ObjectId:("20913831443ece1e3a9e594b4ca91a46769e8")</t>
+          <t>ObjectId:('20913831443ece1e3a9e594b4ca91a46769e8')</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>42</v>
@@ -1819,8 +1969,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>1</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1839,13 +1991,15 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ObjectId:("8cc661f53162c778ba2071e264f2443407d6b")</t>
+          <t>ObjectId:('8cc661f53162c778ba2071e264f2443407d6b')</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>97</v>
@@ -1855,8 +2009,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>1</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1875,13 +2031,15 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ObjectId:("c2ca0c0ecc860ba0eb7efb0a1a33efc43f7ed")</t>
+          <t>ObjectId:('c2ca0c0ecc860ba0eb7efb0a1a33efc43f7ed')</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>20</v>
@@ -1891,8 +2049,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1911,13 +2071,15 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ObjectId:("cd62842925c90bbcbd0a0f156c1584f0d2444")</t>
+          <t>ObjectId:('cd62842925c90bbcbd0a0f156c1584f0d2444')</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>31</v>
@@ -1927,8 +2089,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1947,13 +2111,15 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ObjectId:("8970e9fe6ac3431e06bf891f675d27d66848a")</t>
+          <t>ObjectId:('8970e9fe6ac3431e06bf891f675d27d66848a')</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>69</v>
@@ -1963,8 +2129,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>0</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1983,13 +2151,15 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ObjectId:("359722e6500577fa4d0e566c1e04f7d10f8fc")</t>
+          <t>ObjectId:('359722e6500577fa4d0e566c1e04f7d10f8fc')</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>43</v>
@@ -1999,8 +2169,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>1</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2019,13 +2191,15 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ObjectId:("80b74fd491821e0078d21c6cd77cc9ee5a33c")</t>
+          <t>ObjectId:('80b74fd491821e0078d21c6cd77cc9ee5a33c')</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>55</v>
@@ -2035,8 +2209,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>1</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2055,13 +2231,15 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>ObjectId:("d9683d23e27d240058d996dda55bfca14db27")</t>
+          <t>ObjectId:('d9683d23e27d240058d996dda55bfca14db27')</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>63</v>
@@ -2071,8 +2249,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>1</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2091,13 +2271,15 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>ObjectId:("97cd40939d933584d55a456b44e0f98634e2a")</t>
+          <t>ObjectId:('97cd40939d933584d55a456b44e0f98634e2a')</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>84</v>
@@ -2107,8 +2289,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>0</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2127,13 +2311,15 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>ObjectId:("fdb4fb2473910e1b881cd37e54679ac3f61e0")</t>
+          <t>ObjectId:('fdb4fb2473910e1b881cd37e54679ac3f61e0')</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>48</v>
@@ -2143,8 +2329,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2163,13 +2351,15 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>ObjectId:("77100d604b7db138345f09d4eacb5c82bedd2")</t>
+          <t>ObjectId:('77100d604b7db138345f09d4eacb5c82bedd2')</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>21</v>
@@ -2179,8 +2369,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2199,13 +2391,15 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>ObjectId:("45742a650d2947e72185c9708a99182951260")</t>
+          <t>ObjectId:('45742a650d2947e72185c9708a99182951260')</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>25</v>
@@ -2215,8 +2409,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>1</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2235,13 +2431,15 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>ObjectId:("0109e8c6f3a0c69cbade29b5e159754872174")</t>
+          <t>ObjectId:('0109e8c6f3a0c69cbade29b5e159754872174')</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>48</v>
@@ -2251,8 +2449,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>0</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2271,13 +2471,15 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>ObjectId:("c247acf73671ac836eed333a49494e1af1798")</t>
+          <t>ObjectId:('c247acf73671ac836eed333a49494e1af1798')</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>86</v>
@@ -2287,8 +2489,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>0</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2307,13 +2511,15 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>ObjectId:("01948f4b80b87208f35385d89d17dfc4349b7")</t>
+          <t>ObjectId:('01948f4b80b87208f35385d89d17dfc4349b7')</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>79</v>
@@ -2323,8 +2529,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>1</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2343,13 +2551,15 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>ObjectId:("458da59859898a56dde48ce5b1814992e37b6")</t>
+          <t>ObjectId:('458da59859898a56dde48ce5b1814992e37b6')</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>66</v>
@@ -2359,8 +2569,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>0</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2379,13 +2591,15 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>ObjectId:("a3ca29e06b5f435867a27ac6efaac1a6ecbf9")</t>
+          <t>ObjectId:('a3ca29e06b5f435867a27ac6efaac1a6ecbf9')</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>33</v>
@@ -2395,8 +2609,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2415,13 +2631,15 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>ObjectId:("1f51e853102d5d9977fae7efcdc2e735743e0")</t>
+          <t>ObjectId:('1f51e853102d5d9977fae7efcdc2e735743e0')</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>86</v>
@@ -2431,8 +2649,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>1</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2451,13 +2671,15 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>ObjectId:("b7f053568b4742736b045870bc976f5134dab")</t>
+          <t>ObjectId:('b7f053568b4742736b045870bc976f5134dab')</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>71</v>
@@ -2467,8 +2689,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>1</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2487,13 +2711,15 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>ObjectId:("0538a1b70c4581beb8818a840d7857cea8c2a")</t>
+          <t>ObjectId:('0538a1b70c4581beb8818a840d7857cea8c2a')</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>43</v>
@@ -2503,8 +2729,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>1</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2523,13 +2751,15 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>ObjectId:("44b8f1cc12d0dbc31fa1ac457ef528cfd0787")</t>
+          <t>ObjectId:('44b8f1cc12d0dbc31fa1ac457ef528cfd0787')</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>25</v>
@@ -2539,8 +2769,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>0</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2559,13 +2791,15 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>ObjectId:("fcc2ba8a99f9034796cc813302fc7691e3a3e")</t>
+          <t>ObjectId:('fcc2ba8a99f9034796cc813302fc7691e3a3e')</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>78</v>
@@ -2575,8 +2809,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>1</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2595,13 +2831,15 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>ObjectId:("f9dfb6aef8be6f4851f79982bfee13e87dafd")</t>
+          <t>ObjectId:('f9dfb6aef8be6f4851f79982bfee13e87dafd')</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>19</v>
@@ -2611,8 +2849,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>1</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2631,13 +2871,15 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>ObjectId:("cf35a19864848042b68d8be10aead81e0a44a")</t>
+          <t>ObjectId:('cf35a19864848042b68d8be10aead81e0a44a')</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>61</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
       </c>
       <c r="B62" t="n">
         <v>94</v>
@@ -2647,8 +2889,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>1</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2667,13 +2911,15 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>ObjectId:("02dd8077dafbbd4ed11655743c2aca717d21f")</t>
+          <t>ObjectId:('02dd8077dafbbd4ed11655743c2aca717d21f')</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>62</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
       </c>
       <c r="B63" t="n">
         <v>21</v>
@@ -2683,8 +2929,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>0</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2703,13 +2951,15 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>ObjectId:("4e5035f1ee47a4374fd06915c61532d4e71c5")</t>
+          <t>ObjectId:('4e5035f1ee47a4374fd06915c61532d4e71c5')</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>63</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>76</v>
@@ -2719,8 +2969,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>0</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2739,13 +2991,15 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ObjectId:("8ee7e81fa49f61e67d2854cde1a1fb72b2a8d")</t>
+          <t>ObjectId:('8ee7e81fa49f61e67d2854cde1a1fb72b2a8d')</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>64</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>54</v>
@@ -2755,8 +3009,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>1</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2775,13 +3031,15 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ObjectId:("beb090d102575520a3a0dd0c0f65e1652cc23")</t>
+          <t>ObjectId:('beb090d102575520a3a0dd0c0f65e1652cc23')</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>65</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>96</v>
@@ -2791,8 +3049,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>0</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2811,13 +3071,15 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>ObjectId:("056cce19cd3a0186064a90b0e7ea4ba2e3028")</t>
+          <t>ObjectId:('056cce19cd3a0186064a90b0e7ea4ba2e3028')</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
       </c>
       <c r="B67" t="n">
         <v>37</v>
@@ -2827,8 +3089,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>0</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2847,13 +3111,15 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>ObjectId:("4bb963567f193ad6e84bcff86b387e464b2e5")</t>
+          <t>ObjectId:('4bb963567f193ad6e84bcff86b387e464b2e5')</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
       </c>
       <c r="B68" t="n">
         <v>80</v>
@@ -2863,8 +3129,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>0</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2883,13 +3151,15 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>ObjectId:("35f1694f55b8018e0f4ca892e3be0bdf4536a")</t>
+          <t>ObjectId:('35f1694f55b8018e0f4ca892e3be0bdf4536a')</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>68</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="B69" t="n">
         <v>71</v>
@@ -2899,8 +3169,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>1</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2919,13 +3191,15 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>ObjectId:("7d0fa79eb7f1a094a05f9aba13ad018be95a8")</t>
+          <t>ObjectId:('7d0fa79eb7f1a094a05f9aba13ad018be95a8')</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="B70" t="n">
         <v>54</v>
@@ -2935,8 +3209,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>1</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2955,13 +3231,15 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>ObjectId:("78d43c6c4030db76b52dd4b3e8d495c594f80")</t>
+          <t>ObjectId:('78d43c6c4030db76b52dd4b3e8d495c594f80')</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>70</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="B71" t="n">
         <v>67</v>
@@ -2971,8 +3249,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>1</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2991,13 +3271,15 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>ObjectId:("864891594072c73655ddf55764708b11d21ab")</t>
+          <t>ObjectId:('864891594072c73655ddf55764708b11d21ab')</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="B72" t="n">
         <v>64</v>
@@ -3007,8 +3289,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>0</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3027,13 +3311,15 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>ObjectId:("6cc28dccd327c4069d3fa6d6bb613505f9202")</t>
+          <t>ObjectId:('6cc28dccd327c4069d3fa6d6bb613505f9202')</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
       </c>
       <c r="B73" t="n">
         <v>29</v>
@@ -3043,8 +3329,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>1</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3063,13 +3351,15 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>ObjectId:("69390bbe1a5c8857b1cf47aeae2e2d76fd220")</t>
+          <t>ObjectId:('69390bbe1a5c8857b1cf47aeae2e2d76fd220')</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>73</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="B74" t="n">
         <v>25</v>
@@ -3079,8 +3369,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>0</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3099,13 +3391,15 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>ObjectId:("63f38b21c612dee27573b1d53a3a1b02bb61e")</t>
+          <t>ObjectId:('63f38b21c612dee27573b1d53a3a1b02bb61e')</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="B75" t="n">
         <v>24</v>
@@ -3115,8 +3409,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>0</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3135,13 +3431,15 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>ObjectId:("09ecdf002dbd1872cc75fd8b805b5647c0750")</t>
+          <t>ObjectId:('09ecdf002dbd1872cc75fd8b805b5647c0750')</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>75</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="B76" t="n">
         <v>71</v>
@@ -3151,8 +3449,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>0</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3171,13 +3471,15 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>ObjectId:("793bb33fdedf399b31a1d0625815b20d46f4b")</t>
+          <t>ObjectId:('793bb33fdedf399b31a1d0625815b20d46f4b')</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="B77" t="n">
         <v>31</v>
@@ -3187,8 +3489,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>1</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3207,13 +3511,15 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>ObjectId:("d730d7528b2bac2af673813f66b897e2773f8")</t>
+          <t>ObjectId:('d730d7528b2bac2af673813f66b897e2773f8')</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>77</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
       </c>
       <c r="B78" t="n">
         <v>54</v>
@@ -3223,8 +3529,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>0</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3243,13 +3551,15 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>ObjectId:("10075249ea8fe86fa6455585e4f0f038e9fc6")</t>
+          <t>ObjectId:('10075249ea8fe86fa6455585e4f0f038e9fc6')</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>78</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="B79" t="n">
         <v>32</v>
@@ -3259,8 +3569,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>0</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3279,13 +3591,15 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>ObjectId:("1eee808277182849890c6d26e245e5c2f72d8")</t>
+          <t>ObjectId:('1eee808277182849890c6d26e245e5c2f72d8')</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>79</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="B80" t="n">
         <v>97</v>
@@ -3295,8 +3609,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>1</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3315,13 +3631,15 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>ObjectId:("186f7fce6e1682cec0f17e40b3ef069bb4124")</t>
+          <t>ObjectId:('186f7fce6e1682cec0f17e40b3ef069bb4124')</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>80</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="B81" t="n">
         <v>28</v>
@@ -3331,8 +3649,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>0</v>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3351,13 +3671,15 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>ObjectId:("808bf746f8def1bdb5cd0984ae69968fc0cd7")</t>
+          <t>ObjectId:('808bf746f8def1bdb5cd0984ae69968fc0cd7')</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>81</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
       </c>
       <c r="B82" t="n">
         <v>54</v>
@@ -3367,8 +3689,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3387,13 +3711,15 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>ObjectId:("341c3caa9685bae4422bd72c9eca1c12f0487")</t>
+          <t>ObjectId:('341c3caa9685bae4422bd72c9eca1c12f0487')</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>82</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
       </c>
       <c r="B83" t="n">
         <v>26</v>
@@ -3403,8 +3729,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>1</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3423,13 +3751,15 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>ObjectId:("c60772a03e571b01299f707330399dfb25789")</t>
+          <t>ObjectId:('c60772a03e571b01299f707330399dfb25789')</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>83</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="B84" t="n">
         <v>37</v>
@@ -3439,8 +3769,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>1</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3459,13 +3791,15 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>ObjectId:("dc428662245c590f7559b10b49740380565e2")</t>
+          <t>ObjectId:('dc428662245c590f7559b10b49740380565e2')</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>84</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
       </c>
       <c r="B85" t="n">
         <v>76</v>
@@ -3475,8 +3809,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>1</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3495,13 +3831,15 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>ObjectId:("b43b04c068d9def80377bce84438b40e80ad8")</t>
+          <t>ObjectId:('b43b04c068d9def80377bce84438b40e80ad8')</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>85</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
       </c>
       <c r="B86" t="n">
         <v>72</v>
@@ -3511,8 +3849,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>1</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3531,13 +3871,15 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>ObjectId:("a989bbe57c3e589fbe0781e4fafa8b3c8a4ce")</t>
+          <t>ObjectId:('a989bbe57c3e589fbe0781e4fafa8b3c8a4ce')</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>86</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
       </c>
       <c r="B87" t="n">
         <v>83</v>
@@ -3547,8 +3889,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>1</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3567,13 +3911,15 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>ObjectId:("ca0202a2438ab679f65cc35d9a19422e86b24")</t>
+          <t>ObjectId:('ca0202a2438ab679f65cc35d9a19422e86b24')</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>87</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
       </c>
       <c r="B88" t="n">
         <v>45</v>
@@ -3583,8 +3929,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3603,13 +3951,15 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>ObjectId:("0b9cf9f5ae95c39e302eb2fb40a0c81aa2ba5")</t>
+          <t>ObjectId:('0b9cf9f5ae95c39e302eb2fb40a0c81aa2ba5')</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>88</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
       </c>
       <c r="B89" t="n">
         <v>75</v>
@@ -3619,8 +3969,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3639,13 +3991,15 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>ObjectId:("a7cfb7ee7887aea54b276b9f053313b686ac2")</t>
+          <t>ObjectId:('a7cfb7ee7887aea54b276b9f053313b686ac2')</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>89</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
       </c>
       <c r="B90" t="n">
         <v>87</v>
@@ -3655,8 +4009,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>1</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3675,13 +4031,15 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>ObjectId:("9bef266eda985b31bf90ff6798dd6d4987917")</t>
+          <t>ObjectId:('9bef266eda985b31bf90ff6798dd6d4987917')</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>90</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
       <c r="B91" t="n">
         <v>64</v>
@@ -3691,8 +4049,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v>1</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3711,13 +4071,15 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>ObjectId:("7867a97f88ee76da94c173aa41a75edb353b2")</t>
+          <t>ObjectId:('7867a97f88ee76da94c173aa41a75edb353b2')</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>91</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
       </c>
       <c r="B92" t="n">
         <v>88</v>
@@ -3727,8 +4089,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>0</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3747,13 +4111,15 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>ObjectId:("a5986fd8df6652af8e93e27a43f61c5342349")</t>
+          <t>ObjectId:('a5986fd8df6652af8e93e27a43f61c5342349')</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>92</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
       </c>
       <c r="B93" t="n">
         <v>49</v>
@@ -3763,8 +4129,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>1</v>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3783,13 +4151,15 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>ObjectId:("3e6a283e2722f66d976e3219b4ff7e6499fdd")</t>
+          <t>ObjectId:('3e6a283e2722f66d976e3219b4ff7e6499fdd')</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>93</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
       </c>
       <c r="B94" t="n">
         <v>31</v>
@@ -3799,8 +4169,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>1</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3819,13 +4191,15 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>ObjectId:("14745d0d75947682db128741979713d9b2318")</t>
+          <t>ObjectId:('14745d0d75947682db128741979713d9b2318')</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>94</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
       </c>
       <c r="B95" t="n">
         <v>89</v>
@@ -3835,8 +4209,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>1</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3855,13 +4231,15 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>ObjectId:("bd6e95861bf8ee544d675031465f854e43c9d")</t>
+          <t>ObjectId:('bd6e95861bf8ee544d675031465f854e43c9d')</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
       </c>
       <c r="B96" t="n">
         <v>92</v>
@@ -3871,8 +4249,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>1</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3891,13 +4271,15 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>ObjectId:("0f69471ec8ca1b98cda74cff43514aca0d38c")</t>
+          <t>ObjectId:('0f69471ec8ca1b98cda74cff43514aca0d38c')</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>96</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
       <c r="B97" t="n">
         <v>22</v>
@@ -3907,8 +4289,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>1</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3927,13 +4311,15 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>ObjectId:("7898968e38827bf7a2e9b81cb12d26f4c95dd")</t>
+          <t>ObjectId:('7898968e38827bf7a2e9b81cb12d26f4c95dd')</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>97</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
       </c>
       <c r="B98" t="n">
         <v>48</v>
@@ -3943,8 +4329,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>0</v>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3963,13 +4351,15 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>ObjectId:("f70f0501ed99e124f5c1565c1a7b1e69f5e4d")</t>
+          <t>ObjectId:('f70f0501ed99e124f5c1565c1a7b1e69f5e4d')</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>98</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
       </c>
       <c r="B99" t="n">
         <v>72</v>
@@ -3979,8 +4369,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>0</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3999,13 +4391,15 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>ObjectId:("a74e1f0991346a1ab40c2e2410903bc40dc71")</t>
+          <t>ObjectId:('a74e1f0991346a1ab40c2e2410903bc40dc71')</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>99</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
       </c>
       <c r="B100" t="n">
         <v>62</v>
@@ -4015,8 +4409,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>1</v>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4035,13 +4431,15 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>ObjectId:("39cb7160e15d4142a3899df9685c7e870aa8d")</t>
+          <t>ObjectId:('39cb7160e15d4142a3899df9685c7e870aa8d')</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>100</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="B101" t="n">
         <v>42</v>
@@ -4051,8 +4449,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>0</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4071,13 +4471,15 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>ObjectId:("927ee63a23015933fe2db7cb976db049f81d3")</t>
+          <t>ObjectId:('927ee63a23015933fe2db7cb976db049f81d3')</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>101</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
       </c>
       <c r="B102" t="n">
         <v>47</v>
@@ -4087,8 +4489,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D102" t="n">
-        <v>0</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4107,13 +4511,15 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>ObjectId:("21ff764895713c9a50990e20c77d4eb64e683")</t>
+          <t>ObjectId:('21ff764895713c9a50990e20c77d4eb64e683')</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>102</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
       </c>
       <c r="B103" t="n">
         <v>92</v>
@@ -4123,8 +4529,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v>0</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4143,13 +4551,15 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>ObjectId:("4767cad5e1fe7fa245719b9a3f8fdcaaed400")</t>
+          <t>ObjectId:('4767cad5e1fe7fa245719b9a3f8fdcaaed400')</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>103</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
       </c>
       <c r="B104" t="n">
         <v>82</v>
@@ -4159,8 +4569,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D104" t="n">
-        <v>0</v>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4179,13 +4591,15 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>ObjectId:("54cbc99f16c109e036fb4dd63daade5933394")</t>
+          <t>ObjectId:('54cbc99f16c109e036fb4dd63daade5933394')</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>104</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
       </c>
       <c r="B105" t="n">
         <v>82</v>
@@ -4195,8 +4609,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D105" t="n">
-        <v>0</v>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4215,13 +4631,15 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>ObjectId:("fd9f65f084885b69ed28e40e2818a4cc909a4")</t>
+          <t>ObjectId:('fd9f65f084885b69ed28e40e2818a4cc909a4')</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>105</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
       </c>
       <c r="B106" t="n">
         <v>92</v>
@@ -4231,8 +4649,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D106" t="n">
-        <v>0</v>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4251,13 +4671,15 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>ObjectId:("fb1def3bf7fc4dc127493bbcf9a4d388e91f8")</t>
+          <t>ObjectId:('fb1def3bf7fc4dc127493bbcf9a4d388e91f8')</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>106</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
       </c>
       <c r="B107" t="n">
         <v>87</v>
@@ -4267,8 +4689,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D107" t="n">
-        <v>0</v>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4287,13 +4711,15 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>ObjectId:("b340ec7c1c9a1f69db5c62f19c69c13e401b6")</t>
+          <t>ObjectId:('b340ec7c1c9a1f69db5c62f19c69c13e401b6')</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>107</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
       </c>
       <c r="B108" t="n">
         <v>58</v>
@@ -4303,8 +4729,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D108" t="n">
-        <v>0</v>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4323,13 +4751,15 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>ObjectId:("22859d80dd11f979f42a144a1efd07e885b53")</t>
+          <t>ObjectId:('22859d80dd11f979f42a144a1efd07e885b53')</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>108</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
       </c>
       <c r="B109" t="n">
         <v>58</v>
@@ -4339,8 +4769,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D109" t="n">
-        <v>0</v>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4359,13 +4791,15 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>ObjectId:("284aa3d053a1c293958d31521ed0ff298f4dd")</t>
+          <t>ObjectId:('284aa3d053a1c293958d31521ed0ff298f4dd')</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>109</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
       </c>
       <c r="B110" t="n">
         <v>42</v>
@@ -4375,8 +4809,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v>1</v>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4395,13 +4831,15 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>ObjectId:("c8f8290b9ca3f7dbe427c5dc99f36cbb4e81a")</t>
+          <t>ObjectId:('c8f8290b9ca3f7dbe427c5dc99f36cbb4e81a')</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>110</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
       </c>
       <c r="B111" t="n">
         <v>49</v>
@@ -4411,8 +4849,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v>1</v>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4431,13 +4871,15 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>ObjectId:("8cedc25151b723f10cb90f78bc2b2aa65a110")</t>
+          <t>ObjectId:('8cedc25151b723f10cb90f78bc2b2aa65a110')</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>111</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
       </c>
       <c r="B112" t="n">
         <v>59</v>
@@ -4447,8 +4889,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D112" t="n">
-        <v>1</v>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4467,13 +4911,15 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>ObjectId:("0f315f9acec0e206188cdbfd601e88a1d62e6")</t>
+          <t>ObjectId:('0f315f9acec0e206188cdbfd601e88a1d62e6')</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>112</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
       </c>
       <c r="B113" t="n">
         <v>31</v>
@@ -4483,8 +4929,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D113" t="n">
-        <v>1</v>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4503,13 +4951,15 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>ObjectId:("fd83bb8a2cdf1849bb07840ce06b8ad817ae0")</t>
+          <t>ObjectId:('fd83bb8a2cdf1849bb07840ce06b8ad817ae0')</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>113</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
       </c>
       <c r="B114" t="n">
         <v>61</v>
@@ -4519,8 +4969,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D114" t="n">
-        <v>1</v>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4539,13 +4991,15 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>ObjectId:("70cd829b97feeada507991c96bedd360c11da")</t>
+          <t>ObjectId:('70cd829b97feeada507991c96bedd360c11da')</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>114</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
       </c>
       <c r="B115" t="n">
         <v>60</v>
@@ -4555,8 +5009,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D115" t="n">
-        <v>0</v>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4575,13 +5031,15 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>ObjectId:("3fa1ed465cb5c98452b9cdc7bbe6cec3f93c2")</t>
+          <t>ObjectId:('3fa1ed465cb5c98452b9cdc7bbe6cec3f93c2')</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>115</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
       </c>
       <c r="B116" t="n">
         <v>83</v>
@@ -4591,8 +5049,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D116" t="n">
-        <v>1</v>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4611,13 +5071,15 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>ObjectId:("bc34700d59ecf6dbeb1ad4f3c921ab3e89116")</t>
+          <t>ObjectId:('bc34700d59ecf6dbeb1ad4f3c921ab3e89116')</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>116</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
       </c>
       <c r="B117" t="n">
         <v>61</v>
@@ -4627,8 +5089,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D117" t="n">
-        <v>1</v>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4647,13 +5111,15 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>ObjectId:("9238fdd745da00c8efadeed126344651b7c77")</t>
+          <t>ObjectId:('9238fdd745da00c8efadeed126344651b7c77')</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>117</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
       </c>
       <c r="B118" t="n">
         <v>29</v>
@@ -4663,8 +5129,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D118" t="n">
-        <v>0</v>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4683,13 +5151,15 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>ObjectId:("ddba0159a8da5f0b45fef00401d32c0a80b18")</t>
+          <t>ObjectId:('ddba0159a8da5f0b45fef00401d32c0a80b18')</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>118</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
       </c>
       <c r="B119" t="n">
         <v>63</v>
@@ -4699,8 +5169,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D119" t="n">
-        <v>1</v>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4719,13 +5191,15 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>ObjectId:("717810b8693d7edd7c50325c53e9f053dbb7c")</t>
+          <t>ObjectId:('717810b8693d7edd7c50325c53e9f053dbb7c')</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>119</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
       </c>
       <c r="B120" t="n">
         <v>32</v>
@@ -4735,8 +5209,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D120" t="n">
-        <v>0</v>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4755,13 +5231,15 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>ObjectId:("bd08f97a56b87d7a4ca40621b88805c502a05")</t>
+          <t>ObjectId:('bd08f97a56b87d7a4ca40621b88805c502a05')</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>120</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
       </c>
       <c r="B121" t="n">
         <v>38</v>
@@ -4771,8 +5249,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v>0</v>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4791,13 +5271,15 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>ObjectId:("59682e55fae8c4f434280211dd222bd7b9123")</t>
+          <t>ObjectId:('59682e55fae8c4f434280211dd222bd7b9123')</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>121</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
       </c>
       <c r="B122" t="n">
         <v>64</v>
@@ -4807,8 +5289,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D122" t="n">
-        <v>0</v>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4827,13 +5311,15 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>ObjectId:("5ac3bd506f3ac3a61b3af41d3b8a9eab57294")</t>
+          <t>ObjectId:('5ac3bd506f3ac3a61b3af41d3b8a9eab57294')</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>122</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
       </c>
       <c r="B123" t="n">
         <v>99</v>
@@ -4843,8 +5329,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>0</v>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4863,13 +5351,15 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>ObjectId:("f346b74c63e6b25a5d0e77fb27580c305084d")</t>
+          <t>ObjectId:('f346b74c63e6b25a5d0e77fb27580c305084d')</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>123</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="B124" t="n">
         <v>35</v>
@@ -4879,8 +5369,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>1</v>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4899,13 +5391,15 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>ObjectId:("fe2f0bb50b6ee8f93add6516f9fc515b8507f")</t>
+          <t>ObjectId:('fe2f0bb50b6ee8f93add6516f9fc515b8507f')</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>124</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
       </c>
       <c r="B125" t="n">
         <v>47</v>
@@ -4915,8 +5409,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D125" t="n">
-        <v>1</v>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4935,13 +5431,15 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>ObjectId:("bb31f40633bea66c86eef14cc7bbe225ef0d6")</t>
+          <t>ObjectId:('bb31f40633bea66c86eef14cc7bbe225ef0d6')</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>125</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
       </c>
       <c r="B126" t="n">
         <v>94</v>
@@ -4951,8 +5449,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D126" t="n">
-        <v>0</v>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4971,13 +5471,15 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>ObjectId:("f6c42657858c2f246f2bcdc19a27568063fb3")</t>
+          <t>ObjectId:('f6c42657858c2f246f2bcdc19a27568063fb3')</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>126</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
       </c>
       <c r="B127" t="n">
         <v>26</v>
@@ -4987,8 +5489,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D127" t="n">
-        <v>1</v>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5007,13 +5511,15 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>ObjectId:("fca6012b11e207f6f0dcdc28b922c7deb98c8")</t>
+          <t>ObjectId:('fca6012b11e207f6f0dcdc28b922c7deb98c8')</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>127</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
       </c>
       <c r="B128" t="n">
         <v>40</v>
@@ -5023,8 +5529,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D128" t="n">
-        <v>1</v>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5043,13 +5551,15 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>ObjectId:("01801a32876aaa65074b5c2f21ce71dd8021d")</t>
+          <t>ObjectId:('01801a32876aaa65074b5c2f21ce71dd8021d')</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>128</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
       </c>
       <c r="B129" t="n">
         <v>32</v>
@@ -5059,8 +5569,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D129" t="n">
-        <v>1</v>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5079,13 +5591,15 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>ObjectId:("c962289660c2d61a7e8fe5cff0bd26e0d4af3")</t>
+          <t>ObjectId:('c962289660c2d61a7e8fe5cff0bd26e0d4af3')</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>129</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
       </c>
       <c r="B130" t="n">
         <v>31</v>
@@ -5095,8 +5609,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D130" t="n">
-        <v>1</v>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5115,13 +5631,15 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>ObjectId:("cb8ab859408703bc728d45cebdaee6585a3a3")</t>
+          <t>ObjectId:('cb8ab859408703bc728d45cebdaee6585a3a3')</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>130</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
       </c>
       <c r="B131" t="n">
         <v>72</v>
@@ -5131,8 +5649,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D131" t="n">
-        <v>1</v>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5151,13 +5671,15 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>ObjectId:("ab49f069b67f18a006ebea520aeba78903763")</t>
+          <t>ObjectId:('ab49f069b67f18a006ebea520aeba78903763')</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>131</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
       </c>
       <c r="B132" t="n">
         <v>23</v>
@@ -5167,8 +5689,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D132" t="n">
-        <v>1</v>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5187,13 +5711,15 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>ObjectId:("cd38a69905637bd02e11216cb4a160230af26")</t>
+          <t>ObjectId:('cd38a69905637bd02e11216cb4a160230af26')</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>132</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
       </c>
       <c r="B133" t="n">
         <v>56</v>
@@ -5203,8 +5729,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D133" t="n">
-        <v>0</v>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5223,13 +5751,15 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>ObjectId:("e4ee26a118a476fd7fb86f640ed9c4ae588c1")</t>
+          <t>ObjectId:('e4ee26a118a476fd7fb86f640ed9c4ae588c1')</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>133</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
       </c>
       <c r="B134" t="n">
         <v>82</v>
@@ -5239,8 +5769,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D134" t="n">
-        <v>0</v>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5259,13 +5791,15 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>ObjectId:("db023f3c1f4253f535905b66312f6ede79d67")</t>
+          <t>ObjectId:('db023f3c1f4253f535905b66312f6ede79d67')</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>134</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
       </c>
       <c r="B135" t="n">
         <v>76</v>
@@ -5275,8 +5809,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D135" t="n">
-        <v>1</v>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5295,13 +5831,15 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>ObjectId:("b4cdea7cf4121dfb6c30e6f83c85d1a3496ac")</t>
+          <t>ObjectId:('b4cdea7cf4121dfb6c30e6f83c85d1a3496ac')</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>135</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
       </c>
       <c r="B136" t="n">
         <v>72</v>
@@ -5311,8 +5849,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D136" t="n">
-        <v>0</v>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5331,13 +5871,15 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>ObjectId:("e3d19a8eb85e1db8ea4afaf4a6eb75e61d386")</t>
+          <t>ObjectId:('e3d19a8eb85e1db8ea4afaf4a6eb75e61d386')</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>136</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
       </c>
       <c r="B137" t="n">
         <v>26</v>
@@ -5347,8 +5889,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D137" t="n">
-        <v>0</v>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5367,13 +5911,15 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>ObjectId:("2fda746f59dce52ee646c2f594ef209bbaee7")</t>
+          <t>ObjectId:('2fda746f59dce52ee646c2f594ef209bbaee7')</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>137</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
       </c>
       <c r="B138" t="n">
         <v>40</v>
@@ -5383,8 +5929,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D138" t="n">
-        <v>1</v>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5403,13 +5951,15 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>ObjectId:("8faf6d893158d018ff67a3d8d46263a2284f1")</t>
+          <t>ObjectId:('8faf6d893158d018ff67a3d8d46263a2284f1')</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>138</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
       </c>
       <c r="B139" t="n">
         <v>85</v>
@@ -5419,8 +5969,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D139" t="n">
-        <v>1</v>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5439,13 +5991,15 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>ObjectId:("e5f33bb2551f75614546b0175962a3618bb75")</t>
+          <t>ObjectId:('e5f33bb2551f75614546b0175962a3618bb75')</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>139</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
       </c>
       <c r="B140" t="n">
         <v>24</v>
@@ -5455,8 +6009,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D140" t="n">
-        <v>0</v>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5475,13 +6031,15 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>ObjectId:("6643d0fe1755566dcb9ca561a1fa05f7f089b")</t>
+          <t>ObjectId:('6643d0fe1755566dcb9ca561a1fa05f7f089b')</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>140</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
       </c>
       <c r="B141" t="n">
         <v>84</v>
@@ -5491,8 +6049,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D141" t="n">
-        <v>1</v>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5511,13 +6071,15 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>ObjectId:("78482562f962e793e38a47a32eafac337d3a4")</t>
+          <t>ObjectId:('78482562f962e793e38a47a32eafac337d3a4')</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>141</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
       </c>
       <c r="B142" t="n">
         <v>46</v>
@@ -5527,8 +6089,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D142" t="n">
-        <v>1</v>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5547,13 +6111,15 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>ObjectId:("bc452d771c34a0a08c7bc6e59d357b2f4ca4a")</t>
+          <t>ObjectId:('bc452d771c34a0a08c7bc6e59d357b2f4ca4a')</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>142</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
       </c>
       <c r="B143" t="n">
         <v>64</v>
@@ -5563,8 +6129,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D143" t="n">
-        <v>1</v>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5583,13 +6151,15 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>ObjectId:("44677426d8b7eca60db428d9ff0b80e5600cc")</t>
+          <t>ObjectId:('44677426d8b7eca60db428d9ff0b80e5600cc')</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>143</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
       </c>
       <c r="B144" t="n">
         <v>32</v>
@@ -5599,8 +6169,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D144" t="n">
-        <v>1</v>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5619,13 +6191,15 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>ObjectId:("0420f4ebe2a230cf12580b5665a917ec5dae4")</t>
+          <t>ObjectId:('0420f4ebe2a230cf12580b5665a917ec5dae4')</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>144</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
       </c>
       <c r="B145" t="n">
         <v>20</v>
@@ -5635,8 +6209,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D145" t="n">
-        <v>0</v>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5655,13 +6231,15 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>ObjectId:("4590796de69c0088b402f49bc5068bfa039b5")</t>
+          <t>ObjectId:('4590796de69c0088b402f49bc5068bfa039b5')</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>145</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
       </c>
       <c r="B146" t="n">
         <v>86</v>
@@ -5671,8 +6249,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D146" t="n">
-        <v>1</v>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5691,13 +6271,15 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>ObjectId:("923346d64635355a3dd636a750adba7842817")</t>
+          <t>ObjectId:('923346d64635355a3dd636a750adba7842817')</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>146</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
       </c>
       <c r="B147" t="n">
         <v>20</v>
@@ -5707,8 +6289,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D147" t="n">
-        <v>0</v>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5727,13 +6311,15 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>ObjectId:("3841fad3f906455e2b3dfbca0bbb9a868010c")</t>
+          <t>ObjectId:('3841fad3f906455e2b3dfbca0bbb9a868010c')</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>147</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
       </c>
       <c r="B148" t="n">
         <v>96</v>
@@ -5743,8 +6329,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D148" t="n">
-        <v>1</v>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5763,13 +6351,15 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>ObjectId:("a202c52d748aa961dc054eed2f348ea312698")</t>
+          <t>ObjectId:('a202c52d748aa961dc054eed2f348ea312698')</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>148</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
       </c>
       <c r="B149" t="n">
         <v>26</v>
@@ -5779,8 +6369,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D149" t="n">
-        <v>1</v>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5799,13 +6391,15 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>ObjectId:("cdc7848e08aef6121d75f8d01ad16cb703aa5")</t>
+          <t>ObjectId:('cdc7848e08aef6121d75f8d01ad16cb703aa5')</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>149</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
       </c>
       <c r="B150" t="n">
         <v>27</v>
@@ -5815,8 +6409,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D150" t="n">
-        <v>0</v>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5835,13 +6431,15 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>ObjectId:("89985c2ae7f45cb2706a7baba652f01b6aa58")</t>
+          <t>ObjectId:('89985c2ae7f45cb2706a7baba652f01b6aa58')</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
-        <v>150</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
       </c>
       <c r="B151" t="n">
         <v>49</v>
@@ -5851,8 +6449,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D151" t="n">
-        <v>1</v>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5871,13 +6471,15 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>ObjectId:("3c17e177b96877ffd55bf67174748654fd3f6")</t>
+          <t>ObjectId:('3c17e177b96877ffd55bf67174748654fd3f6')</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
-        <v>151</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
       </c>
       <c r="B152" t="n">
         <v>61</v>
@@ -5887,8 +6489,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D152" t="n">
-        <v>1</v>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5907,13 +6511,15 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>ObjectId:("ec17c3bab526cab0c7e6336fe32d4221dd207")</t>
+          <t>ObjectId:('ec17c3bab526cab0c7e6336fe32d4221dd207')</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>152</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="B153" t="n">
         <v>75</v>
@@ -5923,8 +6529,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D153" t="n">
-        <v>0</v>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5943,13 +6551,15 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>ObjectId:("49eb985c007b7f0c8804cf5a3d43ecc0bdca8")</t>
+          <t>ObjectId:('49eb985c007b7f0c8804cf5a3d43ecc0bdca8')</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>153</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
       </c>
       <c r="B154" t="n">
         <v>54</v>
@@ -5959,8 +6569,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D154" t="n">
-        <v>1</v>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5979,13 +6591,15 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>ObjectId:("5586c98bb8ebe95cb12c343e7e81ddb868c41")</t>
+          <t>ObjectId:('5586c98bb8ebe95cb12c343e7e81ddb868c41')</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>154</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
       </c>
       <c r="B155" t="n">
         <v>56</v>
@@ -5995,8 +6609,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D155" t="n">
-        <v>1</v>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6015,13 +6631,15 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>ObjectId:("7c9a3d9a73966c2a7cf25eb17855a7e2eca06")</t>
+          <t>ObjectId:('7c9a3d9a73966c2a7cf25eb17855a7e2eca06')</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>155</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
       </c>
       <c r="B156" t="n">
         <v>18</v>
@@ -6031,8 +6649,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D156" t="n">
-        <v>0</v>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6051,13 +6671,15 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>ObjectId:("d7445de680ab9954333dd0079745e0bd44075")</t>
+          <t>ObjectId:('d7445de680ab9954333dd0079745e0bd44075')</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>156</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
       </c>
       <c r="B157" t="n">
         <v>52</v>
@@ -6067,8 +6689,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D157" t="n">
-        <v>0</v>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6087,13 +6711,15 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>ObjectId:("20418747712e249c0b497501930e2e4607a44")</t>
+          <t>ObjectId:('20418747712e249c0b497501930e2e4607a44')</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>157</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
       </c>
       <c r="B158" t="n">
         <v>54</v>
@@ -6103,8 +6729,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D158" t="n">
-        <v>1</v>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6123,13 +6751,15 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>ObjectId:("e0f587329f13bfd27549e75815495a1d9acc3")</t>
+          <t>ObjectId:('e0f587329f13bfd27549e75815495a1d9acc3')</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>158</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
       </c>
       <c r="B159" t="n">
         <v>90</v>
@@ -6139,8 +6769,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D159" t="n">
-        <v>0</v>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6159,13 +6791,15 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>ObjectId:("2da0749cb1acfbc6f8f62b66bdbe1701b7771")</t>
+          <t>ObjectId:('2da0749cb1acfbc6f8f62b66bdbe1701b7771')</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>159</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
       </c>
       <c r="B160" t="n">
         <v>58</v>
@@ -6175,8 +6809,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D160" t="n">
-        <v>1</v>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6195,13 +6831,15 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>ObjectId:("3c56ae7d276faf8a78de2d48e2b91e2f98331")</t>
+          <t>ObjectId:('3c56ae7d276faf8a78de2d48e2b91e2f98331')</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
-        <v>160</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
       </c>
       <c r="B161" t="n">
         <v>23</v>
@@ -6211,8 +6849,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D161" t="n">
-        <v>1</v>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6231,13 +6871,15 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>ObjectId:("6ad04dcf163b7de648467923ce0fb9187d36f")</t>
+          <t>ObjectId:('6ad04dcf163b7de648467923ce0fb9187d36f')</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
-        <v>161</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
       </c>
       <c r="B162" t="n">
         <v>30</v>
@@ -6247,8 +6889,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D162" t="n">
-        <v>1</v>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6267,13 +6911,15 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>ObjectId:("bf89ecc457d4725aafbf48ac3422e059d3ef6")</t>
+          <t>ObjectId:('bf89ecc457d4725aafbf48ac3422e059d3ef6')</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
-        <v>162</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
       </c>
       <c r="B163" t="n">
         <v>51</v>
@@ -6283,8 +6929,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D163" t="n">
-        <v>0</v>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6303,13 +6951,15 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>ObjectId:("699eac3c0ce4105bc61101335bd8667edc8b1")</t>
+          <t>ObjectId:('699eac3c0ce4105bc61101335bd8667edc8b1')</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
-        <v>163</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
       </c>
       <c r="B164" t="n">
         <v>49</v>
@@ -6319,8 +6969,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D164" t="n">
-        <v>1</v>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -6339,13 +6991,15 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>ObjectId:("1685cdc5178b5d5435586f9499c5b1351ef07")</t>
+          <t>ObjectId:('1685cdc5178b5d5435586f9499c5b1351ef07')</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
-        <v>164</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
       </c>
       <c r="B165" t="n">
         <v>50</v>
@@ -6355,8 +7009,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D165" t="n">
-        <v>1</v>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6375,13 +7031,15 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>ObjectId:("f587e96a2ec9c2b738bc8d9b95d9d2af6ec3e")</t>
+          <t>ObjectId:('f587e96a2ec9c2b738bc8d9b95d9d2af6ec3e')</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
-        <v>165</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
       </c>
       <c r="B166" t="n">
         <v>99</v>
@@ -6391,8 +7049,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D166" t="n">
-        <v>1</v>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6411,13 +7071,15 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>ObjectId:("7cdee83aa4500950937d0b91ee6c1c5dfa74d")</t>
+          <t>ObjectId:('7cdee83aa4500950937d0b91ee6c1c5dfa74d')</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
-        <v>166</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
       </c>
       <c r="B167" t="n">
         <v>68</v>
@@ -6427,8 +7089,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D167" t="n">
-        <v>1</v>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6447,13 +7111,15 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>ObjectId:("b924e96a7a7d45cd58178a5cb1fa9d581cf82")</t>
+          <t>ObjectId:('b924e96a7a7d45cd58178a5cb1fa9d581cf82')</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
-        <v>167</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
       </c>
       <c r="B168" t="n">
         <v>98</v>
@@ -6463,8 +7129,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D168" t="n">
-        <v>0</v>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -6483,13 +7151,15 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>ObjectId:("ef02d52830a8074c1432bf1c944dae34ad1c4")</t>
+          <t>ObjectId:('ef02d52830a8074c1432bf1c944dae34ad1c4')</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
-        <v>168</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
       </c>
       <c r="B169" t="n">
         <v>68</v>
@@ -6499,8 +7169,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D169" t="n">
-        <v>1</v>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6519,13 +7191,15 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>ObjectId:("06ae540ec709698430cb0ccbdc34b87d9bfc7")</t>
+          <t>ObjectId:('06ae540ec709698430cb0ccbdc34b87d9bfc7')</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
-        <v>169</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
       </c>
       <c r="B170" t="n">
         <v>76</v>
@@ -6535,8 +7209,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D170" t="n">
-        <v>1</v>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -6555,13 +7231,15 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>ObjectId:("8eb12ebea1b6e846e98e86172a42cd05b9855")</t>
+          <t>ObjectId:('8eb12ebea1b6e846e98e86172a42cd05b9855')</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
-        <v>170</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
       </c>
       <c r="B171" t="n">
         <v>40</v>
@@ -6571,8 +7249,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D171" t="n">
-        <v>1</v>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6591,13 +7271,15 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>ObjectId:("8956e7dc0cf2e0b5499907b2b0bb01b47693e")</t>
+          <t>ObjectId:('8956e7dc0cf2e0b5499907b2b0bb01b47693e')</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
-        <v>171</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
       </c>
       <c r="B172" t="n">
         <v>77</v>
@@ -6607,8 +7289,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D172" t="n">
-        <v>0</v>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6627,13 +7311,15 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>ObjectId:("98725dadaa74893a19583308bc32915a80515")</t>
+          <t>ObjectId:('98725dadaa74893a19583308bc32915a80515')</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
-        <v>172</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
       </c>
       <c r="B173" t="n">
         <v>78</v>
@@ -6643,8 +7329,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D173" t="n">
-        <v>0</v>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6663,13 +7351,15 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>ObjectId:("b6d7b2b80f95ac42c4331e35b815e32f8fda7")</t>
+          <t>ObjectId:('b6d7b2b80f95ac42c4331e35b815e32f8fda7')</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
-        <v>173</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
       </c>
       <c r="B174" t="n">
         <v>47</v>
@@ -6679,8 +7369,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>0</v>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6699,13 +7391,15 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>ObjectId:("00c9f493b230538808d6c2d00d4352dd968e4")</t>
+          <t>ObjectId:('00c9f493b230538808d6c2d00d4352dd968e4')</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
-        <v>174</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
       </c>
       <c r="B175" t="n">
         <v>85</v>
@@ -6715,8 +7409,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>1</v>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -6735,13 +7431,15 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>ObjectId:("d000742130344eac7f9ad9d9bd979945fcc1f")</t>
+          <t>ObjectId:('d000742130344eac7f9ad9d9bd979945fcc1f')</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
-        <v>175</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
       </c>
       <c r="B176" t="n">
         <v>54</v>
@@ -6751,8 +7449,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D176" t="n">
-        <v>1</v>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -6771,13 +7471,15 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>ObjectId:("9fd535def54be264b52c4df8317e60ae3a92f")</t>
+          <t>ObjectId:('9fd535def54be264b52c4df8317e60ae3a92f')</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
-        <v>176</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
       </c>
       <c r="B177" t="n">
         <v>38</v>
@@ -6787,8 +7489,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D177" t="n">
-        <v>0</v>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -6807,13 +7511,15 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>ObjectId:("522fa1e8c68d301e1411cc56de710681d69f0")</t>
+          <t>ObjectId:('522fa1e8c68d301e1411cc56de710681d69f0')</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
-        <v>177</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="B178" t="n">
         <v>34</v>
@@ -6823,8 +7529,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D178" t="n">
-        <v>0</v>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -6843,13 +7551,15 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>ObjectId:("5573720a59c3dcc63c9b6f0f839570aac483a")</t>
+          <t>ObjectId:('5573720a59c3dcc63c9b6f0f839570aac483a')</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
-        <v>178</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
       </c>
       <c r="B179" t="n">
         <v>46</v>
@@ -6859,8 +7569,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D179" t="n">
-        <v>1</v>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -6879,13 +7591,15 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>ObjectId:("0b56e77ab17ebde81bf509e928c2c40ac063e")</t>
+          <t>ObjectId:('0b56e77ab17ebde81bf509e928c2c40ac063e')</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
-        <v>179</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
       </c>
       <c r="B180" t="n">
         <v>62</v>
@@ -6895,8 +7609,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D180" t="n">
-        <v>1</v>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -6915,13 +7631,15 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>ObjectId:("e92e7a4169ebec0734f2a1e4674755495d852")</t>
+          <t>ObjectId:('e92e7a4169ebec0734f2a1e4674755495d852')</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
-        <v>180</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
       </c>
       <c r="B181" t="n">
         <v>100</v>
@@ -6931,8 +7649,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D181" t="n">
-        <v>0</v>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -6951,13 +7671,15 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>ObjectId:("0a2602ebf9d4774fc78100003f1d62abcb9c8")</t>
+          <t>ObjectId:('0a2602ebf9d4774fc78100003f1d62abcb9c8')</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
-        <v>181</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
       </c>
       <c r="B182" t="n">
         <v>78</v>
@@ -6967,8 +7689,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D182" t="n">
-        <v>1</v>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -6987,13 +7711,15 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>ObjectId:("5ab012516875d9ce7f979301191cf43e86c63")</t>
+          <t>ObjectId:('5ab012516875d9ce7f979301191cf43e86c63')</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
-        <v>182</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
       </c>
       <c r="B183" t="n">
         <v>72</v>
@@ -7003,8 +7729,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D183" t="n">
-        <v>0</v>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -7023,13 +7751,15 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>ObjectId:("998a3a57bcff9d28326e8c030cda5c133188c")</t>
+          <t>ObjectId:('998a3a57bcff9d28326e8c030cda5c133188c')</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
-        <v>183</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
       </c>
       <c r="B184" t="n">
         <v>22</v>
@@ -7039,8 +7769,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D184" t="n">
-        <v>0</v>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7059,13 +7791,15 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>ObjectId:("44d6248dd1298951423b641e304e7aa2a5aa4")</t>
+          <t>ObjectId:('44d6248dd1298951423b641e304e7aa2a5aa4')</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
-        <v>184</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
       </c>
       <c r="B185" t="n">
         <v>64</v>
@@ -7075,8 +7809,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D185" t="n">
-        <v>1</v>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7095,13 +7831,15 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>ObjectId:("56b0708f39bdc41598bf2efc0fcb123563d8d")</t>
+          <t>ObjectId:('56b0708f39bdc41598bf2efc0fcb123563d8d')</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
-        <v>185</v>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
       </c>
       <c r="B186" t="n">
         <v>71</v>
@@ -7111,8 +7849,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D186" t="n">
-        <v>1</v>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7131,13 +7871,15 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>ObjectId:("3aca9f1be29df189cafe8a3e979b2375e8e24")</t>
+          <t>ObjectId:('3aca9f1be29df189cafe8a3e979b2375e8e24')</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
-        <v>186</v>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
       </c>
       <c r="B187" t="n">
         <v>68</v>
@@ -7147,8 +7889,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D187" t="n">
-        <v>0</v>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7167,13 +7911,15 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>ObjectId:("e0e24914478164e31246c52e4824bdc171503")</t>
+          <t>ObjectId:('e0e24914478164e31246c52e4824bdc171503')</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
-        <v>187</v>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
       </c>
       <c r="B188" t="n">
         <v>89</v>
@@ -7183,8 +7929,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D188" t="n">
-        <v>1</v>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7203,13 +7951,15 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>ObjectId:("ab9bb228bc0a32aa9e07c074d8209cf851ebc")</t>
+          <t>ObjectId:('ab9bb228bc0a32aa9e07c074d8209cf851ebc')</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
-        <v>188</v>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
       </c>
       <c r="B189" t="n">
         <v>69</v>
@@ -7219,8 +7969,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D189" t="n">
-        <v>1</v>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -7239,13 +7991,15 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>ObjectId:("9dd0da50bbc8e64631822e9b6447bcd2f212e")</t>
+          <t>ObjectId:('9dd0da50bbc8e64631822e9b6447bcd2f212e')</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
-        <v>189</v>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
       </c>
       <c r="B190" t="n">
         <v>87</v>
@@ -7255,8 +8009,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D190" t="n">
-        <v>0</v>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -7275,13 +8031,15 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>ObjectId:("1f86efccb77011ee3958561fe16a1b82a96b5")</t>
+          <t>ObjectId:('1f86efccb77011ee3958561fe16a1b82a96b5')</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
-        <v>190</v>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
       </c>
       <c r="B191" t="n">
         <v>94</v>
@@ -7291,8 +8049,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D191" t="n">
-        <v>1</v>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -7311,13 +8071,15 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>ObjectId:("517ab997d74984d63277f2d4b0e4d81ceee59")</t>
+          <t>ObjectId:('517ab997d74984d63277f2d4b0e4d81ceee59')</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
-        <v>191</v>
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
       </c>
       <c r="B192" t="n">
         <v>34</v>
@@ -7327,8 +8089,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D192" t="n">
-        <v>0</v>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -7347,13 +8111,15 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>ObjectId:("23aeac036fc20cbd6c63f46e945439fd79c55")</t>
+          <t>ObjectId:('23aeac036fc20cbd6c63f46e945439fd79c55')</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
-        <v>192</v>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
       </c>
       <c r="B193" t="n">
         <v>73</v>
@@ -7363,8 +8129,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D193" t="n">
-        <v>1</v>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -7383,13 +8151,15 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>ObjectId:("df714662a91c67c6e4cf0f13ca2a7c0a6f9d7")</t>
+          <t>ObjectId:('df714662a91c67c6e4cf0f13ca2a7c0a6f9d7')</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
-        <v>193</v>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
       </c>
       <c r="B194" t="n">
         <v>87</v>
@@ -7399,8 +8169,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D194" t="n">
-        <v>0</v>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7419,13 +8191,15 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>ObjectId:("55ebf9bda3ba9c1edbdbbdf6a3a1c6c5e4651")</t>
+          <t>ObjectId:('55ebf9bda3ba9c1edbdbbdf6a3a1c6c5e4651')</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
-        <v>194</v>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
       </c>
       <c r="B195" t="n">
         <v>36</v>
@@ -7435,8 +8209,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D195" t="n">
-        <v>0</v>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -7455,13 +8231,15 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>ObjectId:("4b9e304ee2ac6c21ba8d3d3fc74c9c0422b33")</t>
+          <t>ObjectId:('4b9e304ee2ac6c21ba8d3d3fc74c9c0422b33')</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
-        <v>195</v>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
       </c>
       <c r="B196" t="n">
         <v>34</v>
@@ -7471,8 +8249,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D196" t="n">
-        <v>1</v>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7491,13 +8271,15 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>ObjectId:("bc5526d5a5f500997cc635b0094a43205f2a9")</t>
+          <t>ObjectId:('bc5526d5a5f500997cc635b0094a43205f2a9')</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
-        <v>196</v>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
       </c>
       <c r="B197" t="n">
         <v>37</v>
@@ -7507,8 +8289,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D197" t="n">
-        <v>1</v>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7527,13 +8311,15 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>ObjectId:("658d74c943da7b53adcf6e0b7c2e675f1dc47")</t>
+          <t>ObjectId:('658d74c943da7b53adcf6e0b7c2e675f1dc47')</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
-        <v>197</v>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
       </c>
       <c r="B198" t="n">
         <v>71</v>
@@ -7543,8 +8329,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>0</v>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -7563,13 +8351,15 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>ObjectId:("2542025fb97f09d41d21bba9a6d82e3950134")</t>
+          <t>ObjectId:('2542025fb97f09d41d21bba9a6d82e3950134')</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
-        <v>198</v>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
       </c>
       <c r="B199" t="n">
         <v>98</v>
@@ -7579,8 +8369,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D199" t="n">
-        <v>1</v>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7599,13 +8391,15 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>ObjectId:("c20bba67a2390405c7f7422832791397c948c")</t>
+          <t>ObjectId:('c20bba67a2390405c7f7422832791397c948c')</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
-        <v>199</v>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
       </c>
       <c r="B200" t="n">
         <v>37</v>
@@ -7615,8 +8409,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D200" t="n">
-        <v>1</v>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7635,13 +8431,15 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>ObjectId:("ea7cf1ebd7bf4165c8b4abd077a34e39ff8e1")</t>
+          <t>ObjectId:('ea7cf1ebd7bf4165c8b4abd077a34e39ff8e1')</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
-        <v>200</v>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
       </c>
       <c r="B201" t="n">
         <v>82</v>
@@ -7651,8 +8449,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D201" t="n">
-        <v>1</v>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -7671,13 +8471,15 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>ObjectId:("f0e336dc1ed66868ec3a2ef4d8b5e1662bb04")</t>
+          <t>ObjectId:('f0e336dc1ed66868ec3a2ef4d8b5e1662bb04')</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
-        <v>201</v>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
       </c>
       <c r="B202" t="n">
         <v>56</v>
@@ -7687,8 +8489,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D202" t="n">
-        <v>1</v>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -7707,13 +8511,15 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>ObjectId:("86d1e55be7c52197bfa03679adb59ea208026")</t>
+          <t>ObjectId:('86d1e55be7c52197bfa03679adb59ea208026')</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
-        <v>202</v>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
       </c>
       <c r="B203" t="n">
         <v>95</v>
@@ -7723,8 +8529,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D203" t="n">
-        <v>0</v>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -7743,13 +8551,15 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>ObjectId:("79f0eeebb912fdb933743ce8e8ed1cf5b80bf")</t>
+          <t>ObjectId:('79f0eeebb912fdb933743ce8e8ed1cf5b80bf')</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
-        <v>203</v>
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
       </c>
       <c r="B204" t="n">
         <v>50</v>
@@ -7759,8 +8569,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0</v>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -7779,13 +8591,15 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>ObjectId:("cfa7de9a6c7e37004f246a40b2f4a84b0e474")</t>
+          <t>ObjectId:('cfa7de9a6c7e37004f246a40b2f4a84b0e474')</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
-        <v>204</v>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
       </c>
       <c r="B205" t="n">
         <v>28</v>
@@ -7795,8 +8609,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D205" t="n">
-        <v>1</v>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -7815,13 +8631,15 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>ObjectId:("311620701e7e33507d01e5f3f4b240635ffa9")</t>
+          <t>ObjectId:('311620701e7e33507d01e5f3f4b240635ffa9')</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
-        <v>205</v>
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
       </c>
       <c r="B206" t="n">
         <v>65</v>
@@ -7831,8 +8649,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D206" t="n">
-        <v>1</v>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -7851,13 +8671,15 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>ObjectId:("dd779d3d911948ed7430f4e2693b948f3edec")</t>
+          <t>ObjectId:('dd779d3d911948ed7430f4e2693b948f3edec')</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
-        <v>206</v>
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
       </c>
       <c r="B207" t="n">
         <v>81</v>
@@ -7867,8 +8689,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D207" t="n">
-        <v>0</v>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -7887,13 +8711,15 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>ObjectId:("c82dda052e592af19b62f7ec7ea421703f179")</t>
+          <t>ObjectId:('c82dda052e592af19b62f7ec7ea421703f179')</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
-        <v>207</v>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
       </c>
       <c r="B208" t="n">
         <v>81</v>
@@ -7903,8 +8729,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D208" t="n">
-        <v>0</v>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -7923,13 +8751,15 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>ObjectId:("3d79e7d27a35447ebcaf33b34fa837569b856")</t>
+          <t>ObjectId:('3d79e7d27a35447ebcaf33b34fa837569b856')</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
-        <v>208</v>
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
       </c>
       <c r="B209" t="n">
         <v>76</v>
@@ -7939,8 +8769,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D209" t="n">
-        <v>1</v>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -7959,13 +8791,15 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>ObjectId:("61ecaef49f43a37089a84afb2e83967a2ba12")</t>
+          <t>ObjectId:('61ecaef49f43a37089a84afb2e83967a2ba12')</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
-        <v>209</v>
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
       </c>
       <c r="B210" t="n">
         <v>80</v>
@@ -7975,8 +8809,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>1</v>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -7995,13 +8831,15 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>ObjectId:("90b4a3ad455e3e050198dd5221b26c24bb33c")</t>
+          <t>ObjectId:('90b4a3ad455e3e050198dd5221b26c24bb33c')</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
-        <v>210</v>
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
       </c>
       <c r="B211" t="n">
         <v>39</v>
@@ -8011,8 +8849,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -8031,13 +8871,15 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>ObjectId:("8055d9cd29767f340316a9308337d9ce33776")</t>
+          <t>ObjectId:('8055d9cd29767f340316a9308337d9ce33776')</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
-        <v>211</v>
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
       </c>
       <c r="B212" t="n">
         <v>59</v>
@@ -8047,8 +8889,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D212" t="n">
-        <v>1</v>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -8067,13 +8911,15 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>ObjectId:("fe52d8a5df3dae2fa372cf6484a7c0e7a29e6")</t>
+          <t>ObjectId:('fe52d8a5df3dae2fa372cf6484a7c0e7a29e6')</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
-        <v>212</v>
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
       </c>
       <c r="B213" t="n">
         <v>24</v>
@@ -8083,8 +8929,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D213" t="n">
-        <v>1</v>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8103,13 +8951,15 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>ObjectId:("707e302c1b9ade6acc692a1171cad6f7e6aca")</t>
+          <t>ObjectId:('707e302c1b9ade6acc692a1171cad6f7e6aca')</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
-        <v>213</v>
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
       </c>
       <c r="B214" t="n">
         <v>54</v>
@@ -8119,8 +8969,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D214" t="n">
-        <v>1</v>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -8139,13 +8991,15 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>ObjectId:("8f2c98b4a97215721de293a1c036727a11af7")</t>
+          <t>ObjectId:('8f2c98b4a97215721de293a1c036727a11af7')</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
-        <v>214</v>
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
       </c>
       <c r="B215" t="n">
         <v>56</v>
@@ -8155,8 +9009,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D215" t="n">
-        <v>1</v>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -8175,13 +9031,15 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>ObjectId:("89fa07817c12b0b3a7d815cab427e6f83441d")</t>
+          <t>ObjectId:('89fa07817c12b0b3a7d815cab427e6f83441d')</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
-        <v>215</v>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
       </c>
       <c r="B216" t="n">
         <v>27</v>
@@ -8191,8 +9049,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D216" t="n">
-        <v>0</v>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -8211,13 +9071,15 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>ObjectId:("364b339b2cbe45f98baa0bc546b578fa0d1fd")</t>
+          <t>ObjectId:('364b339b2cbe45f98baa0bc546b578fa0d1fd')</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
-        <v>216</v>
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
       </c>
       <c r="B217" t="n">
         <v>56</v>
@@ -8227,8 +9089,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D217" t="n">
-        <v>1</v>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -8247,13 +9111,15 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>ObjectId:("b08701d1b92473c1cc82c19e30020fe455902")</t>
+          <t>ObjectId:('b08701d1b92473c1cc82c19e30020fe455902')</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
-        <v>217</v>
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
       </c>
       <c r="B218" t="n">
         <v>79</v>
@@ -8263,8 +9129,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D218" t="n">
-        <v>0</v>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -8283,13 +9151,15 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>ObjectId:("d21575f616c8752b92cdc80fd6c9784763b72")</t>
+          <t>ObjectId:('d21575f616c8752b92cdc80fd6c9784763b72')</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
-        <v>218</v>
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
       </c>
       <c r="B219" t="n">
         <v>56</v>
@@ -8299,8 +9169,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D219" t="n">
-        <v>1</v>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -8319,13 +9191,15 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>ObjectId:("3582eaa55c4984411ff32fd18883deea8c292")</t>
+          <t>ObjectId:('3582eaa55c4984411ff32fd18883deea8c292')</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
-        <v>219</v>
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
       </c>
       <c r="B220" t="n">
         <v>80</v>
@@ -8335,8 +9209,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D220" t="n">
-        <v>0</v>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -8355,13 +9231,15 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>ObjectId:("daf9fa1160ed4cada6b154d6d704d282f219a")</t>
+          <t>ObjectId:('daf9fa1160ed4cada6b154d6d704d282f219a')</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
-        <v>220</v>
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
       </c>
       <c r="B221" t="n">
         <v>40</v>
@@ -8371,8 +9249,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D221" t="n">
-        <v>1</v>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -8391,13 +9271,15 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>ObjectId:("76b210331fca83e436e88d5cf297d3bbc8bb0")</t>
+          <t>ObjectId:('76b210331fca83e436e88d5cf297d3bbc8bb0')</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
-        <v>221</v>
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
       </c>
       <c r="B222" t="n">
         <v>82</v>
@@ -8407,8 +9289,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D222" t="n">
-        <v>0</v>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -8427,13 +9311,15 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>ObjectId:("9a1f9f92c8462167db4bf82da51f89b01443d")</t>
+          <t>ObjectId:('9a1f9f92c8462167db4bf82da51f89b01443d')</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
-        <v>222</v>
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
       </c>
       <c r="B223" t="n">
         <v>73</v>
@@ -8443,8 +9329,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D223" t="n">
-        <v>0</v>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -8463,13 +9351,15 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>ObjectId:("44c51492ee607dc0aefbf048cd8837c94ca98")</t>
+          <t>ObjectId:('44c51492ee607dc0aefbf048cd8837c94ca98')</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
-        <v>223</v>
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
       </c>
       <c r="B224" t="n">
         <v>64</v>
@@ -8479,8 +9369,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D224" t="n">
-        <v>1</v>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -8499,13 +9391,15 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>ObjectId:("f2d5116dda2b4bac0d414b3443736453a56cc")</t>
+          <t>ObjectId:('f2d5116dda2b4bac0d414b3443736453a56cc')</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
-        <v>224</v>
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
       </c>
       <c r="B225" t="n">
         <v>70</v>
@@ -8515,8 +9409,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D225" t="n">
-        <v>1</v>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -8535,13 +9431,15 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>ObjectId:("72f257d8fa70c481b73e355b6ed07123d0eff")</t>
+          <t>ObjectId:('72f257d8fa70c481b73e355b6ed07123d0eff')</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
-        <v>225</v>
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
       </c>
       <c r="B226" t="n">
         <v>86</v>
@@ -8551,8 +9449,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D226" t="n">
-        <v>1</v>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -8571,13 +9471,15 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>ObjectId:("a30d309527566d13c2f845553cbbcd797bc98")</t>
+          <t>ObjectId:('a30d309527566d13c2f845553cbbcd797bc98')</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
-        <v>226</v>
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
       </c>
       <c r="B227" t="n">
         <v>30</v>
@@ -8587,8 +9489,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D227" t="n">
-        <v>0</v>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -8607,13 +9511,15 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>ObjectId:("45f35d5ae72e86ebe8d09dc528dca3dbda742")</t>
+          <t>ObjectId:('45f35d5ae72e86ebe8d09dc528dca3dbda742')</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
-        <v>227</v>
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
       </c>
       <c r="B228" t="n">
         <v>71</v>
@@ -8623,8 +9529,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D228" t="n">
-        <v>0</v>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -8643,13 +9551,15 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>ObjectId:("0fdda1140e9efa6812fa06e7dacc81214af03")</t>
+          <t>ObjectId:('0fdda1140e9efa6812fa06e7dacc81214af03')</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
-        <v>228</v>
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
       </c>
       <c r="B229" t="n">
         <v>94</v>
@@ -8659,8 +9569,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D229" t="n">
-        <v>0</v>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -8679,13 +9591,15 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>ObjectId:("09adedd45069153b97e49d3ade5decf528e90")</t>
+          <t>ObjectId:('09adedd45069153b97e49d3ade5decf528e90')</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
-        <v>229</v>
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
       </c>
       <c r="B230" t="n">
         <v>19</v>
@@ -8695,8 +9609,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D230" t="n">
-        <v>0</v>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -8715,13 +9631,15 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>ObjectId:("d560ac348b6fe1bada0dc9b34de01a9509446")</t>
+          <t>ObjectId:('d560ac348b6fe1bada0dc9b34de01a9509446')</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
-        <v>230</v>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
       </c>
       <c r="B231" t="n">
         <v>98</v>
@@ -8731,8 +9649,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D231" t="n">
-        <v>0</v>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -8751,13 +9671,15 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>ObjectId:("bcddad0bba59627f4c76e8817853006334283")</t>
+          <t>ObjectId:('bcddad0bba59627f4c76e8817853006334283')</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
-        <v>231</v>
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
       </c>
       <c r="B232" t="n">
         <v>24</v>
@@ -8767,8 +9689,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D232" t="n">
-        <v>1</v>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -8787,13 +9711,15 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>ObjectId:("1e0bd3ea658284e27538167d127404f1f10ec")</t>
+          <t>ObjectId:('1e0bd3ea658284e27538167d127404f1f10ec')</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
-        <v>232</v>
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
       </c>
       <c r="B233" t="n">
         <v>39</v>
@@ -8803,8 +9729,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D233" t="n">
-        <v>1</v>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -8823,13 +9751,15 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>ObjectId:("7b885e61a3c52877afdf1d2551a8728616049")</t>
+          <t>ObjectId:('7b885e61a3c52877afdf1d2551a8728616049')</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
-        <v>233</v>
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
       </c>
       <c r="B234" t="n">
         <v>62</v>
@@ -8839,8 +9769,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D234" t="n">
-        <v>1</v>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -8859,13 +9791,15 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>ObjectId:("2c606ba50a8c1657644ee47738024efe5a579")</t>
+          <t>ObjectId:('2c606ba50a8c1657644ee47738024efe5a579')</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
-        <v>234</v>
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
       </c>
       <c r="B235" t="n">
         <v>58</v>
@@ -8875,8 +9809,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D235" t="n">
-        <v>1</v>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -8895,13 +9831,15 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>ObjectId:("d465c994f1d074922cd64634db4705f7b2cb0")</t>
+          <t>ObjectId:('d465c994f1d074922cd64634db4705f7b2cb0')</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
-        <v>235</v>
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
       </c>
       <c r="B236" t="n">
         <v>97</v>
@@ -8911,8 +9849,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D236" t="n">
-        <v>1</v>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -8931,13 +9871,15 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>ObjectId:("b50a3ca0ad9be39e88f3f4b6caa43dd901076")</t>
+          <t>ObjectId:('b50a3ca0ad9be39e88f3f4b6caa43dd901076')</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
-        <v>236</v>
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
       </c>
       <c r="B237" t="n">
         <v>76</v>
@@ -8947,8 +9889,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D237" t="n">
-        <v>0</v>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -8967,13 +9911,15 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>ObjectId:("ceabdd35edc15267aaef9e309c46f6369c6bf")</t>
+          <t>ObjectId:('ceabdd35edc15267aaef9e309c46f6369c6bf')</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
-        <v>237</v>
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
       </c>
       <c r="B238" t="n">
         <v>21</v>
@@ -8983,8 +9929,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D238" t="n">
-        <v>1</v>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -9003,13 +9951,15 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>ObjectId:("9ee09130eb77224ff2b1f9a5c5073615f3d88")</t>
+          <t>ObjectId:('9ee09130eb77224ff2b1f9a5c5073615f3d88')</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
-        <v>238</v>
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
       </c>
       <c r="B239" t="n">
         <v>94</v>
@@ -9019,8 +9969,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D239" t="n">
-        <v>0</v>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -9039,13 +9991,15 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>ObjectId:("20a8895723dee5980df5c3c68c1af96da4e75")</t>
+          <t>ObjectId:('20a8895723dee5980df5c3c68c1af96da4e75')</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
-        <v>239</v>
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
       </c>
       <c r="B240" t="n">
         <v>25</v>
@@ -9055,8 +10009,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D240" t="n">
-        <v>1</v>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -9075,13 +10031,15 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>ObjectId:("f577036dbac20f5c80d93b3ba7932d4aa89a5")</t>
+          <t>ObjectId:('f577036dbac20f5c80d93b3ba7932d4aa89a5')</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
-        <v>240</v>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
       </c>
       <c r="B241" t="n">
         <v>86</v>
@@ -9091,8 +10049,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D241" t="n">
-        <v>0</v>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -9111,13 +10071,15 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>ObjectId:("8247a78ba473127c867a293e1c1a5b126aaba")</t>
+          <t>ObjectId:('8247a78ba473127c867a293e1c1a5b126aaba')</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
-        <v>241</v>
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
       </c>
       <c r="B242" t="n">
         <v>45</v>
@@ -9127,8 +10089,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D242" t="n">
-        <v>1</v>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -9147,13 +10111,15 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>ObjectId:("ed7226c43a8486e1d07019b99c78ccd63ca4b")</t>
+          <t>ObjectId:('ed7226c43a8486e1d07019b99c78ccd63ca4b')</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
-        <v>242</v>
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
       </c>
       <c r="B243" t="n">
         <v>84</v>
@@ -9163,8 +10129,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D243" t="n">
-        <v>0</v>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -9183,13 +10151,15 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>ObjectId:("cc3db0ba2a03ac9ee57a2bfae23d791477d70")</t>
+          <t>ObjectId:('cc3db0ba2a03ac9ee57a2bfae23d791477d70')</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
-        <v>243</v>
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
       </c>
       <c r="B244" t="n">
         <v>62</v>
@@ -9199,8 +10169,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D244" t="n">
-        <v>1</v>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -9219,13 +10191,15 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>ObjectId:("72c0c37c47ca94f55d9fc4b5a764de9f38b37")</t>
+          <t>ObjectId:('72c0c37c47ca94f55d9fc4b5a764de9f38b37')</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
-        <v>244</v>
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
       </c>
       <c r="B245" t="n">
         <v>40</v>
@@ -9235,8 +10209,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D245" t="n">
-        <v>1</v>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -9255,13 +10231,15 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>ObjectId:("8e0ed010e5ded0f226d73ff07f338a20e15be")</t>
+          <t>ObjectId:('8e0ed010e5ded0f226d73ff07f338a20e15be')</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
-        <v>245</v>
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
       </c>
       <c r="B246" t="n">
         <v>40</v>
@@ -9271,8 +10249,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D246" t="n">
-        <v>1</v>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -9291,13 +10271,15 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>ObjectId:("528e1873628e35727a9ab2460829c0bf7c37a")</t>
+          <t>ObjectId:('528e1873628e35727a9ab2460829c0bf7c37a')</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
-        <v>246</v>
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
       </c>
       <c r="B247" t="n">
         <v>88</v>
@@ -9307,8 +10289,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D247" t="n">
-        <v>1</v>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -9327,13 +10311,15 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>ObjectId:("b77d6356843c10f258b2db96d4f0e35cf1b66")</t>
+          <t>ObjectId:('b77d6356843c10f258b2db96d4f0e35cf1b66')</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
-        <v>247</v>
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
       </c>
       <c r="B248" t="n">
         <v>61</v>
@@ -9343,8 +10329,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D248" t="n">
-        <v>1</v>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9363,13 +10351,15 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>ObjectId:("f0233e45db8bcf5692b936e7d01cd177e4b72")</t>
+          <t>ObjectId:('f0233e45db8bcf5692b936e7d01cd177e4b72')</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
-        <v>248</v>
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
       </c>
       <c r="B249" t="n">
         <v>46</v>
@@ -9379,8 +10369,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D249" t="n">
-        <v>0</v>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -9399,13 +10391,15 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>ObjectId:("94fe6820f6a69dfc046faf072d09f82f9db3a")</t>
+          <t>ObjectId:('94fe6820f6a69dfc046faf072d09f82f9db3a')</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
-        <v>249</v>
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
       </c>
       <c r="B250" t="n">
         <v>63</v>
@@ -9415,8 +10409,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D250" t="n">
-        <v>0</v>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9435,13 +10431,15 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>ObjectId:("71e07b398e1169b6aa72ff94738f277eb27f4")</t>
+          <t>ObjectId:('71e07b398e1169b6aa72ff94738f277eb27f4')</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
-        <v>250</v>
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
       </c>
       <c r="B251" t="n">
         <v>29</v>
@@ -9451,8 +10449,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D251" t="n">
-        <v>0</v>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -9471,13 +10471,15 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>ObjectId:("0d162c6fbc24761c8e2356c18b8733de9d44d")</t>
+          <t>ObjectId:('0d162c6fbc24761c8e2356c18b8733de9d44d')</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
-        <v>251</v>
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
       </c>
       <c r="B252" t="n">
         <v>24</v>
@@ -9487,8 +10489,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D252" t="n">
-        <v>0</v>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9507,13 +10511,15 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>ObjectId:("62275d8d0b63cc3d7c12c6d380e982e640325")</t>
+          <t>ObjectId:('62275d8d0b63cc3d7c12c6d380e982e640325')</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
-        <v>252</v>
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
       </c>
       <c r="B253" t="n">
         <v>27</v>
@@ -9523,8 +10529,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D253" t="n">
-        <v>1</v>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -9543,13 +10551,15 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>ObjectId:("1b38bcf51cfc6e5e7c188a66adf59cf0385b0")</t>
+          <t>ObjectId:('1b38bcf51cfc6e5e7c188a66adf59cf0385b0')</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
-        <v>253</v>
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
       </c>
       <c r="B254" t="n">
         <v>22</v>
@@ -9559,8 +10569,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D254" t="n">
-        <v>0</v>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -9579,13 +10591,15 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>ObjectId:("7e22148e859141566553206fed8df2c7d3159")</t>
+          <t>ObjectId:('7e22148e859141566553206fed8df2c7d3159')</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
-        <v>254</v>
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
       </c>
       <c r="B255" t="n">
         <v>47</v>
@@ -9595,8 +10609,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D255" t="n">
-        <v>0</v>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -9615,13 +10631,15 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>ObjectId:("2eb5ece7d469d9be072ef77054fb3bf980f3e")</t>
+          <t>ObjectId:('2eb5ece7d469d9be072ef77054fb3bf980f3e')</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
-        <v>255</v>
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
       </c>
       <c r="B256" t="n">
         <v>87</v>
@@ -9631,8 +10649,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D256" t="n">
-        <v>0</v>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -9651,13 +10671,15 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>ObjectId:("d08f6b4662fd3be4e1a71c5e5027ed69640ea")</t>
+          <t>ObjectId:('d08f6b4662fd3be4e1a71c5e5027ed69640ea')</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
-        <v>256</v>
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
       </c>
       <c r="B257" t="n">
         <v>19</v>
@@ -9667,8 +10689,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D257" t="n">
-        <v>1</v>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -9687,13 +10711,15 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>ObjectId:("a9902e6b893f91555ef6a3abbaf37b5bc23a7")</t>
+          <t>ObjectId:('a9902e6b893f91555ef6a3abbaf37b5bc23a7')</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
-        <v>257</v>
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
       </c>
       <c r="B258" t="n">
         <v>68</v>
@@ -9703,8 +10729,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D258" t="n">
-        <v>0</v>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -9723,13 +10751,15 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>ObjectId:("1cb86f374e9ee05abc15697ea834a6d7f745b")</t>
+          <t>ObjectId:('1cb86f374e9ee05abc15697ea834a6d7f745b')</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
-        <v>258</v>
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
       </c>
       <c r="B259" t="n">
         <v>38</v>
@@ -9739,8 +10769,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D259" t="n">
-        <v>1</v>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -9759,13 +10791,15 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>ObjectId:("c37e7f0cf6c9a49605518e0e490f8c071eb41")</t>
+          <t>ObjectId:('c37e7f0cf6c9a49605518e0e490f8c071eb41')</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
-        <v>259</v>
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
       </c>
       <c r="B260" t="n">
         <v>81</v>
@@ -9775,8 +10809,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D260" t="n">
-        <v>0</v>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -9795,13 +10831,15 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>ObjectId:("8d5c8714c83247b0283169182f104fa2c17c6")</t>
+          <t>ObjectId:('8d5c8714c83247b0283169182f104fa2c17c6')</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
-        <v>260</v>
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
       </c>
       <c r="B261" t="n">
         <v>61</v>
@@ -9811,8 +10849,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D261" t="n">
-        <v>0</v>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -9831,13 +10871,15 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>ObjectId:("b1db21e0398654a642ceec7790a9900dcb785")</t>
+          <t>ObjectId:('b1db21e0398654a642ceec7790a9900dcb785')</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
-        <v>261</v>
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
       </c>
       <c r="B262" t="n">
         <v>58</v>
@@ -9847,8 +10889,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D262" t="n">
-        <v>1</v>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -9867,13 +10911,15 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>ObjectId:("9c7eb5f1594619886b5c038821dbbf2c08e2f")</t>
+          <t>ObjectId:('9c7eb5f1594619886b5c038821dbbf2c08e2f')</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
-        <v>262</v>
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
       </c>
       <c r="B263" t="n">
         <v>47</v>
@@ -9883,8 +10929,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D263" t="n">
-        <v>0</v>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -9903,13 +10951,15 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>ObjectId:("06ca6b5e9c80bd4d132f5eaad3546d8278db6")</t>
+          <t>ObjectId:('06ca6b5e9c80bd4d132f5eaad3546d8278db6')</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
-        <v>263</v>
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
       </c>
       <c r="B264" t="n">
         <v>77</v>
@@ -9919,8 +10969,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D264" t="n">
-        <v>1</v>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -9939,13 +10991,15 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>ObjectId:("521ab0207b46efe871e1313438800ccf4f34b")</t>
+          <t>ObjectId:('521ab0207b46efe871e1313438800ccf4f34b')</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
-        <v>264</v>
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
       </c>
       <c r="B265" t="n">
         <v>27</v>
@@ -9955,8 +11009,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D265" t="n">
-        <v>0</v>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -9975,13 +11031,15 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>ObjectId:("2ee52ff64b227eff7088645552d2cd88c9637")</t>
+          <t>ObjectId:('2ee52ff64b227eff7088645552d2cd88c9637')</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
-        <v>265</v>
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
       </c>
       <c r="B266" t="n">
         <v>45</v>
@@ -9991,8 +11049,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D266" t="n">
-        <v>0</v>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -10011,13 +11071,15 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>ObjectId:("6c6e2575225855cc12d31d2b97ca9439dde14")</t>
+          <t>ObjectId:('6c6e2575225855cc12d31d2b97ca9439dde14')</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
-        <v>266</v>
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
       </c>
       <c r="B267" t="n">
         <v>64</v>
@@ -10027,8 +11089,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D267" t="n">
-        <v>0</v>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -10047,13 +11111,15 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>ObjectId:("3a170b6ddcedc457150e47c5f61b9f0926103")</t>
+          <t>ObjectId:('3a170b6ddcedc457150e47c5f61b9f0926103')</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
-        <v>267</v>
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
       </c>
       <c r="B268" t="n">
         <v>72</v>
@@ -10063,8 +11129,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D268" t="n">
-        <v>1</v>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -10083,13 +11151,15 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>ObjectId:("aa7a1cad3b4756073d48b435be80b263676ec")</t>
+          <t>ObjectId:('aa7a1cad3b4756073d48b435be80b263676ec')</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
-        <v>268</v>
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
       </c>
       <c r="B269" t="n">
         <v>20</v>
@@ -10099,8 +11169,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D269" t="n">
-        <v>0</v>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -10119,13 +11191,15 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>ObjectId:("7e41e45d03baa198d26e17a4c9da5a4a3586a")</t>
+          <t>ObjectId:('7e41e45d03baa198d26e17a4c9da5a4a3586a')</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
-        <v>269</v>
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
       </c>
       <c r="B270" t="n">
         <v>64</v>
@@ -10135,8 +11209,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D270" t="n">
-        <v>0</v>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -10155,13 +11231,15 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>ObjectId:("ef4b48a6a9cb332609751dcef016a6d595bc8")</t>
+          <t>ObjectId:('ef4b48a6a9cb332609751dcef016a6d595bc8')</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
-        <v>270</v>
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
       </c>
       <c r="B271" t="n">
         <v>42</v>
@@ -10171,8 +11249,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D271" t="n">
-        <v>0</v>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -10191,13 +11271,15 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>ObjectId:("6fa9cfa3de5255d29fbece33ebf6ee30818d0")</t>
+          <t>ObjectId:('6fa9cfa3de5255d29fbece33ebf6ee30818d0')</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="n">
-        <v>271</v>
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
       </c>
       <c r="B272" t="n">
         <v>64</v>
@@ -10207,8 +11289,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D272" t="n">
-        <v>1</v>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -10227,13 +11311,15 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>ObjectId:("60f4335228408bb751cf50d345a4b92446836")</t>
+          <t>ObjectId:('60f4335228408bb751cf50d345a4b92446836')</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
-        <v>272</v>
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
       </c>
       <c r="B273" t="n">
         <v>54</v>
@@ -10243,8 +11329,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D273" t="n">
-        <v>1</v>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -10263,13 +11351,15 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>ObjectId:("7032c04bb5c93787f738dec686511bfb239e1")</t>
+          <t>ObjectId:('7032c04bb5c93787f738dec686511bfb239e1')</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
-        <v>273</v>
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
       </c>
       <c r="B274" t="n">
         <v>94</v>
@@ -10279,8 +11369,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D274" t="n">
-        <v>1</v>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -10299,13 +11391,15 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>ObjectId:("6fac975f8366536ac76b49e3d025f7f7d70ac")</t>
+          <t>ObjectId:('6fac975f8366536ac76b49e3d025f7f7d70ac')</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
-        <v>274</v>
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
       </c>
       <c r="B275" t="n">
         <v>41</v>
@@ -10315,8 +11409,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D275" t="n">
-        <v>0</v>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -10335,13 +11431,15 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>ObjectId:("ec1a8dda42baa9e5986195c9d1dab6b7dd754")</t>
+          <t>ObjectId:('ec1a8dda42baa9e5986195c9d1dab6b7dd754')</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
-        <v>275</v>
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
       </c>
       <c r="B276" t="n">
         <v>55</v>
@@ -10351,8 +11449,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D276" t="n">
-        <v>0</v>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -10371,13 +11471,15 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>ObjectId:("740e1ea5036d267ee611bbede158bc76e0a6c")</t>
+          <t>ObjectId:('740e1ea5036d267ee611bbede158bc76e0a6c')</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="n">
-        <v>276</v>
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
       </c>
       <c r="B277" t="n">
         <v>41</v>
@@ -10387,8 +11489,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D277" t="n">
-        <v>0</v>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -10407,13 +11511,15 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>ObjectId:("28894be17745b6c7cc4beb33cb6ffcfe8aae0")</t>
+          <t>ObjectId:('28894be17745b6c7cc4beb33cb6ffcfe8aae0')</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="n">
-        <v>277</v>
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
       </c>
       <c r="B278" t="n">
         <v>30</v>
@@ -10423,8 +11529,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D278" t="n">
-        <v>1</v>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -10443,13 +11551,15 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>ObjectId:("b5d3f84a22234d5737b087f4f089a0930bb9d")</t>
+          <t>ObjectId:('b5d3f84a22234d5737b087f4f089a0930bb9d')</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="n">
-        <v>278</v>
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
       </c>
       <c r="B279" t="n">
         <v>56</v>
@@ -10459,8 +11569,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D279" t="n">
-        <v>1</v>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -10479,13 +11591,15 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>ObjectId:("0a984614b68620f2ef2f73f9072f77b112bb6")</t>
+          <t>ObjectId:('0a984614b68620f2ef2f73f9072f77b112bb6')</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
-        <v>279</v>
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
       </c>
       <c r="B280" t="n">
         <v>75</v>
@@ -10495,8 +11609,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D280" t="n">
-        <v>0</v>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -10515,13 +11631,15 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>ObjectId:("c638fbd2f1efe46ffc39891b5a9370932f752")</t>
+          <t>ObjectId:('c638fbd2f1efe46ffc39891b5a9370932f752')</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
-        <v>280</v>
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
       </c>
       <c r="B281" t="n">
         <v>84</v>
@@ -10531,8 +11649,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D281" t="n">
-        <v>0</v>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -10551,13 +11671,15 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>ObjectId:("25181abdc38722d30b4c9cf5b7ce3afb599cb")</t>
+          <t>ObjectId:('25181abdc38722d30b4c9cf5b7ce3afb599cb')</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
-        <v>281</v>
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
       </c>
       <c r="B282" t="n">
         <v>46</v>
@@ -10567,8 +11689,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D282" t="n">
-        <v>0</v>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -10587,13 +11711,15 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>ObjectId:("2eed4f4721ac77321b31bd74c4e62da9d9478")</t>
+          <t>ObjectId:('2eed4f4721ac77321b31bd74c4e62da9d9478')</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
-        <v>282</v>
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
       </c>
       <c r="B283" t="n">
         <v>35</v>
@@ -10603,8 +11729,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D283" t="n">
-        <v>0</v>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -10623,13 +11751,15 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>ObjectId:("5b02ff8d8fa06643be83a4149fbb9432fc298")</t>
+          <t>ObjectId:('5b02ff8d8fa06643be83a4149fbb9432fc298')</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n">
-        <v>283</v>
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
       </c>
       <c r="B284" t="n">
         <v>36</v>
@@ -10639,8 +11769,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D284" t="n">
-        <v>0</v>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -10659,13 +11791,15 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>ObjectId:("d264177de4e2f1e3774c74cf68530150c245a")</t>
+          <t>ObjectId:('d264177de4e2f1e3774c74cf68530150c245a')</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
-        <v>284</v>
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
       </c>
       <c r="B285" t="n">
         <v>45</v>
@@ -10675,8 +11809,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D285" t="n">
-        <v>1</v>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -10695,13 +11831,15 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>ObjectId:("dfbffbec44cad8386e8ecf3d70c1ff58a9dfe")</t>
+          <t>ObjectId:('dfbffbec44cad8386e8ecf3d70c1ff58a9dfe')</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
-        <v>285</v>
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
       </c>
       <c r="B286" t="n">
         <v>94</v>
@@ -10711,8 +11849,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D286" t="n">
-        <v>1</v>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -10731,13 +11871,15 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>ObjectId:("e199cf9e20ebcb0735c2fbb11168826df6e78")</t>
+          <t>ObjectId:('e199cf9e20ebcb0735c2fbb11168826df6e78')</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="n">
-        <v>286</v>
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
       </c>
       <c r="B287" t="n">
         <v>73</v>
@@ -10747,8 +11889,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D287" t="n">
-        <v>1</v>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -10767,13 +11911,15 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>ObjectId:("f0bfa165cccfc42c64bed7a8442058fb514c1")</t>
+          <t>ObjectId:('f0bfa165cccfc42c64bed7a8442058fb514c1')</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="n">
-        <v>287</v>
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
       </c>
       <c r="B288" t="n">
         <v>36</v>
@@ -10783,8 +11929,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D288" t="n">
-        <v>0</v>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -10803,13 +11951,15 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>ObjectId:("8f0c8840c02bf55ee6bad7f970f0286460077")</t>
+          <t>ObjectId:('8f0c8840c02bf55ee6bad7f970f0286460077')</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="n">
-        <v>288</v>
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
       </c>
       <c r="B289" t="n">
         <v>86</v>
@@ -10819,8 +11969,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D289" t="n">
-        <v>1</v>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -10839,13 +11991,15 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>ObjectId:("99bfcfe87b897fc3766b36938512b56ddbefc")</t>
+          <t>ObjectId:('99bfcfe87b897fc3766b36938512b56ddbefc')</t>
         </is>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="n">
-        <v>289</v>
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
       </c>
       <c r="B290" t="n">
         <v>75</v>
@@ -10855,8 +12009,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D290" t="n">
-        <v>1</v>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -10875,13 +12031,15 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>ObjectId:("0b073475f2ad56d969b5500c947d7b379c81b")</t>
+          <t>ObjectId:('0b073475f2ad56d969b5500c947d7b379c81b')</t>
         </is>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="n">
-        <v>290</v>
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
       </c>
       <c r="B291" t="n">
         <v>31</v>
@@ -10891,8 +12049,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D291" t="n">
-        <v>0</v>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -10911,13 +12071,15 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>ObjectId:("db3c3e70c1d08cc9a3956ac2970e87a7e5b73")</t>
+          <t>ObjectId:('db3c3e70c1d08cc9a3956ac2970e87a7e5b73')</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="n">
-        <v>291</v>
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
       </c>
       <c r="B292" t="n">
         <v>57</v>
@@ -10927,8 +12089,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D292" t="n">
-        <v>0</v>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -10947,13 +12111,15 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>ObjectId:("89da545ccbf268058c1d6ac9aea385e6444f7")</t>
+          <t>ObjectId:('89da545ccbf268058c1d6ac9aea385e6444f7')</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="n">
-        <v>292</v>
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
       </c>
       <c r="B293" t="n">
         <v>19</v>
@@ -10963,8 +12129,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D293" t="n">
-        <v>0</v>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -10983,13 +12151,15 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>ObjectId:("075b4df84a08ec551cf914675fb79568241a1")</t>
+          <t>ObjectId:('075b4df84a08ec551cf914675fb79568241a1')</t>
         </is>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="n">
-        <v>293</v>
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
       </c>
       <c r="B294" t="n">
         <v>45</v>
@@ -10999,8 +12169,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D294" t="n">
-        <v>1</v>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -11019,13 +12191,15 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>ObjectId:("75fd778eaed4c5d0be1b3cf1984abd9792de9")</t>
+          <t>ObjectId:('75fd778eaed4c5d0be1b3cf1984abd9792de9')</t>
         </is>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="n">
-        <v>294</v>
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
       </c>
       <c r="B295" t="n">
         <v>41</v>
@@ -11035,8 +12209,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D295" t="n">
-        <v>1</v>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -11055,13 +12231,15 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>ObjectId:("29fbdf63206faee155acfcdc31b2bb9274d72")</t>
+          <t>ObjectId:('29fbdf63206faee155acfcdc31b2bb9274d72')</t>
         </is>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="n">
-        <v>295</v>
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
       </c>
       <c r="B296" t="n">
         <v>35</v>
@@ -11071,8 +12249,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D296" t="n">
-        <v>0</v>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -11091,13 +12271,15 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>ObjectId:("8f2c8e0e4be3303b9657734b610d5708972e8")</t>
+          <t>ObjectId:('8f2c8e0e4be3303b9657734b610d5708972e8')</t>
         </is>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="n">
-        <v>296</v>
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
       </c>
       <c r="B297" t="n">
         <v>20</v>
@@ -11107,8 +12289,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D297" t="n">
-        <v>1</v>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -11127,13 +12311,15 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>ObjectId:("1b11a8cd5a035016630396e6d9e339ca31139")</t>
+          <t>ObjectId:('1b11a8cd5a035016630396e6d9e339ca31139')</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="n">
-        <v>297</v>
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
       </c>
       <c r="B298" t="n">
         <v>84</v>
@@ -11143,8 +12329,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D298" t="n">
-        <v>1</v>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -11163,13 +12351,15 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>ObjectId:("2f6c942276feccad877d36b71feb5c9a9cbc1")</t>
+          <t>ObjectId:('2f6c942276feccad877d36b71feb5c9a9cbc1')</t>
         </is>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="n">
-        <v>298</v>
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
       </c>
       <c r="B299" t="n">
         <v>93</v>
@@ -11179,8 +12369,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D299" t="n">
-        <v>0</v>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -11199,13 +12391,15 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>ObjectId:("0fb459fea4834428eaac8b76d1c0d5b3884fe")</t>
+          <t>ObjectId:('0fb459fea4834428eaac8b76d1c0d5b3884fe')</t>
         </is>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="n">
-        <v>299</v>
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
       </c>
       <c r="B300" t="n">
         <v>83</v>
@@ -11215,8 +12409,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D300" t="n">
-        <v>0</v>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -11235,13 +12431,15 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>ObjectId:("4d5be795b77f8c371692fb7e13e78e705c3b7")</t>
+          <t>ObjectId:('4d5be795b77f8c371692fb7e13e78e705c3b7')</t>
         </is>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="n">
-        <v>300</v>
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
       </c>
       <c r="B301" t="n">
         <v>93</v>
@@ -11251,8 +12449,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D301" t="n">
-        <v>0</v>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -11271,7 +12471,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>ObjectId:("378646515416f691b7170b6208d3275764816")</t>
+          <t>ObjectId:('378646515416f691b7170b6208d3275764816')</t>
         </is>
       </c>
     </row>
